--- a/Documenti/Part 1/Probabilities.xlsx
+++ b/Documenti/Part 1/Probabilities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alessandrocarughi/Documents/GitHub/DIA_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30041836-7567-7244-A29E-CDF1DDF2DFCA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FFD8CF-61CE-C347-BC14-EB4C8D339656}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{292AB044-84C9-AC49-9279-4A2A3B09F51E}"/>
   </bookViews>
@@ -249,7 +249,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -298,6 +298,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -451,7 +452,7 @@
                   <c:v>1.8297000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7816000000000002E-2</c:v>
+                  <c:v>1.787675E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.7271999999999999E-2</c:v>
@@ -463,10 +464,10 @@
                   <c:v>1.4872999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.338E-2</c:v>
+                  <c:v>1.33315E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2256E-2</c:v>
+                  <c:v>1.2231500000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1.0805999999999998E-2</c:v>
@@ -1467,7 +1468,7 @@
                   <c:v>1.1250000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.2299999999999986E-3</c:v>
+                  <c:v>1.0444999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.0224999999999998E-2</c:v>
@@ -1479,10 +1480,10 @@
                   <c:v>8.1499999999999993E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.5199999999999981E-3</c:v>
+                  <c:v>7.5499999999999994E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.7199999999999994E-3</c:v>
+                  <c:v>7.2300000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>6.2699999999999987E-3</c:v>
@@ -1813,7 +1814,7 @@
                   <c:v>1.8747000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.8565999999999999E-2</c:v>
+                  <c:v>1.8647E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.8546999999999998E-2</c:v>
@@ -1825,10 +1826,10 @@
                   <c:v>1.6222999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4579999999999999E-2</c:v>
+                  <c:v>1.4518999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3456000000000001E-2</c:v>
+                  <c:v>1.3420000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1.1456000000000001E-2</c:v>
@@ -1909,7 +1910,7 @@
                   <c:v>1.7347000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6265999999999999E-2</c:v>
+                  <c:v>1.6347E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.5747000000000001E-2</c:v>
@@ -1921,7 +1922,7 @@
                   <c:v>1.2922999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1579999999999998E-2</c:v>
+                  <c:v>1.1543999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1.0255999999999999E-2</c:v>
@@ -2018,10 +2019,10 @@
                   <c:v>1.4123E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2780000000000001E-2</c:v>
+                  <c:v>1.2744E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1856E-2</c:v>
+                  <c:v>1.183E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1.1056E-2</c:v>
@@ -5439,8 +5440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9352B1A5-A1D3-6A47-B7F2-E5F2E1DD6A53}">
   <dimension ref="B3:AC124"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="F94" sqref="F94"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="82" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5471,6 +5472,7 @@
       <c r="D6" s="17"/>
       <c r="E6" s="25"/>
       <c r="F6" s="25"/>
+      <c r="P6" s="27"/>
       <c r="Q6" s="21"/>
       <c r="R6" s="21"/>
       <c r="S6" s="21"/>
@@ -5486,6 +5488,7 @@
       <c r="D7" s="7"/>
       <c r="E7" s="19"/>
       <c r="F7" s="19"/>
+      <c r="P7" s="27"/>
       <c r="Q7" s="21"/>
       <c r="R7" s="21"/>
       <c r="S7" s="22"/>
@@ -5501,6 +5504,7 @@
       <c r="D8" s="7"/>
       <c r="E8" s="19"/>
       <c r="F8" s="19"/>
+      <c r="P8" s="27"/>
     </row>
     <row r="9" spans="2:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="20"/>
@@ -5508,6 +5512,7 @@
       <c r="D9" s="7"/>
       <c r="E9" s="19"/>
       <c r="F9" s="19"/>
+      <c r="P9" s="27"/>
     </row>
     <row r="10" spans="2:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="20"/>
@@ -5603,13 +5608,13 @@
       </c>
       <c r="E12" s="9">
         <f t="shared" ref="E12:E19" si="1">E33*$C$31 + E54*$C$52 + E75*$C$73</f>
-        <v>1.7816000000000002E-2</v>
+        <v>1.787675E-2</v>
       </c>
       <c r="F12" s="19"/>
       <c r="G12" s="23"/>
       <c r="P12" s="26">
         <f>S12*1/2 +W12*1/4 +AA12*1/4</f>
-        <v>1.7815999999999999E-2</v>
+        <v>1.787675E-2</v>
       </c>
       <c r="R12" s="3">
         <f t="shared" ref="R12:R19" si="2">R11+25</f>
@@ -5617,7 +5622,7 @@
       </c>
       <c r="S12" s="9">
         <f t="shared" ref="S12:S19" si="3">S33*$C$31+S54*$C$52+S75*$C$73</f>
-        <v>1.8565999999999999E-2</v>
+        <v>1.8647E-2</v>
       </c>
       <c r="V12" s="3">
         <f t="shared" ref="V12:V19" si="4">V11+25</f>
@@ -5625,7 +5630,7 @@
       </c>
       <c r="W12" s="9">
         <f t="shared" ref="W12:W19" si="5">W33*$C$31+W54*$C$52+W75*$C$73</f>
-        <v>1.6265999999999999E-2</v>
+        <v>1.6347E-2</v>
       </c>
       <c r="Z12" s="3">
         <f t="shared" ref="Z12:Z19" si="6">Z11+25</f>
@@ -5763,13 +5768,13 @@
       </c>
       <c r="E16" s="9">
         <f t="shared" si="1"/>
-        <v>1.338E-2</v>
+        <v>1.33315E-2</v>
       </c>
       <c r="F16" s="19"/>
       <c r="G16" s="23"/>
       <c r="P16" s="26">
         <f>S16*1/2 +W16*1/4 +AA16*1/4</f>
-        <v>1.338E-2</v>
+        <v>1.3331499999999998E-2</v>
       </c>
       <c r="R16" s="3">
         <f t="shared" si="2"/>
@@ -5777,7 +5782,7 @@
       </c>
       <c r="S16" s="9">
         <f t="shared" si="3"/>
-        <v>1.4579999999999999E-2</v>
+        <v>1.4518999999999999E-2</v>
       </c>
       <c r="V16" s="3">
         <f t="shared" si="4"/>
@@ -5785,7 +5790,7 @@
       </c>
       <c r="W16" s="9">
         <f t="shared" si="5"/>
-        <v>1.1579999999999998E-2</v>
+        <v>1.1543999999999999E-2</v>
       </c>
       <c r="Z16" s="3">
         <f t="shared" si="6"/>
@@ -5793,7 +5798,7 @@
       </c>
       <c r="AA16" s="9">
         <f t="shared" si="7"/>
-        <v>1.2780000000000001E-2</v>
+        <v>1.2744E-2</v>
       </c>
     </row>
     <row r="17" spans="3:29" x14ac:dyDescent="0.2">
@@ -5803,13 +5808,13 @@
       </c>
       <c r="E17" s="10">
         <f t="shared" si="1"/>
-        <v>1.2256E-2</v>
+        <v>1.2231500000000001E-2</v>
       </c>
       <c r="F17" s="19"/>
       <c r="G17" s="23"/>
       <c r="P17" s="26">
         <f>S17*1/2 +W17*1/4 +AA17*1/4</f>
-        <v>1.2256E-2</v>
+        <v>1.2231500000000001E-2</v>
       </c>
       <c r="R17" s="4">
         <f t="shared" si="2"/>
@@ -5817,7 +5822,7 @@
       </c>
       <c r="S17" s="10">
         <f t="shared" si="3"/>
-        <v>1.3456000000000001E-2</v>
+        <v>1.3420000000000001E-2</v>
       </c>
       <c r="V17" s="4">
         <f t="shared" si="4"/>
@@ -5833,7 +5838,7 @@
       </c>
       <c r="AA17" s="10">
         <f t="shared" si="7"/>
-        <v>1.1856E-2</v>
+        <v>1.183E-2</v>
       </c>
     </row>
     <row r="18" spans="3:29" x14ac:dyDescent="0.2">
@@ -5969,28 +5974,28 @@
       <c r="D23" s="7"/>
       <c r="E23" s="19"/>
       <c r="F23" s="19"/>
-      <c r="P23" s="27"/>
+      <c r="P23" s="30"/>
     </row>
     <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="6"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="6"/>
-      <c r="P24" s="27"/>
+      <c r="P24" s="30"/>
     </row>
     <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="6"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="6"/>
-      <c r="P25" s="27"/>
+      <c r="P25" s="30"/>
     </row>
     <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
-      <c r="P26" s="27"/>
+      <c r="P26" s="30"/>
     </row>
     <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="7"/>
@@ -7115,24 +7120,24 @@
         <v>325</v>
       </c>
       <c r="E75" s="9">
-        <v>9.2299999999999986E-3</v>
+        <v>1.0444999999999999E-2</v>
       </c>
       <c r="F75" s="19"/>
       <c r="P75" s="26">
         <f t="shared" si="10"/>
-        <v>9.2299999999999986E-3</v>
+        <v>1.0444999999999999E-2</v>
       </c>
       <c r="R75" s="3">
         <v>325</v>
       </c>
       <c r="S75" s="9">
-        <v>9.9799999999999993E-3</v>
+        <v>1.1599999999999999E-2</v>
       </c>
       <c r="V75" s="3">
         <v>325</v>
       </c>
       <c r="W75" s="9">
-        <v>7.6799999999999993E-3</v>
+        <v>9.2999999999999992E-3</v>
       </c>
       <c r="Z75" s="3">
         <v>325</v>
@@ -7239,30 +7244,30 @@
         <v>425</v>
       </c>
       <c r="E79" s="9">
-        <v>8.5199999999999981E-3</v>
+        <v>7.5499999999999994E-3</v>
       </c>
       <c r="F79" s="19"/>
       <c r="P79" s="26">
         <f t="shared" si="10"/>
-        <v>8.5199999999999981E-3</v>
+        <v>7.5499999999999994E-3</v>
       </c>
       <c r="R79" s="3">
         <v>425</v>
       </c>
       <c r="S79" s="9">
-        <v>9.7199999999999977E-3</v>
+        <v>8.5000000000000006E-3</v>
       </c>
       <c r="V79" s="3">
         <v>425</v>
       </c>
       <c r="W79" s="9">
-        <v>6.7199999999999985E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="Z79" s="3">
         <v>425</v>
       </c>
       <c r="AA79" s="9">
-        <v>7.9199999999999982E-3</v>
+        <v>7.1999999999999998E-3</v>
       </c>
     </row>
     <row r="80" spans="3:27" x14ac:dyDescent="0.2">
@@ -7270,18 +7275,18 @@
         <v>450</v>
       </c>
       <c r="E80" s="10">
-        <v>7.7199999999999994E-3</v>
+        <v>7.2300000000000003E-3</v>
       </c>
       <c r="F80" s="19"/>
       <c r="P80" s="26">
         <f t="shared" si="10"/>
-        <v>7.7199999999999994E-3</v>
+        <v>7.2300000000000003E-3</v>
       </c>
       <c r="R80" s="4">
         <v>450</v>
       </c>
       <c r="S80" s="10">
-        <v>8.9199999999999991E-3</v>
+        <v>8.2000000000000007E-3</v>
       </c>
       <c r="V80" s="4">
         <v>450</v>
@@ -7293,7 +7298,7 @@
         <v>450</v>
       </c>
       <c r="AA80" s="10">
-        <v>7.3199999999999984E-3</v>
+        <v>6.7999999999999996E-3</v>
       </c>
     </row>
     <row r="81" spans="3:29" x14ac:dyDescent="0.2">
@@ -7417,7 +7422,7 @@
       <c r="P87" s="27"/>
     </row>
     <row r="88" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="P88" s="27"/>
+      <c r="P88" s="30"/>
     </row>
     <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="P89" s="27"/>

--- a/Documenti/Part 1/Probabilities.xlsx
+++ b/Documenti/Part 1/Probabilities.xlsx
@@ -5,10 +5,10 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alessandrocarughi/Documents/GitHub/DIA_Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alessandrocarughi/Documents/GitHub/DIA_Project/Documenti/Part 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FFD8CF-61CE-C347-BC14-EB4C8D339656}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACCDEF18-027B-5A4B-B894-B9F87CC1428E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{292AB044-84C9-AC49-9279-4A2A3B09F51E}"/>
   </bookViews>
@@ -5440,7 +5440,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9352B1A5-A1D3-6A47-B7F2-E5F2E1DD6A53}">
   <dimension ref="B3:AC124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="82" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="82" workbookViewId="0">
       <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
@@ -5567,7 +5567,7 @@
       <c r="F11" s="19"/>
       <c r="G11" s="23"/>
       <c r="P11" s="26">
-        <f>S11*1/2 +W11*1/4 +AA11*1/4</f>
+        <f t="shared" ref="P11:P19" si="0">S11*1/2 +W11*1/4 +AA11*1/4</f>
         <v>1.8297000000000001E-2</v>
       </c>
       <c r="Q11" s="12" t="s">
@@ -5603,321 +5603,321 @@
     </row>
     <row r="12" spans="2:27" x14ac:dyDescent="0.2">
       <c r="D12" s="3">
-        <f t="shared" ref="D9:D17" si="0">D11+25</f>
+        <f t="shared" ref="D12:D17" si="1">D11+25</f>
         <v>325</v>
       </c>
       <c r="E12" s="9">
-        <f t="shared" ref="E12:E19" si="1">E33*$C$31 + E54*$C$52 + E75*$C$73</f>
+        <f t="shared" ref="E12:E19" si="2">E33*$C$31 + E54*$C$52 + E75*$C$73</f>
         <v>1.787675E-2</v>
       </c>
       <c r="F12" s="19"/>
       <c r="G12" s="23"/>
       <c r="P12" s="26">
-        <f>S12*1/2 +W12*1/4 +AA12*1/4</f>
+        <f t="shared" si="0"/>
         <v>1.787675E-2</v>
       </c>
       <c r="R12" s="3">
-        <f t="shared" ref="R12:R19" si="2">R11+25</f>
+        <f t="shared" ref="R12:R19" si="3">R11+25</f>
         <v>325</v>
       </c>
       <c r="S12" s="9">
-        <f t="shared" ref="S12:S19" si="3">S33*$C$31+S54*$C$52+S75*$C$73</f>
+        <f t="shared" ref="S12:S19" si="4">S33*$C$31+S54*$C$52+S75*$C$73</f>
         <v>1.8647E-2</v>
       </c>
       <c r="V12" s="3">
-        <f t="shared" ref="V12:V19" si="4">V11+25</f>
+        <f t="shared" ref="V12:V19" si="5">V11+25</f>
         <v>325</v>
       </c>
       <c r="W12" s="9">
-        <f t="shared" ref="W12:W19" si="5">W33*$C$31+W54*$C$52+W75*$C$73</f>
+        <f t="shared" ref="W12:W19" si="6">W33*$C$31+W54*$C$52+W75*$C$73</f>
         <v>1.6347E-2</v>
       </c>
       <c r="Z12" s="3">
-        <f t="shared" ref="Z12:Z19" si="6">Z11+25</f>
+        <f t="shared" ref="Z12:Z19" si="7">Z11+25</f>
         <v>325</v>
       </c>
       <c r="AA12" s="9">
-        <f t="shared" ref="AA12:AA19" si="7">AA33*$C$31+AA54*$C$52+AA75*$C$73</f>
+        <f t="shared" ref="AA12:AA19" si="8">AA33*$C$31+AA54*$C$52+AA75*$C$73</f>
         <v>1.7866E-2</v>
       </c>
     </row>
     <row r="13" spans="2:27" x14ac:dyDescent="0.2">
       <c r="D13" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>350</v>
       </c>
       <c r="E13" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.7271999999999999E-2</v>
       </c>
       <c r="F13" s="19"/>
       <c r="G13" s="23"/>
       <c r="P13" s="26">
-        <f>S13*1/2 +W13*1/4 +AA13*1/4</f>
+        <f t="shared" si="0"/>
         <v>1.7271999999999999E-2</v>
       </c>
       <c r="R13" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>350</v>
       </c>
       <c r="S13" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.8546999999999998E-2</v>
       </c>
       <c r="V13" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>350</v>
       </c>
       <c r="W13" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.5747000000000001E-2</v>
       </c>
       <c r="Z13" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>350</v>
       </c>
       <c r="AA13" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.6247000000000001E-2</v>
       </c>
     </row>
     <row r="14" spans="2:27" x14ac:dyDescent="0.2">
       <c r="D14" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>375</v>
       </c>
       <c r="E14" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5672999999999999E-2</v>
       </c>
       <c r="F14" s="19"/>
       <c r="G14" s="23"/>
       <c r="P14" s="26">
-        <f>S14*1/2 +W14*1/4 +AA14*1/4</f>
+        <f t="shared" si="0"/>
         <v>1.5673000000000003E-2</v>
       </c>
       <c r="R14" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>375</v>
       </c>
       <c r="S14" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.7023000000000003E-2</v>
       </c>
       <c r="V14" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>375</v>
       </c>
       <c r="W14" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.4023000000000001E-2</v>
       </c>
       <c r="Z14" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>375</v>
       </c>
       <c r="AA14" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.4623000000000001E-2</v>
       </c>
     </row>
     <row r="15" spans="2:27" x14ac:dyDescent="0.2">
       <c r="D15" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>400</v>
       </c>
       <c r="E15" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.4872999999999999E-2</v>
       </c>
       <c r="F15" s="19"/>
       <c r="G15" s="23"/>
       <c r="P15" s="26">
-        <f>S15*1/2 +W15*1/4 +AA15*1/4</f>
+        <f t="shared" si="0"/>
         <v>1.4872999999999997E-2</v>
       </c>
       <c r="R15" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>400</v>
       </c>
       <c r="S15" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.6222999999999998E-2</v>
       </c>
       <c r="V15" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>400</v>
       </c>
       <c r="W15" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.2922999999999999E-2</v>
       </c>
       <c r="Z15" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>400</v>
       </c>
       <c r="AA15" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.4123E-2</v>
       </c>
     </row>
     <row r="16" spans="2:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>425</v>
       </c>
       <c r="E16" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.33315E-2</v>
       </c>
       <c r="F16" s="19"/>
       <c r="G16" s="23"/>
       <c r="P16" s="26">
-        <f>S16*1/2 +W16*1/4 +AA16*1/4</f>
+        <f t="shared" si="0"/>
         <v>1.3331499999999998E-2</v>
       </c>
       <c r="R16" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>425</v>
       </c>
       <c r="S16" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.4518999999999999E-2</v>
       </c>
       <c r="V16" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>425</v>
       </c>
       <c r="W16" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.1543999999999999E-2</v>
       </c>
       <c r="Z16" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>425</v>
       </c>
       <c r="AA16" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2744E-2</v>
       </c>
     </row>
     <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="D17" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>450</v>
       </c>
       <c r="E17" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2231500000000001E-2</v>
       </c>
       <c r="F17" s="19"/>
       <c r="G17" s="23"/>
       <c r="P17" s="26">
-        <f>S17*1/2 +W17*1/4 +AA17*1/4</f>
+        <f t="shared" si="0"/>
         <v>1.2231500000000001E-2</v>
       </c>
       <c r="R17" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>450</v>
       </c>
       <c r="S17" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3420000000000001E-2</v>
       </c>
       <c r="V17" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>450</v>
       </c>
       <c r="W17" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0255999999999999E-2</v>
       </c>
       <c r="Z17" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>450</v>
       </c>
       <c r="AA17" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.183E-2</v>
       </c>
     </row>
     <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="D18" s="3">
-        <f t="shared" ref="D18:D23" si="8">D17+25</f>
+        <f t="shared" ref="D18:D19" si="9">D17+25</f>
         <v>475</v>
       </c>
       <c r="E18" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0805999999999998E-2</v>
       </c>
       <c r="F18" s="19"/>
       <c r="G18" s="23"/>
       <c r="P18" s="26">
-        <f>S18*1/2 +W18*1/4 +AA18*1/4</f>
+        <f t="shared" si="0"/>
         <v>1.0806E-2</v>
       </c>
       <c r="R18" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>475</v>
       </c>
       <c r="S18" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1456000000000001E-2</v>
       </c>
       <c r="V18" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>475</v>
       </c>
       <c r="W18" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.2559999999999986E-3</v>
       </c>
       <c r="Z18" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>475</v>
       </c>
       <c r="AA18" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.1056E-2</v>
       </c>
     </row>
     <row r="19" spans="3:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D19" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>500</v>
       </c>
       <c r="E19" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.137000000000001E-3</v>
       </c>
       <c r="F19" s="19"/>
       <c r="G19" s="23"/>
       <c r="P19" s="26">
-        <f>S19*1/2 +W19*1/4 +AA19*1/4</f>
+        <f t="shared" si="0"/>
         <v>9.137000000000001E-3</v>
       </c>
       <c r="R19" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>500</v>
       </c>
       <c r="S19" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.6370000000000015E-3</v>
       </c>
       <c r="V19" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>500</v>
       </c>
       <c r="W19" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.8370000000000002E-3</v>
       </c>
       <c r="Z19" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>500</v>
       </c>
       <c r="AA19" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9.4369999999999992E-3</v>
       </c>
     </row>
@@ -6141,7 +6141,7 @@
     </row>
     <row r="33" spans="3:29" x14ac:dyDescent="0.2">
       <c r="D33" s="3">
-        <f t="shared" ref="D30:D44" si="9">D32+25</f>
+        <f t="shared" ref="D33:D40" si="10">D32+25</f>
         <v>325</v>
       </c>
       <c r="E33" s="9">
@@ -6149,7 +6149,7 @@
       </c>
       <c r="F33" s="19"/>
       <c r="P33" s="26">
-        <f t="shared" ref="P33:P82" si="10">S33*1/2 +W33*1/4 +AA33*1/4</f>
+        <f t="shared" ref="P33:P82" si="11">S33*1/2 +W33*1/4 +AA33*1/4</f>
         <v>1.8949999999999998E-2</v>
       </c>
       <c r="R33" s="3">
@@ -6177,13 +6177,13 @@
         <v>1.9E-2</v>
       </c>
       <c r="AC33" s="26">
-        <f t="shared" ref="AC33:AC40" si="11">E33-AA33</f>
+        <f t="shared" ref="AC33:AC40" si="12">E33-AA33</f>
         <v>-5.0000000000001432E-5</v>
       </c>
     </row>
     <row r="34" spans="3:29" x14ac:dyDescent="0.2">
       <c r="D34" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>350</v>
       </c>
       <c r="E34" s="10">
@@ -6191,7 +6191,7 @@
       </c>
       <c r="F34" s="19"/>
       <c r="P34" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.8324999999999998E-2</v>
       </c>
       <c r="R34" s="4">
@@ -6219,13 +6219,13 @@
         <v>1.7299999999999999E-2</v>
       </c>
       <c r="AC34" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.0249999999999981E-3</v>
       </c>
     </row>
     <row r="35" spans="3:29" x14ac:dyDescent="0.2">
       <c r="D35" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>375</v>
       </c>
       <c r="E35" s="9">
@@ -6233,7 +6233,7 @@
       </c>
       <c r="F35" s="19"/>
       <c r="P35" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.7049999999999999E-2</v>
       </c>
       <c r="R35" s="3">
@@ -6261,13 +6261,13 @@
         <v>1.6E-2</v>
       </c>
       <c r="AC35" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.0499999999999989E-3</v>
       </c>
     </row>
     <row r="36" spans="3:29" x14ac:dyDescent="0.2">
       <c r="D36" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>400</v>
       </c>
       <c r="E36" s="10">
@@ -6275,7 +6275,7 @@
       </c>
       <c r="F36" s="19"/>
       <c r="P36" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.6250000000000001E-2</v>
       </c>
       <c r="R36" s="4">
@@ -6303,13 +6303,13 @@
         <v>1.55E-2</v>
       </c>
       <c r="AC36" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.5000000000000067E-4</v>
       </c>
     </row>
     <row r="37" spans="3:29" x14ac:dyDescent="0.2">
       <c r="D37" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>425</v>
       </c>
       <c r="E37" s="9">
@@ -6317,7 +6317,7 @@
       </c>
       <c r="F37" s="19"/>
       <c r="P37" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="R37" s="3">
@@ -6345,13 +6345,13 @@
         <v>1.44E-2</v>
       </c>
       <c r="AC37" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5.9999999999999984E-4</v>
       </c>
     </row>
     <row r="38" spans="3:29" x14ac:dyDescent="0.2">
       <c r="D38" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>450</v>
       </c>
       <c r="E38" s="10">
@@ -6359,7 +6359,7 @@
       </c>
       <c r="F38" s="19"/>
       <c r="P38" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.4200000000000001E-2</v>
       </c>
       <c r="R38" s="4">
@@ -6387,13 +6387,13 @@
         <v>1.38E-2</v>
       </c>
       <c r="AC38" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4.0000000000000105E-4</v>
       </c>
     </row>
     <row r="39" spans="3:29" x14ac:dyDescent="0.2">
       <c r="D39" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>475</v>
       </c>
       <c r="E39" s="9">
@@ -6401,7 +6401,7 @@
       </c>
       <c r="F39" s="19"/>
       <c r="P39" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.2749999999999999E-2</v>
       </c>
       <c r="R39" s="3">
@@ -6429,13 +6429,13 @@
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="AC39" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-2.5000000000000022E-4</v>
       </c>
     </row>
     <row r="40" spans="3:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D40" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>500</v>
       </c>
       <c r="E40" s="11">
@@ -6443,7 +6443,7 @@
       </c>
       <c r="F40" s="19"/>
       <c r="P40" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="R40" s="5">
@@ -6471,7 +6471,7 @@
         <v>1.1299999999999999E-2</v>
       </c>
       <c r="AC40" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-2.9999999999999992E-4</v>
       </c>
     </row>
@@ -6640,7 +6640,7 @@
       </c>
       <c r="F53" s="19"/>
       <c r="P53" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.6110000000000006E-2</v>
       </c>
       <c r="Q53" s="12" t="s">
@@ -6680,7 +6680,7 @@
       </c>
       <c r="F54" s="19"/>
       <c r="P54" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.5710000000000002E-2</v>
       </c>
       <c r="R54" s="3">
@@ -6711,7 +6711,7 @@
       </c>
       <c r="F55" s="19"/>
       <c r="P55" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.5085000000000001E-2</v>
       </c>
       <c r="R55" s="4">
@@ -6742,7 +6742,7 @@
       </c>
       <c r="F56" s="19"/>
       <c r="P56" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.2189999999999999E-2</v>
       </c>
       <c r="R56" s="3">
@@ -6773,7 +6773,7 @@
       </c>
       <c r="F57" s="19"/>
       <c r="P57" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.1389999999999997E-2</v>
       </c>
       <c r="R57" s="4">
@@ -6804,7 +6804,7 @@
       </c>
       <c r="F58" s="19"/>
       <c r="P58" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>8.5199999999999981E-3</v>
       </c>
       <c r="R58" s="3">
@@ -6835,7 +6835,7 @@
       </c>
       <c r="F59" s="19"/>
       <c r="P59" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.0999999999999995E-3</v>
       </c>
       <c r="R59" s="4">
@@ -6866,7 +6866,7 @@
       </c>
       <c r="F60" s="19"/>
       <c r="P60" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.649999999999997E-3</v>
       </c>
       <c r="R60" s="3">
@@ -6897,7 +6897,7 @@
       </c>
       <c r="F61" s="19"/>
       <c r="P61" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.9000000000000015E-3</v>
       </c>
       <c r="R61" s="5">
@@ -7084,7 +7084,7 @@
       </c>
       <c r="F74" s="19"/>
       <c r="P74" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.1250000000000003E-2</v>
       </c>
       <c r="Q74" s="12" t="s">
@@ -7124,7 +7124,7 @@
       </c>
       <c r="F75" s="19"/>
       <c r="P75" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.0444999999999999E-2</v>
       </c>
       <c r="R75" s="3">
@@ -7155,7 +7155,7 @@
       </c>
       <c r="F76" s="19"/>
       <c r="P76" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.0224999999999998E-2</v>
       </c>
       <c r="R76" s="4">
@@ -7186,7 +7186,7 @@
       </c>
       <c r="F77" s="19"/>
       <c r="P77" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>8.9499999999999962E-3</v>
       </c>
       <c r="R77" s="3">
@@ -7217,7 +7217,7 @@
       </c>
       <c r="F78" s="19"/>
       <c r="P78" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>8.1499999999999993E-3</v>
       </c>
       <c r="R78" s="4">
@@ -7248,7 +7248,7 @@
       </c>
       <c r="F79" s="19"/>
       <c r="P79" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7.5499999999999994E-3</v>
       </c>
       <c r="R79" s="3">
@@ -7279,7 +7279,7 @@
       </c>
       <c r="F80" s="19"/>
       <c r="P80" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7.2300000000000003E-3</v>
       </c>
       <c r="R80" s="4">
@@ -7310,7 +7310,7 @@
       </c>
       <c r="F81" s="19"/>
       <c r="P81" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.2699999999999987E-3</v>
       </c>
       <c r="R81" s="3">
@@ -7341,7 +7341,7 @@
       </c>
       <c r="F82" s="19"/>
       <c r="P82" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.1400000000000014E-3</v>
       </c>
       <c r="R82" s="5">

--- a/Documenti/Part 1/Probabilities.xlsx
+++ b/Documenti/Part 1/Probabilities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alessandrocarughi/Documents/GitHub/DIA_Project/Documenti/Part 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACCDEF18-027B-5A4B-B894-B9F87CC1428E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE06C0C5-4C4E-074C-A90C-B44FA13B2BD1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{292AB044-84C9-AC49-9279-4A2A3B09F51E}"/>
   </bookViews>
@@ -60,10 +60,10 @@
     <t>P</t>
   </si>
   <si>
-    <t>Arms: 9</t>
+    <t>Arms: 5</t>
   </si>
   <si>
-    <t>Opt: 3 (375)</t>
+    <t>Opt: 1 (350)</t>
   </si>
 </sst>
 </file>
@@ -249,7 +249,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -296,9 +296,18 @@
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -408,72 +417,48 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'General And Disagregated'!$D$11:$D$19</c:f>
+              <c:f>'General And Disagregated'!$D$12:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>300</c:v>
+                  <c:v>325</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>325</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>350</c:v>
+                  <c:v>375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>375</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>425</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>450</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>475</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'General And Disagregated'!$E$11:$E$19</c:f>
+              <c:f>'General And Disagregated'!$E$12:$E$16</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.8297000000000001E-2</c:v>
+                  <c:v>1.787675E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.787675E-2</c:v>
+                  <c:v>1.7271999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7271999999999999E-2</c:v>
+                  <c:v>1.5672999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5672999999999999E-2</c:v>
+                  <c:v>1.4872999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4872999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>1.33315E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.2231500000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.0805999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.137000000000001E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5440,8 +5425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9352B1A5-A1D3-6A47-B7F2-E5F2E1DD6A53}">
   <dimension ref="B3:AC124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="82" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5488,7 +5473,7 @@
       <c r="D7" s="7"/>
       <c r="E7" s="19"/>
       <c r="F7" s="19"/>
-      <c r="P7" s="27"/>
+      <c r="P7" s="29"/>
       <c r="Q7" s="21"/>
       <c r="R7" s="21"/>
       <c r="S7" s="22"/>
@@ -5504,7 +5489,7 @@
       <c r="D8" s="7"/>
       <c r="E8" s="19"/>
       <c r="F8" s="19"/>
-      <c r="P8" s="27"/>
+      <c r="P8" s="29"/>
     </row>
     <row r="9" spans="2:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="20"/>
@@ -5512,7 +5497,7 @@
       <c r="D9" s="7"/>
       <c r="E9" s="19"/>
       <c r="F9" s="19"/>
-      <c r="P9" s="27"/>
+      <c r="P9" s="29"/>
     </row>
     <row r="10" spans="2:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="20"/>
@@ -5524,7 +5509,7 @@
         <v>8</v>
       </c>
       <c r="F10" s="19"/>
-      <c r="P10" s="27"/>
+      <c r="P10" s="29"/>
       <c r="Q10" s="14" t="s">
         <v>5</v>
       </c>
@@ -5557,16 +5542,11 @@
       <c r="C11" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="2">
-        <v>300</v>
-      </c>
-      <c r="E11" s="8">
-        <f>E32*$C$31 + E53*$C$52 + E74*$C$73</f>
-        <v>1.8297000000000001E-2</v>
-      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="8"/>
       <c r="F11" s="19"/>
       <c r="G11" s="23"/>
-      <c r="P11" s="26">
+      <c r="P11" s="32">
         <f t="shared" ref="P11:P19" si="0">S11*1/2 +W11*1/4 +AA11*1/4</f>
         <v>1.8297000000000001E-2</v>
       </c>
@@ -5603,321 +5583,305 @@
     </row>
     <row r="12" spans="2:27" x14ac:dyDescent="0.2">
       <c r="D12" s="3">
-        <f t="shared" ref="D12:D17" si="1">D11+25</f>
         <v>325</v>
       </c>
       <c r="E12" s="9">
-        <f t="shared" ref="E12:E19" si="2">E33*$C$31 + E54*$C$52 + E75*$C$73</f>
+        <f t="shared" ref="E12:E16" si="1">E33*$C$31 + E54*$C$52 + E75*$C$73</f>
         <v>1.787675E-2</v>
       </c>
       <c r="F12" s="19"/>
       <c r="G12" s="23"/>
-      <c r="P12" s="26">
+      <c r="P12" s="32">
         <f t="shared" si="0"/>
         <v>1.787675E-2</v>
       </c>
       <c r="R12" s="3">
-        <f t="shared" ref="R12:R19" si="3">R11+25</f>
+        <f t="shared" ref="R12:R19" si="2">R11+25</f>
         <v>325</v>
       </c>
       <c r="S12" s="9">
-        <f t="shared" ref="S12:S19" si="4">S33*$C$31+S54*$C$52+S75*$C$73</f>
+        <f t="shared" ref="S12:S19" si="3">S33*$C$31+S54*$C$52+S75*$C$73</f>
         <v>1.8647E-2</v>
       </c>
       <c r="V12" s="3">
-        <f t="shared" ref="V12:V19" si="5">V11+25</f>
+        <f t="shared" ref="V12:V19" si="4">V11+25</f>
         <v>325</v>
       </c>
       <c r="W12" s="9">
-        <f t="shared" ref="W12:W19" si="6">W33*$C$31+W54*$C$52+W75*$C$73</f>
+        <f t="shared" ref="W12:W19" si="5">W33*$C$31+W54*$C$52+W75*$C$73</f>
         <v>1.6347E-2</v>
       </c>
       <c r="Z12" s="3">
-        <f t="shared" ref="Z12:Z19" si="7">Z11+25</f>
+        <f t="shared" ref="Z12:Z19" si="6">Z11+25</f>
         <v>325</v>
       </c>
       <c r="AA12" s="9">
-        <f t="shared" ref="AA12:AA19" si="8">AA33*$C$31+AA54*$C$52+AA75*$C$73</f>
+        <f t="shared" ref="AA12:AA19" si="7">AA33*$C$31+AA54*$C$52+AA75*$C$73</f>
         <v>1.7866E-2</v>
       </c>
     </row>
     <row r="13" spans="2:27" x14ac:dyDescent="0.2">
       <c r="D13" s="4">
+        <f t="shared" ref="D13:D16" si="8">D12+25</f>
+        <v>350</v>
+      </c>
+      <c r="E13" s="10">
         <f t="shared" si="1"/>
-        <v>350</v>
-      </c>
-      <c r="E13" s="10">
-        <f t="shared" si="2"/>
         <v>1.7271999999999999E-2</v>
       </c>
       <c r="F13" s="19"/>
       <c r="G13" s="23"/>
-      <c r="P13" s="26">
+      <c r="P13" s="32">
         <f t="shared" si="0"/>
         <v>1.7271999999999999E-2</v>
       </c>
       <c r="R13" s="4">
+        <f t="shared" si="2"/>
+        <v>350</v>
+      </c>
+      <c r="S13" s="10">
         <f t="shared" si="3"/>
+        <v>1.8546999999999998E-2</v>
+      </c>
+      <c r="V13" s="4">
+        <f t="shared" si="4"/>
         <v>350</v>
       </c>
-      <c r="S13" s="10">
-        <f t="shared" si="4"/>
-        <v>1.8546999999999998E-2</v>
-      </c>
-      <c r="V13" s="4">
+      <c r="W13" s="10">
         <f t="shared" si="5"/>
+        <v>1.5747000000000001E-2</v>
+      </c>
+      <c r="Z13" s="4">
+        <f t="shared" si="6"/>
         <v>350</v>
       </c>
-      <c r="W13" s="10">
-        <f t="shared" si="6"/>
-        <v>1.5747000000000001E-2</v>
-      </c>
-      <c r="Z13" s="4">
+      <c r="AA13" s="10">
         <f t="shared" si="7"/>
-        <v>350</v>
-      </c>
-      <c r="AA13" s="10">
-        <f t="shared" si="8"/>
         <v>1.6247000000000001E-2</v>
       </c>
     </row>
     <row r="14" spans="2:27" x14ac:dyDescent="0.2">
       <c r="D14" s="3">
+        <f t="shared" si="8"/>
+        <v>375</v>
+      </c>
+      <c r="E14" s="9">
         <f t="shared" si="1"/>
-        <v>375</v>
-      </c>
-      <c r="E14" s="9">
-        <f t="shared" si="2"/>
         <v>1.5672999999999999E-2</v>
       </c>
       <c r="F14" s="19"/>
       <c r="G14" s="23"/>
-      <c r="P14" s="26">
+      <c r="P14" s="32">
         <f t="shared" si="0"/>
         <v>1.5673000000000003E-2</v>
       </c>
       <c r="R14" s="3">
+        <f t="shared" si="2"/>
+        <v>375</v>
+      </c>
+      <c r="S14" s="9">
         <f t="shared" si="3"/>
+        <v>1.7023000000000003E-2</v>
+      </c>
+      <c r="V14" s="3">
+        <f t="shared" si="4"/>
         <v>375</v>
       </c>
-      <c r="S14" s="9">
-        <f t="shared" si="4"/>
-        <v>1.7023000000000003E-2</v>
-      </c>
-      <c r="V14" s="3">
+      <c r="W14" s="9">
         <f t="shared" si="5"/>
+        <v>1.4023000000000001E-2</v>
+      </c>
+      <c r="Z14" s="3">
+        <f t="shared" si="6"/>
         <v>375</v>
       </c>
-      <c r="W14" s="9">
-        <f t="shared" si="6"/>
-        <v>1.4023000000000001E-2</v>
-      </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="9">
         <f t="shared" si="7"/>
-        <v>375</v>
-      </c>
-      <c r="AA14" s="9">
-        <f t="shared" si="8"/>
         <v>1.4623000000000001E-2</v>
       </c>
     </row>
     <row r="15" spans="2:27" x14ac:dyDescent="0.2">
       <c r="D15" s="4">
+        <f t="shared" si="8"/>
+        <v>400</v>
+      </c>
+      <c r="E15" s="10">
         <f t="shared" si="1"/>
-        <v>400</v>
-      </c>
-      <c r="E15" s="10">
-        <f t="shared" si="2"/>
         <v>1.4872999999999999E-2</v>
       </c>
       <c r="F15" s="19"/>
       <c r="G15" s="23"/>
-      <c r="P15" s="26">
+      <c r="P15" s="32">
         <f t="shared" si="0"/>
         <v>1.4872999999999997E-2</v>
       </c>
       <c r="R15" s="4">
+        <f t="shared" si="2"/>
+        <v>400</v>
+      </c>
+      <c r="S15" s="10">
         <f t="shared" si="3"/>
+        <v>1.6222999999999998E-2</v>
+      </c>
+      <c r="V15" s="4">
+        <f t="shared" si="4"/>
         <v>400</v>
       </c>
-      <c r="S15" s="10">
-        <f t="shared" si="4"/>
-        <v>1.6222999999999998E-2</v>
-      </c>
-      <c r="V15" s="4">
+      <c r="W15" s="10">
         <f t="shared" si="5"/>
+        <v>1.2922999999999999E-2</v>
+      </c>
+      <c r="Z15" s="4">
+        <f t="shared" si="6"/>
         <v>400</v>
       </c>
-      <c r="W15" s="10">
-        <f t="shared" si="6"/>
-        <v>1.2922999999999999E-2</v>
-      </c>
-      <c r="Z15" s="4">
+      <c r="AA15" s="10">
         <f t="shared" si="7"/>
-        <v>400</v>
-      </c>
-      <c r="AA15" s="10">
+        <v>1.4123E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="30">
         <f t="shared" si="8"/>
-        <v>1.4123E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="D16" s="3">
+        <v>425</v>
+      </c>
+      <c r="E16" s="31">
         <f t="shared" si="1"/>
-        <v>425</v>
-      </c>
-      <c r="E16" s="9">
-        <f t="shared" si="2"/>
         <v>1.33315E-2</v>
       </c>
       <c r="F16" s="19"/>
       <c r="G16" s="23"/>
-      <c r="P16" s="26">
+      <c r="P16" s="32">
         <f t="shared" si="0"/>
         <v>1.3331499999999998E-2</v>
       </c>
       <c r="R16" s="3">
+        <f t="shared" si="2"/>
+        <v>425</v>
+      </c>
+      <c r="S16" s="9">
         <f t="shared" si="3"/>
+        <v>1.4518999999999999E-2</v>
+      </c>
+      <c r="V16" s="3">
+        <f t="shared" si="4"/>
         <v>425</v>
       </c>
-      <c r="S16" s="9">
-        <f t="shared" si="4"/>
-        <v>1.4518999999999999E-2</v>
-      </c>
-      <c r="V16" s="3">
+      <c r="W16" s="9">
         <f t="shared" si="5"/>
+        <v>1.1543999999999999E-2</v>
+      </c>
+      <c r="Z16" s="3">
+        <f t="shared" si="6"/>
         <v>425</v>
       </c>
-      <c r="W16" s="9">
-        <f t="shared" si="6"/>
-        <v>1.1543999999999999E-2</v>
-      </c>
-      <c r="Z16" s="3">
+      <c r="AA16" s="9">
         <f t="shared" si="7"/>
-        <v>425</v>
-      </c>
-      <c r="AA16" s="9">
-        <f t="shared" si="8"/>
         <v>1.2744E-2</v>
       </c>
     </row>
     <row r="17" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="D17" s="4">
-        <f t="shared" si="1"/>
-        <v>450</v>
-      </c>
-      <c r="E17" s="10">
-        <f t="shared" si="2"/>
-        <v>1.2231500000000001E-2</v>
-      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="19"/>
       <c r="F17" s="19"/>
       <c r="G17" s="23"/>
-      <c r="P17" s="26">
+      <c r="P17" s="32">
         <f t="shared" si="0"/>
         <v>1.2231500000000001E-2</v>
       </c>
       <c r="R17" s="4">
+        <f t="shared" si="2"/>
+        <v>450</v>
+      </c>
+      <c r="S17" s="10">
         <f t="shared" si="3"/>
+        <v>1.3420000000000001E-2</v>
+      </c>
+      <c r="V17" s="4">
+        <f t="shared" si="4"/>
         <v>450</v>
       </c>
-      <c r="S17" s="10">
-        <f t="shared" si="4"/>
-        <v>1.3420000000000001E-2</v>
-      </c>
-      <c r="V17" s="4">
+      <c r="W17" s="10">
         <f t="shared" si="5"/>
+        <v>1.0255999999999999E-2</v>
+      </c>
+      <c r="Z17" s="4">
+        <f t="shared" si="6"/>
         <v>450</v>
       </c>
-      <c r="W17" s="10">
-        <f t="shared" si="6"/>
-        <v>1.0255999999999999E-2</v>
-      </c>
-      <c r="Z17" s="4">
+      <c r="AA17" s="10">
         <f t="shared" si="7"/>
-        <v>450</v>
-      </c>
-      <c r="AA17" s="10">
-        <f t="shared" si="8"/>
         <v>1.183E-2</v>
       </c>
     </row>
     <row r="18" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="D18" s="3">
-        <f t="shared" ref="D18:D19" si="9">D17+25</f>
-        <v>475</v>
-      </c>
-      <c r="E18" s="9">
-        <f t="shared" si="2"/>
-        <v>1.0805999999999998E-2</v>
-      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="19"/>
       <c r="F18" s="19"/>
       <c r="G18" s="23"/>
-      <c r="P18" s="26">
+      <c r="P18" s="32">
         <f t="shared" si="0"/>
         <v>1.0806E-2</v>
       </c>
       <c r="R18" s="3">
+        <f t="shared" si="2"/>
+        <v>475</v>
+      </c>
+      <c r="S18" s="9">
         <f t="shared" si="3"/>
+        <v>1.1456000000000001E-2</v>
+      </c>
+      <c r="V18" s="3">
+        <f t="shared" si="4"/>
         <v>475</v>
       </c>
-      <c r="S18" s="9">
-        <f t="shared" si="4"/>
-        <v>1.1456000000000001E-2</v>
-      </c>
-      <c r="V18" s="3">
+      <c r="W18" s="9">
         <f t="shared" si="5"/>
+        <v>9.2559999999999986E-3</v>
+      </c>
+      <c r="Z18" s="3">
+        <f t="shared" si="6"/>
         <v>475</v>
       </c>
-      <c r="W18" s="9">
-        <f t="shared" si="6"/>
-        <v>9.2559999999999986E-3</v>
-      </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="9">
         <f t="shared" si="7"/>
-        <v>475</v>
-      </c>
-      <c r="AA18" s="9">
-        <f t="shared" si="8"/>
         <v>1.1056E-2</v>
       </c>
     </row>
     <row r="19" spans="3:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D19" s="5">
-        <f t="shared" si="9"/>
-        <v>500</v>
-      </c>
-      <c r="E19" s="11">
-        <f t="shared" si="2"/>
-        <v>9.137000000000001E-3</v>
-      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="19"/>
       <c r="F19" s="19"/>
       <c r="G19" s="23"/>
-      <c r="P19" s="26">
+      <c r="P19" s="32">
         <f t="shared" si="0"/>
         <v>9.137000000000001E-3</v>
       </c>
       <c r="R19" s="5">
+        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
+      <c r="S19" s="11">
         <f t="shared" si="3"/>
+        <v>9.6370000000000015E-3</v>
+      </c>
+      <c r="V19" s="5">
+        <f t="shared" si="4"/>
         <v>500</v>
       </c>
-      <c r="S19" s="11">
-        <f t="shared" si="4"/>
-        <v>9.6370000000000015E-3</v>
-      </c>
-      <c r="V19" s="5">
+      <c r="W19" s="11">
         <f t="shared" si="5"/>
+        <v>7.8370000000000002E-3</v>
+      </c>
+      <c r="Z19" s="5">
+        <f t="shared" si="6"/>
         <v>500</v>
       </c>
-      <c r="W19" s="11">
-        <f t="shared" si="6"/>
-        <v>7.8370000000000002E-3</v>
-      </c>
-      <c r="Z19" s="5">
+      <c r="AA19" s="11">
         <f t="shared" si="7"/>
-        <v>500</v>
-      </c>
-      <c r="AA19" s="11">
-        <f t="shared" si="8"/>
         <v>9.4369999999999992E-3</v>
       </c>
     </row>
@@ -5926,7 +5890,7 @@
       <c r="D20" s="7"/>
       <c r="E20" s="19"/>
       <c r="F20" s="19"/>
-      <c r="P20" s="27"/>
+      <c r="P20" s="29"/>
       <c r="Q20" s="20"/>
       <c r="R20" s="7"/>
       <c r="S20" s="19"/>
@@ -5942,7 +5906,7 @@
       <c r="D21" s="7"/>
       <c r="E21" s="19"/>
       <c r="F21" s="19"/>
-      <c r="P21" s="27"/>
+      <c r="P21" s="29"/>
       <c r="Q21" s="20"/>
       <c r="R21" s="7"/>
       <c r="S21" s="19"/>
@@ -5958,7 +5922,7 @@
       <c r="D22" s="7"/>
       <c r="E22" s="19"/>
       <c r="F22" s="19"/>
-      <c r="P22" s="27"/>
+      <c r="P22" s="29"/>
       <c r="Q22" s="20"/>
       <c r="R22" s="7"/>
       <c r="S22" s="19"/>
@@ -5974,35 +5938,35 @@
       <c r="D23" s="7"/>
       <c r="E23" s="19"/>
       <c r="F23" s="19"/>
-      <c r="P23" s="30"/>
+      <c r="P23" s="29"/>
     </row>
     <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="6"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="6"/>
-      <c r="P24" s="30"/>
+      <c r="P24" s="29"/>
     </row>
     <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="6"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="6"/>
-      <c r="P25" s="30"/>
+      <c r="P25" s="29"/>
     </row>
     <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
-      <c r="P26" s="30"/>
+      <c r="P26" s="29"/>
     </row>
     <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="7"/>
       <c r="D27" s="17"/>
       <c r="E27" s="25"/>
       <c r="F27" s="25"/>
-      <c r="P27" s="27"/>
+      <c r="P27" s="29"/>
       <c r="Q27" s="21"/>
       <c r="R27" s="21"/>
       <c r="S27" s="21"/>
@@ -6018,7 +5982,7 @@
       <c r="D28" s="7"/>
       <c r="E28" s="19"/>
       <c r="F28" s="19"/>
-      <c r="P28" s="27"/>
+      <c r="P28" s="29"/>
       <c r="Q28" s="21"/>
       <c r="R28" s="21"/>
       <c r="S28" s="22"/>
@@ -6034,14 +5998,14 @@
       <c r="D29" s="7"/>
       <c r="E29" s="19"/>
       <c r="F29" s="19"/>
-      <c r="P29" s="27"/>
+      <c r="P29" s="29"/>
     </row>
     <row r="30" spans="3:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="19"/>
       <c r="F30" s="19"/>
-      <c r="P30" s="27"/>
+      <c r="P30" s="29"/>
       <c r="AC30" s="27"/>
     </row>
     <row r="31" spans="3:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -6055,7 +6019,7 @@
         <v>8</v>
       </c>
       <c r="F31" s="19"/>
-      <c r="P31" s="27"/>
+      <c r="P31" s="29"/>
       <c r="Q31" s="14" t="s">
         <v>5</v>
       </c>
@@ -6097,7 +6061,7 @@
         <v>1.9349999999999999E-2</v>
       </c>
       <c r="F32" s="19"/>
-      <c r="P32" s="26">
+      <c r="P32" s="32">
         <f>S32*1/2 +W32*1/4 +AA32*1/4</f>
         <v>1.9349999999999999E-2</v>
       </c>
@@ -6141,15 +6105,15 @@
     </row>
     <row r="33" spans="3:29" x14ac:dyDescent="0.2">
       <c r="D33" s="3">
-        <f t="shared" ref="D33:D40" si="10">D32+25</f>
+        <f t="shared" ref="D33:D40" si="9">D32+25</f>
         <v>325</v>
       </c>
       <c r="E33" s="9">
         <v>1.8949999999999998E-2</v>
       </c>
       <c r="F33" s="19"/>
-      <c r="P33" s="26">
-        <f t="shared" ref="P33:P82" si="11">S33*1/2 +W33*1/4 +AA33*1/4</f>
+      <c r="P33" s="32">
+        <f t="shared" ref="P33:P82" si="10">S33*1/2 +W33*1/4 +AA33*1/4</f>
         <v>1.8949999999999998E-2</v>
       </c>
       <c r="R33" s="3">
@@ -6177,21 +6141,21 @@
         <v>1.9E-2</v>
       </c>
       <c r="AC33" s="26">
-        <f t="shared" ref="AC33:AC40" si="12">E33-AA33</f>
+        <f t="shared" ref="AC33:AC40" si="11">E33-AA33</f>
         <v>-5.0000000000001432E-5</v>
       </c>
     </row>
     <row r="34" spans="3:29" x14ac:dyDescent="0.2">
       <c r="D34" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>350</v>
       </c>
       <c r="E34" s="10">
         <v>1.8324999999999998E-2</v>
       </c>
       <c r="F34" s="19"/>
-      <c r="P34" s="26">
-        <f t="shared" si="11"/>
+      <c r="P34" s="32">
+        <f t="shared" si="10"/>
         <v>1.8324999999999998E-2</v>
       </c>
       <c r="R34" s="4">
@@ -6219,21 +6183,21 @@
         <v>1.7299999999999999E-2</v>
       </c>
       <c r="AC34" s="26">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1.0249999999999981E-3</v>
       </c>
     </row>
     <row r="35" spans="3:29" x14ac:dyDescent="0.2">
       <c r="D35" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>375</v>
       </c>
       <c r="E35" s="9">
         <v>1.7049999999999999E-2</v>
       </c>
       <c r="F35" s="19"/>
-      <c r="P35" s="26">
-        <f t="shared" si="11"/>
+      <c r="P35" s="32">
+        <f t="shared" si="10"/>
         <v>1.7049999999999999E-2</v>
       </c>
       <c r="R35" s="3">
@@ -6261,21 +6225,21 @@
         <v>1.6E-2</v>
       </c>
       <c r="AC35" s="26">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1.0499999999999989E-3</v>
       </c>
     </row>
     <row r="36" spans="3:29" x14ac:dyDescent="0.2">
       <c r="D36" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>400</v>
       </c>
       <c r="E36" s="10">
         <v>1.6250000000000001E-2</v>
       </c>
       <c r="F36" s="19"/>
-      <c r="P36" s="26">
-        <f t="shared" si="11"/>
+      <c r="P36" s="32">
+        <f t="shared" si="10"/>
         <v>1.6250000000000001E-2</v>
       </c>
       <c r="R36" s="4">
@@ -6303,21 +6267,21 @@
         <v>1.55E-2</v>
       </c>
       <c r="AC36" s="26">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>7.5000000000000067E-4</v>
       </c>
     </row>
     <row r="37" spans="3:29" x14ac:dyDescent="0.2">
       <c r="D37" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>425</v>
       </c>
       <c r="E37" s="9">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="F37" s="19"/>
-      <c r="P37" s="26">
-        <f t="shared" si="11"/>
+      <c r="P37" s="32">
+        <f t="shared" si="10"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="R37" s="3">
@@ -6345,21 +6309,21 @@
         <v>1.44E-2</v>
       </c>
       <c r="AC37" s="26">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>5.9999999999999984E-4</v>
       </c>
     </row>
     <row r="38" spans="3:29" x14ac:dyDescent="0.2">
       <c r="D38" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>450</v>
       </c>
       <c r="E38" s="10">
         <v>1.4200000000000001E-2</v>
       </c>
       <c r="F38" s="19"/>
-      <c r="P38" s="26">
-        <f t="shared" si="11"/>
+      <c r="P38" s="32">
+        <f t="shared" si="10"/>
         <v>1.4200000000000001E-2</v>
       </c>
       <c r="R38" s="4">
@@ -6387,21 +6351,21 @@
         <v>1.38E-2</v>
       </c>
       <c r="AC38" s="26">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>4.0000000000000105E-4</v>
       </c>
     </row>
     <row r="39" spans="3:29" x14ac:dyDescent="0.2">
       <c r="D39" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>475</v>
       </c>
       <c r="E39" s="9">
         <v>1.2749999999999999E-2</v>
       </c>
       <c r="F39" s="19"/>
-      <c r="P39" s="26">
-        <f t="shared" si="11"/>
+      <c r="P39" s="32">
+        <f t="shared" si="10"/>
         <v>1.2749999999999999E-2</v>
       </c>
       <c r="R39" s="3">
@@ -6429,21 +6393,21 @@
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="AC39" s="26">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-2.5000000000000022E-4</v>
       </c>
     </row>
     <row r="40" spans="3:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D40" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>500</v>
       </c>
       <c r="E40" s="11">
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="F40" s="19"/>
-      <c r="P40" s="26">
-        <f t="shared" si="11"/>
+      <c r="P40" s="32">
+        <f t="shared" si="10"/>
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="R40" s="5">
@@ -6471,7 +6435,7 @@
         <v>1.1299999999999999E-2</v>
       </c>
       <c r="AC40" s="26">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-2.9999999999999992E-4</v>
       </c>
     </row>
@@ -6480,7 +6444,7 @@
       <c r="D41" s="7"/>
       <c r="E41" s="19"/>
       <c r="F41" s="19"/>
-      <c r="P41" s="26"/>
+      <c r="P41" s="32"/>
       <c r="Q41" s="20"/>
       <c r="R41" s="7"/>
       <c r="S41" s="19"/>
@@ -6498,7 +6462,7 @@
       <c r="D42" s="7"/>
       <c r="E42" s="19"/>
       <c r="F42" s="19"/>
-      <c r="P42" s="26"/>
+      <c r="P42" s="32"/>
       <c r="Q42" s="20"/>
       <c r="R42" s="7"/>
       <c r="S42" s="19"/>
@@ -6515,7 +6479,7 @@
       <c r="D43" s="7"/>
       <c r="E43" s="19"/>
       <c r="F43" s="19"/>
-      <c r="P43" s="26"/>
+      <c r="P43" s="32"/>
       <c r="Q43" s="20"/>
       <c r="R43" s="7"/>
       <c r="S43" s="19"/>
@@ -6531,23 +6495,23 @@
       <c r="D44" s="7"/>
       <c r="E44" s="19"/>
       <c r="F44" s="19"/>
-      <c r="P44" s="26"/>
+      <c r="P44" s="32"/>
     </row>
     <row r="45" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="P45" s="26"/>
+      <c r="P45" s="32"/>
     </row>
     <row r="46" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="P46" s="26"/>
+      <c r="P46" s="32"/>
     </row>
     <row r="47" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="P47" s="26"/>
+      <c r="P47" s="32"/>
     </row>
     <row r="48" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C48" s="7"/>
       <c r="D48" s="17"/>
       <c r="E48" s="25"/>
       <c r="F48" s="25"/>
-      <c r="P48" s="26"/>
+      <c r="P48" s="32"/>
       <c r="Q48" s="21"/>
       <c r="R48" s="21"/>
       <c r="S48" s="21"/>
@@ -6563,7 +6527,7 @@
       <c r="D49" s="7"/>
       <c r="E49" s="19"/>
       <c r="F49" s="19"/>
-      <c r="P49" s="26"/>
+      <c r="P49" s="32"/>
       <c r="Q49" s="21"/>
       <c r="R49" s="21"/>
       <c r="S49" s="22"/>
@@ -6579,14 +6543,14 @@
       <c r="D50" s="7"/>
       <c r="E50" s="19"/>
       <c r="F50" s="19"/>
-      <c r="P50" s="26"/>
+      <c r="P50" s="32"/>
     </row>
     <row r="51" spans="3:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
       <c r="E51" s="19"/>
       <c r="F51" s="19"/>
-      <c r="P51" s="26"/>
+      <c r="P51" s="32"/>
     </row>
     <row r="52" spans="3:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C52" s="14">
@@ -6599,7 +6563,7 @@
         <v>8</v>
       </c>
       <c r="F52" s="19"/>
-      <c r="P52" s="26"/>
+      <c r="P52" s="32"/>
       <c r="Q52" s="14" t="s">
         <v>5</v>
       </c>
@@ -6639,8 +6603,8 @@
         <v>1.6110000000000006E-2</v>
       </c>
       <c r="F53" s="19"/>
-      <c r="P53" s="26">
-        <f t="shared" si="11"/>
+      <c r="P53" s="32">
+        <f t="shared" si="10"/>
         <v>1.6110000000000006E-2</v>
       </c>
       <c r="Q53" s="12" t="s">
@@ -6679,8 +6643,8 @@
         <v>1.5710000000000002E-2</v>
       </c>
       <c r="F54" s="19"/>
-      <c r="P54" s="26">
-        <f t="shared" si="11"/>
+      <c r="P54" s="32">
+        <f t="shared" si="10"/>
         <v>1.5710000000000002E-2</v>
       </c>
       <c r="R54" s="3">
@@ -6710,8 +6674,8 @@
         <v>1.5085000000000001E-2</v>
       </c>
       <c r="F55" s="19"/>
-      <c r="P55" s="26">
-        <f t="shared" si="11"/>
+      <c r="P55" s="32">
+        <f t="shared" si="10"/>
         <v>1.5085000000000001E-2</v>
       </c>
       <c r="R55" s="4">
@@ -6741,8 +6705,8 @@
         <v>1.2189999999999999E-2</v>
       </c>
       <c r="F56" s="19"/>
-      <c r="P56" s="26">
-        <f t="shared" si="11"/>
+      <c r="P56" s="32">
+        <f t="shared" si="10"/>
         <v>1.2189999999999999E-2</v>
       </c>
       <c r="R56" s="3">
@@ -6772,8 +6736,8 @@
         <v>1.1389999999999997E-2</v>
       </c>
       <c r="F57" s="19"/>
-      <c r="P57" s="26">
-        <f t="shared" si="11"/>
+      <c r="P57" s="32">
+        <f t="shared" si="10"/>
         <v>1.1389999999999997E-2</v>
       </c>
       <c r="R57" s="4">
@@ -6803,8 +6767,8 @@
         <v>8.5199999999999981E-3</v>
       </c>
       <c r="F58" s="19"/>
-      <c r="P58" s="26">
-        <f t="shared" si="11"/>
+      <c r="P58" s="32">
+        <f t="shared" si="10"/>
         <v>8.5199999999999981E-3</v>
       </c>
       <c r="R58" s="3">
@@ -6834,8 +6798,8 @@
         <v>6.0999999999999995E-3</v>
       </c>
       <c r="F59" s="19"/>
-      <c r="P59" s="26">
-        <f t="shared" si="11"/>
+      <c r="P59" s="32">
+        <f t="shared" si="10"/>
         <v>6.0999999999999995E-3</v>
       </c>
       <c r="R59" s="4">
@@ -6865,8 +6829,8 @@
         <v>4.649999999999997E-3</v>
       </c>
       <c r="F60" s="19"/>
-      <c r="P60" s="26">
-        <f t="shared" si="11"/>
+      <c r="P60" s="32">
+        <f t="shared" si="10"/>
         <v>4.649999999999997E-3</v>
       </c>
       <c r="R60" s="3">
@@ -6896,8 +6860,8 @@
         <v>2.9000000000000015E-3</v>
       </c>
       <c r="F61" s="19"/>
-      <c r="P61" s="26">
-        <f t="shared" si="11"/>
+      <c r="P61" s="32">
+        <f t="shared" si="10"/>
         <v>2.9000000000000015E-3</v>
       </c>
       <c r="R61" s="5">
@@ -6924,7 +6888,7 @@
       <c r="D62" s="7"/>
       <c r="E62" s="19"/>
       <c r="F62" s="19"/>
-      <c r="P62" s="26"/>
+      <c r="P62" s="32"/>
       <c r="Q62" s="20"/>
       <c r="R62" s="7"/>
       <c r="S62" s="19"/>
@@ -6940,7 +6904,7 @@
       <c r="D63" s="7"/>
       <c r="E63" s="19"/>
       <c r="F63" s="19"/>
-      <c r="P63" s="26"/>
+      <c r="P63" s="32"/>
       <c r="Q63" s="20"/>
       <c r="R63" s="7"/>
       <c r="S63" s="19"/>
@@ -6956,7 +6920,7 @@
       <c r="D64" s="7"/>
       <c r="E64" s="19"/>
       <c r="F64" s="19"/>
-      <c r="P64" s="26"/>
+      <c r="P64" s="32"/>
       <c r="Q64" s="20"/>
       <c r="R64" s="7"/>
       <c r="S64" s="19"/>
@@ -6972,26 +6936,26 @@
       <c r="D65" s="7"/>
       <c r="E65" s="19"/>
       <c r="F65" s="19"/>
-      <c r="P65" s="26"/>
+      <c r="P65" s="32"/>
     </row>
     <row r="66" spans="3:27" x14ac:dyDescent="0.2">
       <c r="F66" s="13"/>
-      <c r="P66" s="26"/>
+      <c r="P66" s="32"/>
     </row>
     <row r="67" spans="3:27" x14ac:dyDescent="0.2">
       <c r="F67" s="13"/>
-      <c r="P67" s="26"/>
+      <c r="P67" s="32"/>
     </row>
     <row r="68" spans="3:27" x14ac:dyDescent="0.2">
       <c r="F68" s="13"/>
-      <c r="P68" s="26"/>
+      <c r="P68" s="32"/>
     </row>
     <row r="69" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C69" s="7"/>
       <c r="D69" s="17"/>
       <c r="E69" s="25"/>
       <c r="F69" s="25"/>
-      <c r="P69" s="26"/>
+      <c r="P69" s="32"/>
       <c r="Q69" s="21"/>
       <c r="R69" s="21"/>
       <c r="S69" s="21"/>
@@ -7007,7 +6971,7 @@
       <c r="D70" s="7"/>
       <c r="E70" s="19"/>
       <c r="F70" s="19"/>
-      <c r="P70" s="26"/>
+      <c r="P70" s="32"/>
       <c r="Q70" s="21"/>
       <c r="R70" s="21"/>
       <c r="S70" s="22"/>
@@ -7023,14 +6987,14 @@
       <c r="D71" s="7"/>
       <c r="E71" s="19"/>
       <c r="F71" s="19"/>
-      <c r="P71" s="26"/>
+      <c r="P71" s="32"/>
     </row>
     <row r="72" spans="3:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
       <c r="E72" s="19"/>
       <c r="F72" s="19"/>
-      <c r="P72" s="26"/>
+      <c r="P72" s="32"/>
     </row>
     <row r="73" spans="3:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C73" s="14">
@@ -7043,7 +7007,7 @@
         <v>8</v>
       </c>
       <c r="F73" s="19"/>
-      <c r="P73" s="26"/>
+      <c r="P73" s="32"/>
       <c r="Q73" s="14" t="s">
         <v>5</v>
       </c>
@@ -7083,8 +7047,8 @@
         <v>1.1250000000000003E-2</v>
       </c>
       <c r="F74" s="19"/>
-      <c r="P74" s="26">
-        <f t="shared" si="11"/>
+      <c r="P74" s="32">
+        <f t="shared" si="10"/>
         <v>1.1250000000000003E-2</v>
       </c>
       <c r="Q74" s="12" t="s">
@@ -7123,8 +7087,8 @@
         <v>1.0444999999999999E-2</v>
       </c>
       <c r="F75" s="19"/>
-      <c r="P75" s="26">
-        <f t="shared" si="11"/>
+      <c r="P75" s="32">
+        <f t="shared" si="10"/>
         <v>1.0444999999999999E-2</v>
       </c>
       <c r="R75" s="3">
@@ -7154,8 +7118,8 @@
         <v>1.0224999999999998E-2</v>
       </c>
       <c r="F76" s="19"/>
-      <c r="P76" s="26">
-        <f t="shared" si="11"/>
+      <c r="P76" s="32">
+        <f t="shared" si="10"/>
         <v>1.0224999999999998E-2</v>
       </c>
       <c r="R76" s="4">
@@ -7185,8 +7149,8 @@
         <v>8.9499999999999962E-3</v>
       </c>
       <c r="F77" s="19"/>
-      <c r="P77" s="26">
-        <f t="shared" si="11"/>
+      <c r="P77" s="32">
+        <f t="shared" si="10"/>
         <v>8.9499999999999962E-3</v>
       </c>
       <c r="R77" s="3">
@@ -7216,8 +7180,8 @@
         <v>8.1499999999999993E-3</v>
       </c>
       <c r="F78" s="19"/>
-      <c r="P78" s="26">
-        <f t="shared" si="11"/>
+      <c r="P78" s="32">
+        <f t="shared" si="10"/>
         <v>8.1499999999999993E-3</v>
       </c>
       <c r="R78" s="4">
@@ -7247,8 +7211,8 @@
         <v>7.5499999999999994E-3</v>
       </c>
       <c r="F79" s="19"/>
-      <c r="P79" s="26">
-        <f t="shared" si="11"/>
+      <c r="P79" s="32">
+        <f t="shared" si="10"/>
         <v>7.5499999999999994E-3</v>
       </c>
       <c r="R79" s="3">
@@ -7278,8 +7242,8 @@
         <v>7.2300000000000003E-3</v>
       </c>
       <c r="F80" s="19"/>
-      <c r="P80" s="26">
-        <f t="shared" si="11"/>
+      <c r="P80" s="32">
+        <f t="shared" si="10"/>
         <v>7.2300000000000003E-3</v>
       </c>
       <c r="R80" s="4">
@@ -7309,8 +7273,8 @@
         <v>6.2699999999999987E-3</v>
       </c>
       <c r="F81" s="19"/>
-      <c r="P81" s="26">
-        <f t="shared" si="11"/>
+      <c r="P81" s="32">
+        <f t="shared" si="10"/>
         <v>6.2699999999999987E-3</v>
       </c>
       <c r="R81" s="3">
@@ -7340,8 +7304,8 @@
         <v>6.1400000000000014E-3</v>
       </c>
       <c r="F82" s="19"/>
-      <c r="P82" s="26">
-        <f t="shared" si="11"/>
+      <c r="P82" s="32">
+        <f t="shared" si="10"/>
         <v>6.1400000000000014E-3</v>
       </c>
       <c r="R82" s="5">
@@ -7368,7 +7332,7 @@
       <c r="D83" s="7"/>
       <c r="E83" s="19"/>
       <c r="F83" s="19"/>
-      <c r="P83" s="27"/>
+      <c r="P83" s="29"/>
       <c r="Q83" s="20"/>
       <c r="R83" s="7"/>
       <c r="S83" s="19"/>
@@ -7384,7 +7348,7 @@
       <c r="D84" s="7"/>
       <c r="E84" s="19"/>
       <c r="F84" s="19"/>
-      <c r="P84" s="27"/>
+      <c r="P84" s="29"/>
       <c r="Q84" s="20"/>
       <c r="R84" s="7"/>
       <c r="S84" s="19"/>
@@ -7400,7 +7364,7 @@
       <c r="D85" s="7"/>
       <c r="E85" s="19"/>
       <c r="F85" s="19"/>
-      <c r="P85" s="27"/>
+      <c r="P85" s="29"/>
       <c r="Q85" s="20"/>
       <c r="R85" s="7"/>
       <c r="S85" s="19"/>
@@ -7416,22 +7380,22 @@
       <c r="D86" s="7"/>
       <c r="E86" s="19"/>
       <c r="F86" s="19"/>
-      <c r="P86" s="27"/>
+      <c r="P86" s="29"/>
     </row>
     <row r="87" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="P87" s="27"/>
+      <c r="P87" s="29"/>
     </row>
     <row r="88" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="P88" s="30"/>
+      <c r="P88" s="29"/>
     </row>
     <row r="89" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="P89" s="27"/>
+      <c r="P89" s="29"/>
     </row>
     <row r="90" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="P90" s="27"/>
+      <c r="P90" s="29"/>
     </row>
     <row r="91" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="P91" s="27"/>
+      <c r="P91" s="29"/>
     </row>
     <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="7"/>
@@ -7447,7 +7411,7 @@
       <c r="M92" s="7"/>
       <c r="N92" s="7"/>
       <c r="O92" s="7"/>
-      <c r="P92" s="28"/>
+      <c r="P92" s="33"/>
       <c r="Q92" s="7"/>
       <c r="R92" s="7"/>
       <c r="S92" s="7"/>
@@ -7476,7 +7440,7 @@
       <c r="M93" s="7"/>
       <c r="N93" s="7"/>
       <c r="O93" s="7"/>
-      <c r="P93" s="28"/>
+      <c r="P93" s="33"/>
       <c r="Q93" s="7"/>
       <c r="R93" s="7"/>
       <c r="S93" s="7"/>
@@ -7505,7 +7469,7 @@
       <c r="M94" s="7"/>
       <c r="N94" s="7"/>
       <c r="O94" s="7"/>
-      <c r="P94" s="28"/>
+      <c r="P94" s="33"/>
       <c r="Q94" s="7"/>
       <c r="R94" s="7"/>
       <c r="S94" s="7"/>
@@ -7534,7 +7498,7 @@
       <c r="M95" s="7"/>
       <c r="N95" s="7"/>
       <c r="O95" s="7"/>
-      <c r="P95" s="7"/>
+      <c r="P95" s="33"/>
       <c r="Q95" s="7"/>
       <c r="R95" s="7"/>
       <c r="S95" s="7"/>
@@ -7563,7 +7527,7 @@
       <c r="M96" s="7"/>
       <c r="N96" s="7"/>
       <c r="O96" s="7"/>
-      <c r="P96" s="7"/>
+      <c r="P96" s="33"/>
       <c r="Q96" s="7"/>
       <c r="R96" s="7"/>
       <c r="S96" s="7"/>
@@ -7592,7 +7556,7 @@
       <c r="M97" s="7"/>
       <c r="N97" s="7"/>
       <c r="O97" s="7"/>
-      <c r="P97" s="7"/>
+      <c r="P97" s="33"/>
       <c r="Q97" s="7"/>
       <c r="R97" s="7"/>
       <c r="S97" s="7"/>
@@ -7621,7 +7585,7 @@
       <c r="M98" s="7"/>
       <c r="N98" s="7"/>
       <c r="O98" s="7"/>
-      <c r="P98" s="7"/>
+      <c r="P98" s="33"/>
       <c r="Q98" s="7"/>
       <c r="R98" s="7"/>
       <c r="S98" s="7"/>
@@ -7650,7 +7614,7 @@
       <c r="M99" s="7"/>
       <c r="N99" s="7"/>
       <c r="O99" s="7"/>
-      <c r="P99" s="7"/>
+      <c r="P99" s="33"/>
       <c r="Q99" s="7"/>
       <c r="R99" s="7"/>
       <c r="S99" s="7"/>
@@ -7679,7 +7643,7 @@
       <c r="M100" s="7"/>
       <c r="N100" s="7"/>
       <c r="O100" s="7"/>
-      <c r="P100" s="7"/>
+      <c r="P100" s="33"/>
       <c r="Q100" s="7"/>
       <c r="R100" s="7"/>
       <c r="S100" s="7"/>
@@ -7708,7 +7672,7 @@
       <c r="M101" s="7"/>
       <c r="N101" s="7"/>
       <c r="O101" s="7"/>
-      <c r="P101" s="7"/>
+      <c r="P101" s="33"/>
       <c r="Q101" s="7"/>
       <c r="R101" s="7"/>
       <c r="S101" s="7"/>
@@ -7737,7 +7701,7 @@
       <c r="M102" s="7"/>
       <c r="N102" s="7"/>
       <c r="O102" s="7"/>
-      <c r="P102" s="7"/>
+      <c r="P102" s="33"/>
       <c r="Q102" s="7"/>
       <c r="R102" s="7"/>
       <c r="S102" s="7"/>
@@ -7766,7 +7730,7 @@
       <c r="M103" s="7"/>
       <c r="N103" s="7"/>
       <c r="O103" s="7"/>
-      <c r="P103" s="7"/>
+      <c r="P103" s="33"/>
       <c r="Q103" s="7"/>
       <c r="R103" s="7"/>
       <c r="S103" s="7"/>
@@ -7795,7 +7759,7 @@
       <c r="M104" s="7"/>
       <c r="N104" s="7"/>
       <c r="O104" s="7"/>
-      <c r="P104" s="16"/>
+      <c r="P104" s="34"/>
       <c r="Q104" s="17"/>
       <c r="R104" s="17"/>
       <c r="S104" s="7"/>
@@ -7824,7 +7788,7 @@
       <c r="M105" s="7"/>
       <c r="N105" s="7"/>
       <c r="O105" s="7"/>
-      <c r="P105" s="18"/>
+      <c r="P105" s="35"/>
       <c r="Q105" s="7"/>
       <c r="R105" s="19"/>
       <c r="S105" s="7"/>
@@ -7853,7 +7817,7 @@
       <c r="M106" s="7"/>
       <c r="N106" s="7"/>
       <c r="O106" s="7"/>
-      <c r="P106" s="7"/>
+      <c r="P106" s="33"/>
       <c r="Q106" s="7"/>
       <c r="R106" s="19"/>
       <c r="S106" s="7"/>
@@ -7882,7 +7846,7 @@
       <c r="M107" s="7"/>
       <c r="N107" s="7"/>
       <c r="O107" s="7"/>
-      <c r="P107" s="7"/>
+      <c r="P107" s="33"/>
       <c r="Q107" s="7"/>
       <c r="R107" s="19"/>
       <c r="S107" s="7"/>
@@ -7911,7 +7875,7 @@
       <c r="M108" s="7"/>
       <c r="N108" s="7"/>
       <c r="O108" s="7"/>
-      <c r="P108" s="7"/>
+      <c r="P108" s="33"/>
       <c r="Q108" s="7"/>
       <c r="R108" s="19"/>
       <c r="S108" s="7"/>
@@ -8348,7 +8312,7 @@
       <c r="F123" s="7"/>
       <c r="G123" s="7"/>
       <c r="H123" s="7"/>
-      <c r="I123" s="29"/>
+      <c r="I123" s="28"/>
       <c r="J123" s="7"/>
       <c r="K123" s="7"/>
       <c r="L123" s="7"/>

--- a/Documenti/Part 1/Probabilities.xlsx
+++ b/Documenti/Part 1/Probabilities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alessandrocarughi/Documents/GitHub/DIA_Project/Documenti/Part 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE06C0C5-4C4E-074C-A90C-B44FA13B2BD1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33345828-2830-7640-8174-AD3346FF3843}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{292AB044-84C9-AC49-9279-4A2A3B09F51E}"/>
   </bookViews>
@@ -249,21 +249,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -300,12 +296,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -446,19 +444,19 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.787675E-2</c:v>
+                  <c:v>2.8253750000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7271999999999999E-2</c:v>
+                  <c:v>1.927825E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5672999999999999E-2</c:v>
+                  <c:v>1.2904750000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.4872999999999999E-2</c:v>
+                  <c:v>6.0512500000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.33315E-2</c:v>
+                  <c:v>1.2437500000000001E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -731,72 +729,48 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'General And Disagregated'!$D$32:$D$40</c:f>
+              <c:f>'General And Disagregated'!$D$33:$D$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>300</c:v>
+                  <c:v>325</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>325</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>350</c:v>
+                  <c:v>375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>375</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>425</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>450</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>475</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'General And Disagregated'!$E$32:$E$40</c:f>
+              <c:f>'General And Disagregated'!$E$33:$E$37</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.9349999999999999E-2</c:v>
+                  <c:v>2.9749999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.8949999999999998E-2</c:v>
+                  <c:v>2.0999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.8324999999999998E-2</c:v>
+                  <c:v>1.3475000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7049999999999999E-2</c:v>
+                  <c:v>6.2750000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6250000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.4200000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.2749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.0999999999999999E-2</c:v>
+                  <c:v>1.4E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1070,72 +1044,48 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'General And Disagregated'!$D$53:$D$61</c:f>
+              <c:f>'General And Disagregated'!$D$54:$D$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>300</c:v>
+                  <c:v>325</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>325</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>350</c:v>
+                  <c:v>375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>375</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>425</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>450</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>475</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'General And Disagregated'!$E$53:$E$61</c:f>
+              <c:f>'General And Disagregated'!$E$54:$E$58</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.6110000000000006E-2</c:v>
+                  <c:v>2.5125000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5710000000000002E-2</c:v>
+                  <c:v>1.5085000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5085000000000001E-2</c:v>
+                  <c:v>1.1755E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2189999999999999E-2</c:v>
+                  <c:v>5.4000000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1389999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.5199999999999981E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.0999999999999995E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.649999999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.9000000000000015E-3</c:v>
+                  <c:v>8.7500000000000002E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1409,72 +1359,48 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'General And Disagregated'!$D$74:$D$82</c:f>
+              <c:f>'General And Disagregated'!$D$75:$D$79</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>300</c:v>
+                  <c:v>325</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>325</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>350</c:v>
+                  <c:v>375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>375</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>425</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>450</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>475</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'General And Disagregated'!$E$74:$E$82</c:f>
+              <c:f>'General And Disagregated'!$E$75:$E$79</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.1250000000000003E-2</c:v>
+                  <c:v>1.8325000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0444999999999999E-2</c:v>
+                  <c:v>1.0224999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0224999999999998E-2</c:v>
+                  <c:v>8.9499999999999962E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.9499999999999962E-3</c:v>
+                  <c:v>5.3E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.1499999999999993E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.5499999999999994E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.2300000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.2699999999999987E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.1400000000000014E-3</c:v>
+                  <c:v>3.7500000000000001E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1755,72 +1681,48 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'General And Disagregated'!$V$11:$V$19</c:f>
+              <c:f>'General And Disagregated'!$V$12:$V$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>300</c:v>
+                  <c:v>325</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>325</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>350</c:v>
+                  <c:v>375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>375</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>425</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>450</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>475</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'General And Disagregated'!$S$11:$S$19</c:f>
+              <c:f>'General And Disagregated'!$S$12:$S$16</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.8747000000000003E-2</c:v>
+                  <c:v>3.117E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.8647E-2</c:v>
+                  <c:v>2.2372E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.8546999999999998E-2</c:v>
+                  <c:v>1.4023000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7023000000000003E-2</c:v>
+                  <c:v>6.8400000000000006E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6222999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.4518999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.3420000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.1456000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.6370000000000015E-3</c:v>
+                  <c:v>1.6150000000000001E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1851,72 +1753,48 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'General And Disagregated'!$V$11:$V$19</c:f>
+              <c:f>'General And Disagregated'!$V$12:$V$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>300</c:v>
+                  <c:v>325</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>325</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>350</c:v>
+                  <c:v>375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>375</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>425</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>450</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>475</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'General And Disagregated'!$W$11:$W$19</c:f>
+              <c:f>'General And Disagregated'!$W$12:$W$16</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.7347000000000001E-2</c:v>
+                  <c:v>2.452E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6347E-2</c:v>
+                  <c:v>1.5747000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5747000000000001E-2</c:v>
+                  <c:v>1.1248000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.4023000000000001E-2</c:v>
+                  <c:v>4.9950000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2922999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.1543999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.0255999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9.2559999999999986E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7.8370000000000002E-3</c:v>
+                  <c:v>6.9000000000000008E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1948,72 +1826,48 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'General And Disagregated'!$V$11:$V$19</c:f>
+              <c:f>'General And Disagregated'!$V$12:$V$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>300</c:v>
+                  <c:v>325</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>325</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>350</c:v>
+                  <c:v>375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>375</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>425</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>450</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>475</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'General And Disagregated'!$AA$11:$AA$19</c:f>
+              <c:f>'General And Disagregated'!$AA$12:$AA$16</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.8347000000000002E-2</c:v>
+                  <c:v>2.6155000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7866E-2</c:v>
+                  <c:v>1.6622000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6247000000000001E-2</c:v>
+                  <c:v>1.2324999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.4623000000000001E-2</c:v>
+                  <c:v>5.5299999999999993E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4123E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.2744E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.183E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.1056E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.4369999999999992E-3</c:v>
+                  <c:v>1.0549999999999999E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2092,8 +1946,7 @@
         <c:axId val="1562639247"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.9000000000000003E-2"/>
-          <c:min val="7.0000000000000019E-3"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5425,8 +5278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9352B1A5-A1D3-6A47-B7F2-E5F2E1DD6A53}">
   <dimension ref="B3:AC124"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+    <sheetView tabSelected="1" topLeftCell="I27" zoomScale="82" workbookViewId="0">
+      <selection activeCell="Z26" sqref="Z26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5443,2925 +5296,2811 @@
       <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
     </row>
     <row r="5" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
     </row>
     <row r="6" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="C6" s="7"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="21"/>
-      <c r="Y6" s="21"/>
-      <c r="Z6" s="21"/>
-      <c r="AA6" s="21"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+      <c r="Y6" s="17"/>
+      <c r="Z6" s="17"/>
+      <c r="AA6" s="17"/>
     </row>
     <row r="7" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="C7" s="24"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="22"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="22"/>
-      <c r="Y7" s="21"/>
-      <c r="Z7" s="21"/>
-      <c r="AA7" s="22"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="18"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="18"/>
+      <c r="Y7" s="17"/>
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="18"/>
     </row>
     <row r="8" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="P8" s="29"/>
-    </row>
-    <row r="9" spans="2:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="20"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="P9" s="29"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="P8" s="25"/>
+    </row>
+    <row r="9" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B9" s="16"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="P9" s="23"/>
     </row>
     <row r="10" spans="2:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="20"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="1" t="s">
+      <c r="B10" s="16"/>
+      <c r="F10" s="15"/>
+      <c r="P10" s="23"/>
+    </row>
+    <row r="11" spans="2:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="10"/>
+      <c r="D11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="19"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="14" t="s">
+      <c r="F11" s="15"/>
+      <c r="G11" s="19"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="R10" s="1" t="s">
+      <c r="R11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="S10" s="15" t="s">
+      <c r="S11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="U10" s="14" t="s">
+      <c r="U11" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="V10" s="1" t="s">
+      <c r="V11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="W10" s="15" t="s">
+      <c r="W11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="Y10" s="14" t="s">
+      <c r="Y11" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="Z10" s="1" t="s">
+      <c r="Z11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AA10" s="15" t="s">
+      <c r="AA11" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="12" t="s">
+    <row r="12" spans="2:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="23"/>
-      <c r="P11" s="32">
-        <f t="shared" ref="P11:P19" si="0">S11*1/2 +W11*1/4 +AA11*1/4</f>
-        <v>1.8297000000000001E-2</v>
-      </c>
-      <c r="Q11" s="12" t="s">
+      <c r="D12" s="2">
+        <v>325</v>
+      </c>
+      <c r="E12" s="6">
+        <f>E33*$C$31 + E54*$C$52 + E75*$C$73</f>
+        <v>2.8253750000000001E-2</v>
+      </c>
+      <c r="G12" s="19"/>
+      <c r="P12" s="22">
+        <f>S12*1/2 +W12*1/4 +AA12*1/4</f>
+        <v>2.8253749999999998E-2</v>
+      </c>
+      <c r="Q12" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="R11" s="2">
-        <v>300</v>
-      </c>
-      <c r="S11" s="8">
-        <f>S32*$C$31+S53*$C$52+S74*$C$73</f>
-        <v>1.8747000000000003E-2</v>
-      </c>
-      <c r="U11" s="12" t="s">
+      <c r="R12" s="28">
+        <v>325</v>
+      </c>
+      <c r="S12" s="29">
+        <f>S33*$C$31+S54*$C$52+S75*$C$73</f>
+        <v>3.117E-2</v>
+      </c>
+      <c r="T12" s="9"/>
+      <c r="U12" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="V11" s="2">
-        <v>300</v>
-      </c>
-      <c r="W11" s="8">
-        <f>W32*$C$31+W53*$C$52+W74*$C$73</f>
-        <v>1.7347000000000001E-2</v>
-      </c>
-      <c r="Y11" s="12" t="s">
+      <c r="V12" s="28">
+        <v>325</v>
+      </c>
+      <c r="W12" s="29">
+        <f>W33*$C$31+W54*$C$52+W75*$C$73</f>
+        <v>2.452E-2</v>
+      </c>
+      <c r="Y12" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="Z11" s="2">
-        <v>300</v>
-      </c>
-      <c r="AA11" s="8">
-        <f>AA32*$C$31+AA53*$C$52+AA74*$C$73</f>
-        <v>1.8347000000000002E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="D12" s="3">
+      <c r="Z12" s="28">
         <v>325</v>
       </c>
-      <c r="E12" s="9">
-        <f t="shared" ref="E12:E16" si="1">E33*$C$31 + E54*$C$52 + E75*$C$73</f>
-        <v>1.787675E-2</v>
-      </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="23"/>
-      <c r="P12" s="32">
+      <c r="AA12" s="29">
+        <f>AA33*$C$31+AA54*$C$52+AA75*$C$73</f>
+        <v>2.6155000000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="D13" s="3">
+        <f t="shared" ref="D13:D16" si="0">D12+25</f>
+        <v>350</v>
+      </c>
+      <c r="E13" s="7">
+        <f>E34*$C$31 + E55*$C$52 + E76*$C$73</f>
+        <v>1.927825E-2</v>
+      </c>
+      <c r="F13" s="15"/>
+      <c r="G13" s="19"/>
+      <c r="P13" s="22">
+        <f t="shared" ref="P13:P16" si="1">S13*1/2 +W13*1/4 +AA13*1/4</f>
+        <v>1.927825E-2</v>
+      </c>
+      <c r="R13" s="3">
+        <f t="shared" ref="R12:R19" si="2">R12+25</f>
+        <v>350</v>
+      </c>
+      <c r="S13" s="7">
+        <f>S34*$C$31+S55*$C$52+S76*$C$73</f>
+        <v>2.2372E-2</v>
+      </c>
+      <c r="T13" s="9"/>
+      <c r="V13" s="3">
+        <f t="shared" ref="V12:V19" si="3">V12+25</f>
+        <v>350</v>
+      </c>
+      <c r="W13" s="7">
+        <f>W34*$C$31+W55*$C$52+W76*$C$73</f>
+        <v>1.5747000000000001E-2</v>
+      </c>
+      <c r="Z13" s="3">
+        <f t="shared" ref="Z12:Z19" si="4">Z12+25</f>
+        <v>350</v>
+      </c>
+      <c r="AA13" s="7">
+        <f>AA34*$C$31+AA55*$C$52+AA76*$C$73</f>
+        <v>1.6622000000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="D14" s="2">
         <f t="shared" si="0"/>
-        <v>1.787675E-2</v>
-      </c>
-      <c r="R12" s="3">
-        <f t="shared" ref="R12:R19" si="2">R11+25</f>
-        <v>325</v>
-      </c>
-      <c r="S12" s="9">
-        <f t="shared" ref="S12:S19" si="3">S33*$C$31+S54*$C$52+S75*$C$73</f>
-        <v>1.8647E-2</v>
-      </c>
-      <c r="V12" s="3">
-        <f t="shared" ref="V12:V19" si="4">V11+25</f>
-        <v>325</v>
-      </c>
-      <c r="W12" s="9">
-        <f t="shared" ref="W12:W19" si="5">W33*$C$31+W54*$C$52+W75*$C$73</f>
-        <v>1.6347E-2</v>
-      </c>
-      <c r="Z12" s="3">
-        <f t="shared" ref="Z12:Z19" si="6">Z11+25</f>
-        <v>325</v>
-      </c>
-      <c r="AA12" s="9">
-        <f t="shared" ref="AA12:AA19" si="7">AA33*$C$31+AA54*$C$52+AA75*$C$73</f>
-        <v>1.7866E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="D13" s="4">
-        <f t="shared" ref="D13:D16" si="8">D12+25</f>
-        <v>350</v>
-      </c>
-      <c r="E13" s="10">
+        <v>375</v>
+      </c>
+      <c r="E14" s="6">
+        <f>E35*$C$31 + E56*$C$52 + E77*$C$73</f>
+        <v>1.2904750000000001E-2</v>
+      </c>
+      <c r="F14" s="15"/>
+      <c r="G14" s="19"/>
+      <c r="P14" s="22">
         <f t="shared" si="1"/>
-        <v>1.7271999999999999E-2</v>
-      </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="23"/>
-      <c r="P13" s="32">
-        <f t="shared" si="0"/>
-        <v>1.7271999999999999E-2</v>
-      </c>
-      <c r="R13" s="4">
-        <f t="shared" si="2"/>
-        <v>350</v>
-      </c>
-      <c r="S13" s="10">
-        <f t="shared" si="3"/>
-        <v>1.8546999999999998E-2</v>
-      </c>
-      <c r="V13" s="4">
-        <f t="shared" si="4"/>
-        <v>350</v>
-      </c>
-      <c r="W13" s="10">
-        <f t="shared" si="5"/>
-        <v>1.5747000000000001E-2</v>
-      </c>
-      <c r="Z13" s="4">
-        <f t="shared" si="6"/>
-        <v>350</v>
-      </c>
-      <c r="AA13" s="10">
-        <f t="shared" si="7"/>
-        <v>1.6247000000000001E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="D14" s="3">
-        <f t="shared" si="8"/>
-        <v>375</v>
-      </c>
-      <c r="E14" s="9">
-        <f t="shared" si="1"/>
-        <v>1.5672999999999999E-2</v>
-      </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="23"/>
-      <c r="P14" s="32">
-        <f t="shared" si="0"/>
-        <v>1.5673000000000003E-2</v>
-      </c>
-      <c r="R14" s="3">
+        <v>1.290475E-2</v>
+      </c>
+      <c r="R14" s="2">
         <f t="shared" si="2"/>
         <v>375</v>
       </c>
-      <c r="S14" s="9">
+      <c r="S14" s="6">
+        <f>S35*$C$31+S56*$C$52+S77*$C$73</f>
+        <v>1.4023000000000001E-2</v>
+      </c>
+      <c r="T14" s="9"/>
+      <c r="V14" s="2">
         <f t="shared" si="3"/>
-        <v>1.7023000000000003E-2</v>
-      </c>
-      <c r="V14" s="3">
+        <v>375</v>
+      </c>
+      <c r="W14" s="6">
+        <f>W35*$C$31+W56*$C$52+W77*$C$73</f>
+        <v>1.1248000000000001E-2</v>
+      </c>
+      <c r="Z14" s="2">
         <f t="shared" si="4"/>
         <v>375</v>
       </c>
-      <c r="W14" s="9">
-        <f t="shared" si="5"/>
-        <v>1.4023000000000001E-2</v>
-      </c>
-      <c r="Z14" s="3">
-        <f t="shared" si="6"/>
-        <v>375</v>
-      </c>
-      <c r="AA14" s="9">
-        <f t="shared" si="7"/>
-        <v>1.4623000000000001E-2</v>
+      <c r="AA14" s="6">
+        <f>AA35*$C$31+AA56*$C$52+AA77*$C$73</f>
+        <v>1.2324999999999999E-2</v>
       </c>
     </row>
     <row r="15" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="D15" s="4">
-        <f t="shared" si="8"/>
+      <c r="D15" s="3">
+        <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="7">
+        <f>E36*$C$31 + E57*$C$52 + E78*$C$73</f>
+        <v>6.0512500000000002E-3</v>
+      </c>
+      <c r="F15" s="15"/>
+      <c r="G15" s="19"/>
+      <c r="P15" s="22">
         <f t="shared" si="1"/>
-        <v>1.4872999999999999E-2</v>
-      </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="23"/>
-      <c r="P15" s="32">
-        <f t="shared" si="0"/>
-        <v>1.4872999999999997E-2</v>
-      </c>
-      <c r="R15" s="4">
+        <v>6.0512500000000002E-3</v>
+      </c>
+      <c r="R15" s="3">
         <f t="shared" si="2"/>
         <v>400</v>
       </c>
-      <c r="S15" s="10">
+      <c r="S15" s="7">
+        <f>S36*$C$31+S57*$C$52+S78*$C$73</f>
+        <v>6.8400000000000006E-3</v>
+      </c>
+      <c r="T15" s="9"/>
+      <c r="V15" s="3">
         <f t="shared" si="3"/>
-        <v>1.6222999999999998E-2</v>
-      </c>
-      <c r="V15" s="4">
+        <v>400</v>
+      </c>
+      <c r="W15" s="7">
+        <f>W36*$C$31+W57*$C$52+W78*$C$73</f>
+        <v>4.9950000000000003E-3</v>
+      </c>
+      <c r="Z15" s="3">
         <f t="shared" si="4"/>
         <v>400</v>
       </c>
-      <c r="W15" s="10">
-        <f t="shared" si="5"/>
-        <v>1.2922999999999999E-2</v>
-      </c>
-      <c r="Z15" s="4">
-        <f t="shared" si="6"/>
-        <v>400</v>
-      </c>
-      <c r="AA15" s="10">
-        <f t="shared" si="7"/>
-        <v>1.4123E-2</v>
+      <c r="AA15" s="7">
+        <f>AA36*$C$31+AA57*$C$52+AA78*$C$73</f>
+        <v>5.5299999999999993E-3</v>
       </c>
     </row>
     <row r="16" spans="2:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D16" s="30">
-        <f t="shared" si="8"/>
+      <c r="D16" s="26">
+        <f t="shared" si="0"/>
         <v>425</v>
       </c>
-      <c r="E16" s="31">
+      <c r="E16" s="27">
+        <f>E37*$C$31 + E58*$C$52 + E79*$C$73</f>
+        <v>1.2437500000000001E-3</v>
+      </c>
+      <c r="F16" s="15"/>
+      <c r="G16" s="19"/>
+      <c r="P16" s="22">
         <f t="shared" si="1"/>
-        <v>1.33315E-2</v>
-      </c>
-      <c r="F16" s="19"/>
-      <c r="G16" s="23"/>
-      <c r="P16" s="32">
-        <f t="shared" si="0"/>
-        <v>1.3331499999999998E-2</v>
-      </c>
-      <c r="R16" s="3">
+        <v>1.2437500000000001E-3</v>
+      </c>
+      <c r="R16" s="26">
         <f t="shared" si="2"/>
         <v>425</v>
       </c>
-      <c r="S16" s="9">
+      <c r="S16" s="27">
+        <f>S37*$C$31+S58*$C$52+S79*$C$73</f>
+        <v>1.6150000000000001E-3</v>
+      </c>
+      <c r="T16" s="9"/>
+      <c r="V16" s="26">
         <f t="shared" si="3"/>
-        <v>1.4518999999999999E-2</v>
-      </c>
-      <c r="V16" s="3">
+        <v>425</v>
+      </c>
+      <c r="W16" s="27">
+        <f>W37*$C$31+W58*$C$52+W79*$C$73</f>
+        <v>6.9000000000000008E-4</v>
+      </c>
+      <c r="Z16" s="26">
         <f t="shared" si="4"/>
         <v>425</v>
       </c>
-      <c r="W16" s="9">
+      <c r="AA16" s="27">
+        <f>AA37*$C$31+AA58*$C$52+AA79*$C$73</f>
+        <v>1.0549999999999999E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="19"/>
+      <c r="P17" s="22"/>
+    </row>
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="19"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="15"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="15"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="5"/>
+    </row>
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="19"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="15"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="15"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="15"/>
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="5"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="15"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="15"/>
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="5"/>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="15"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="15"/>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="5"/>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="15"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="15"/>
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="5"/>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="15"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="15"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="15"/>
+      <c r="AB23" s="5"/>
+      <c r="AC23" s="5"/>
+    </row>
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C24" s="4"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="4"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="5"/>
+      <c r="AC24" s="5"/>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C25" s="4"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="4"/>
+      <c r="P25" s="23"/>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="P26" s="23"/>
+    </row>
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C27" s="5"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="17"/>
+      <c r="R27" s="17"/>
+      <c r="S27" s="17"/>
+      <c r="U27" s="17"/>
+      <c r="V27" s="17"/>
+      <c r="W27" s="17"/>
+      <c r="Y27" s="17"/>
+      <c r="Z27" s="17"/>
+      <c r="AA27" s="17"/>
+    </row>
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C28" s="20"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="17"/>
+      <c r="S28" s="18"/>
+      <c r="U28" s="17"/>
+      <c r="V28" s="17"/>
+      <c r="W28" s="18"/>
+      <c r="Y28" s="17"/>
+      <c r="Z28" s="17"/>
+      <c r="AA28" s="18"/>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="P29" s="23"/>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="P30" s="23"/>
+      <c r="AC30" s="23"/>
+    </row>
+    <row r="31" spans="3:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="23">
+        <v>0.75</v>
+      </c>
+      <c r="F31" s="15"/>
+      <c r="P31" s="23"/>
+      <c r="T31" s="23"/>
+      <c r="AC31" s="23"/>
+    </row>
+    <row r="32" spans="3:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="15"/>
+      <c r="P32" s="22"/>
+      <c r="Q32" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S32" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="T32" s="22"/>
+      <c r="U32" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="V32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W32" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="X32" s="22"/>
+      <c r="Y32" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA32" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC32" s="22"/>
+    </row>
+    <row r="33" spans="3:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" s="2">
+        <v>325</v>
+      </c>
+      <c r="E33" s="6">
+        <v>2.9749999999999999E-2</v>
+      </c>
+      <c r="F33" s="15"/>
+      <c r="P33" s="22">
+        <f t="shared" ref="P33:P82" si="5">S33*1/2 +W33*1/4 +AA33*1/4</f>
+        <v>2.9749999999999999E-2</v>
+      </c>
+      <c r="Q33" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="R33" s="28">
+        <v>325</v>
+      </c>
+      <c r="S33" s="29">
+        <v>3.2399999999999998E-2</v>
+      </c>
+      <c r="T33" s="22">
+        <v>-2.5999999999999981E-4</v>
+      </c>
+      <c r="U33" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="V33" s="28">
+        <v>325</v>
+      </c>
+      <c r="W33" s="29">
+        <v>2.6100000000000002E-2</v>
+      </c>
+      <c r="X33" s="22">
+        <v>2.0400000000000001E-3</v>
+      </c>
+      <c r="Y33" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="28">
+        <v>325</v>
+      </c>
+      <c r="AA33" s="29">
+        <v>2.81E-2</v>
+      </c>
+      <c r="AC33" s="22">
+        <f t="shared" ref="AC33:AC40" si="6">E33-AA33</f>
+        <v>1.6499999999999987E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="D34" s="3">
+        <f t="shared" ref="D34:D37" si="7">D33+25</f>
+        <v>350</v>
+      </c>
+      <c r="E34" s="7">
+        <v>2.0999999999999998E-2</v>
+      </c>
+      <c r="F34" s="15"/>
+      <c r="P34" s="22">
         <f t="shared" si="5"/>
-        <v>1.1543999999999999E-2</v>
-      </c>
-      <c r="Z16" s="3">
+        <v>2.0999999999999998E-2</v>
+      </c>
+      <c r="R34" s="3">
+        <v>350</v>
+      </c>
+      <c r="S34" s="7">
+        <v>2.47E-2</v>
+      </c>
+      <c r="T34" s="22">
+        <v>-1.7799999999999969E-3</v>
+      </c>
+      <c r="V34" s="3">
+        <v>350</v>
+      </c>
+      <c r="W34" s="7">
+        <v>1.6799999999999999E-2</v>
+      </c>
+      <c r="X34" s="22">
+        <v>1.0200000000000035E-3</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>350</v>
+      </c>
+      <c r="AA34" s="7">
+        <v>1.78E-2</v>
+      </c>
+      <c r="AC34" s="22">
         <f t="shared" si="6"/>
+        <v>3.199999999999998E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="D35" s="2">
+        <f t="shared" si="7"/>
+        <v>375</v>
+      </c>
+      <c r="E35" s="6">
+        <v>1.3475000000000001E-2</v>
+      </c>
+      <c r="F35" s="15"/>
+      <c r="P35" s="22">
+        <f t="shared" si="5"/>
+        <v>1.3475000000000001E-2</v>
+      </c>
+      <c r="R35" s="2">
+        <v>375</v>
+      </c>
+      <c r="S35" s="6">
+        <v>1.44E-2</v>
+      </c>
+      <c r="T35" s="22">
+        <v>-5.7999999999999718E-4</v>
+      </c>
+      <c r="V35" s="2">
+        <v>375</v>
+      </c>
+      <c r="W35" s="6">
+        <v>1.17E-2</v>
+      </c>
+      <c r="X35" s="22">
+        <v>2.420000000000002E-3</v>
+      </c>
+      <c r="Z35" s="2">
+        <v>375</v>
+      </c>
+      <c r="AA35" s="6">
+        <v>1.34E-2</v>
+      </c>
+      <c r="AC35" s="22">
+        <f t="shared" si="6"/>
+        <v>7.5000000000000414E-5</v>
+      </c>
+    </row>
+    <row r="36" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="D36" s="3">
+        <f t="shared" si="7"/>
+        <v>400</v>
+      </c>
+      <c r="E36" s="7">
+        <v>6.2750000000000002E-3</v>
+      </c>
+      <c r="F36" s="15"/>
+      <c r="P36" s="22">
+        <f t="shared" si="5"/>
+        <v>6.2750000000000002E-3</v>
+      </c>
+      <c r="R36" s="3">
+        <v>400</v>
+      </c>
+      <c r="S36" s="7">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="T36" s="22">
+        <v>-1.3999999999999985E-3</v>
+      </c>
+      <c r="V36" s="3">
+        <v>400</v>
+      </c>
+      <c r="W36" s="7">
+        <v>5.1000000000000004E-3</v>
+      </c>
+      <c r="X36" s="22">
+        <v>1.9000000000000024E-3</v>
+      </c>
+      <c r="Z36" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA36" s="7">
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="AC36" s="22">
+        <f t="shared" si="6"/>
+        <v>4.750000000000006E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="3:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D37" s="26">
+        <f t="shared" si="7"/>
         <v>425</v>
       </c>
-      <c r="AA16" s="9">
-        <f t="shared" si="7"/>
-        <v>1.2744E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="23"/>
-      <c r="P17" s="32">
-        <f t="shared" si="0"/>
-        <v>1.2231500000000001E-2</v>
-      </c>
-      <c r="R17" s="4">
-        <f t="shared" si="2"/>
-        <v>450</v>
-      </c>
-      <c r="S17" s="10">
-        <f t="shared" si="3"/>
-        <v>1.3420000000000001E-2</v>
-      </c>
-      <c r="V17" s="4">
-        <f t="shared" si="4"/>
-        <v>450</v>
-      </c>
-      <c r="W17" s="10">
+      <c r="E37" s="27">
+        <v>1.4E-3</v>
+      </c>
+      <c r="F37" s="15"/>
+      <c r="P37" s="22">
         <f t="shared" si="5"/>
-        <v>1.0255999999999999E-2</v>
-      </c>
-      <c r="Z17" s="4">
+        <v>1.4E-3</v>
+      </c>
+      <c r="R37" s="26">
+        <v>425</v>
+      </c>
+      <c r="S37" s="27">
+        <v>1.8E-3</v>
+      </c>
+      <c r="T37" s="22">
+        <v>-1.6199999999999964E-3</v>
+      </c>
+      <c r="V37" s="26">
+        <v>425</v>
+      </c>
+      <c r="W37" s="27">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="X37" s="22">
+        <v>1.3800000000000028E-3</v>
+      </c>
+      <c r="Z37" s="26">
+        <v>425</v>
+      </c>
+      <c r="AA37" s="27">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="AC37" s="22">
         <f t="shared" si="6"/>
-        <v>450</v>
-      </c>
-      <c r="AA17" s="10">
-        <f t="shared" si="7"/>
-        <v>1.183E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="23"/>
-      <c r="P18" s="32">
-        <f t="shared" si="0"/>
-        <v>1.0806E-2</v>
-      </c>
-      <c r="R18" s="3">
-        <f t="shared" si="2"/>
-        <v>475</v>
-      </c>
-      <c r="S18" s="9">
-        <f t="shared" si="3"/>
-        <v>1.1456000000000001E-2</v>
-      </c>
-      <c r="V18" s="3">
-        <f t="shared" si="4"/>
-        <v>475</v>
-      </c>
-      <c r="W18" s="9">
+        <v>2.0000000000000009E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="P38" s="30"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="15"/>
+      <c r="T38" s="30"/>
+      <c r="U38" s="5"/>
+      <c r="V38" s="5"/>
+      <c r="W38" s="15"/>
+      <c r="X38" s="30"/>
+      <c r="Y38" s="5"/>
+      <c r="Z38" s="5"/>
+      <c r="AA38" s="15"/>
+      <c r="AB38" s="5"/>
+      <c r="AC38" s="30"/>
+    </row>
+    <row r="39" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="P39" s="30"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="15"/>
+      <c r="T39" s="30"/>
+      <c r="U39" s="5"/>
+      <c r="V39" s="5"/>
+      <c r="W39" s="15"/>
+      <c r="X39" s="30"/>
+      <c r="Y39" s="5"/>
+      <c r="Z39" s="5"/>
+      <c r="AA39" s="15"/>
+      <c r="AB39" s="5"/>
+      <c r="AC39" s="30"/>
+    </row>
+    <row r="40" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="P40" s="30"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="15"/>
+      <c r="T40" s="30"/>
+      <c r="U40" s="5"/>
+      <c r="V40" s="5"/>
+      <c r="W40" s="15"/>
+      <c r="X40" s="30"/>
+      <c r="Y40" s="5"/>
+      <c r="Z40" s="5"/>
+      <c r="AA40" s="15"/>
+      <c r="AB40" s="5"/>
+      <c r="AC40" s="30"/>
+    </row>
+    <row r="41" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="P41" s="30"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="5"/>
+      <c r="S41" s="15"/>
+      <c r="T41" s="31"/>
+      <c r="U41" s="5"/>
+      <c r="V41" s="5"/>
+      <c r="W41" s="15"/>
+      <c r="X41" s="5"/>
+      <c r="Y41" s="5"/>
+      <c r="Z41" s="5"/>
+      <c r="AA41" s="15"/>
+      <c r="AB41" s="5"/>
+      <c r="AC41" s="31"/>
+    </row>
+    <row r="42" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="P42" s="30"/>
+      <c r="Q42" s="5"/>
+      <c r="R42" s="5"/>
+      <c r="S42" s="15"/>
+      <c r="T42" s="31"/>
+      <c r="U42" s="5"/>
+      <c r="V42" s="5"/>
+      <c r="W42" s="15"/>
+      <c r="X42" s="5"/>
+      <c r="Y42" s="5"/>
+      <c r="Z42" s="5"/>
+      <c r="AA42" s="15"/>
+      <c r="AB42" s="5"/>
+      <c r="AC42" s="5"/>
+    </row>
+    <row r="43" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="P43" s="30"/>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="5"/>
+      <c r="S43" s="15"/>
+      <c r="T43" s="5"/>
+      <c r="U43" s="5"/>
+      <c r="V43" s="5"/>
+      <c r="W43" s="15"/>
+      <c r="X43" s="5"/>
+      <c r="Y43" s="5"/>
+      <c r="Z43" s="5"/>
+      <c r="AA43" s="15"/>
+      <c r="AB43" s="5"/>
+      <c r="AC43" s="5"/>
+    </row>
+    <row r="44" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="P44" s="30"/>
+      <c r="Q44" s="5"/>
+      <c r="R44" s="5"/>
+      <c r="S44" s="5"/>
+      <c r="T44" s="5"/>
+      <c r="U44" s="5"/>
+      <c r="V44" s="5"/>
+      <c r="W44" s="5"/>
+      <c r="X44" s="5"/>
+      <c r="Y44" s="5"/>
+      <c r="Z44" s="5"/>
+      <c r="AA44" s="5"/>
+      <c r="AB44" s="5"/>
+      <c r="AC44" s="5"/>
+    </row>
+    <row r="45" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C45" s="4"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="P45" s="30"/>
+      <c r="Q45" s="5"/>
+      <c r="R45" s="5"/>
+      <c r="S45" s="5"/>
+      <c r="T45" s="5"/>
+      <c r="U45" s="5"/>
+      <c r="V45" s="5"/>
+      <c r="W45" s="5"/>
+      <c r="X45" s="5"/>
+      <c r="Y45" s="5"/>
+      <c r="Z45" s="5"/>
+      <c r="AA45" s="5"/>
+      <c r="AB45" s="5"/>
+      <c r="AC45" s="5"/>
+    </row>
+    <row r="46" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="P46" s="22"/>
+    </row>
+    <row r="47" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="P47" s="22"/>
+    </row>
+    <row r="48" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C48" s="5"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="P48" s="22"/>
+      <c r="Q48" s="17"/>
+      <c r="R48" s="17"/>
+      <c r="S48" s="17"/>
+      <c r="U48" s="17"/>
+      <c r="V48" s="17"/>
+      <c r="W48" s="17"/>
+      <c r="Y48" s="17"/>
+      <c r="Z48" s="17"/>
+      <c r="AA48" s="17"/>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C49" s="20"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="P49" s="22"/>
+      <c r="Q49" s="17"/>
+      <c r="R49" s="17"/>
+      <c r="S49" s="18"/>
+      <c r="U49" s="17"/>
+      <c r="V49" s="17"/>
+      <c r="W49" s="18"/>
+      <c r="Y49" s="17"/>
+      <c r="Z49" s="17"/>
+      <c r="AA49" s="18"/>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="P50" s="22"/>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="P51" s="22"/>
+    </row>
+    <row r="52" spans="3:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C52" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="F52" s="15"/>
+      <c r="P52" s="22"/>
+    </row>
+    <row r="53" spans="3:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C53" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53" s="15"/>
+      <c r="P53" s="22"/>
+      <c r="Q53" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="R53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S53" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="U53" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="V53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W53" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y53" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA53" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C54" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D54" s="2">
+        <v>325</v>
+      </c>
+      <c r="E54" s="6">
+        <v>2.5125000000000001E-2</v>
+      </c>
+      <c r="F54" s="15"/>
+      <c r="P54" s="22">
         <f t="shared" si="5"/>
-        <v>9.2559999999999986E-3</v>
-      </c>
-      <c r="Z18" s="3">
-        <f t="shared" si="6"/>
-        <v>475</v>
-      </c>
-      <c r="AA18" s="9">
-        <f t="shared" si="7"/>
-        <v>1.1056E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="3:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="23"/>
-      <c r="P19" s="32">
-        <f t="shared" si="0"/>
-        <v>9.137000000000001E-3</v>
-      </c>
-      <c r="R19" s="5">
-        <f t="shared" si="2"/>
-        <v>500</v>
-      </c>
-      <c r="S19" s="11">
-        <f t="shared" si="3"/>
-        <v>9.6370000000000015E-3</v>
-      </c>
-      <c r="V19" s="5">
-        <f t="shared" si="4"/>
-        <v>500</v>
-      </c>
-      <c r="W19" s="11">
+        <v>2.5125000000000001E-2</v>
+      </c>
+      <c r="Q54" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="R54" s="2">
+        <v>325</v>
+      </c>
+      <c r="S54" s="6">
+        <v>2.9399999999999999E-2</v>
+      </c>
+      <c r="U54" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="V54" s="2">
+        <v>325</v>
+      </c>
+      <c r="W54" s="6">
+        <v>2.06E-2</v>
+      </c>
+      <c r="Y54" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z54" s="2">
+        <v>325</v>
+      </c>
+      <c r="AA54" s="6">
+        <v>2.1100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="D55" s="3">
+        <v>350</v>
+      </c>
+      <c r="E55" s="7">
+        <v>1.5085000000000001E-2</v>
+      </c>
+      <c r="F55" s="15"/>
+      <c r="P55" s="22">
         <f t="shared" si="5"/>
-        <v>7.8370000000000002E-3</v>
-      </c>
-      <c r="Z19" s="5">
-        <f t="shared" si="6"/>
-        <v>500</v>
-      </c>
-      <c r="AA19" s="11">
-        <f t="shared" si="7"/>
-        <v>9.4369999999999992E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="19"/>
-      <c r="U20" s="20"/>
-      <c r="V20" s="7"/>
-      <c r="W20" s="19"/>
-      <c r="Y20" s="20"/>
-      <c r="Z20" s="7"/>
-      <c r="AA20" s="19"/>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="20"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="19"/>
-      <c r="U21" s="20"/>
-      <c r="V21" s="7"/>
-      <c r="W21" s="19"/>
-      <c r="Y21" s="20"/>
-      <c r="Z21" s="7"/>
-      <c r="AA21" s="19"/>
-    </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="20"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="19"/>
-      <c r="U22" s="20"/>
-      <c r="V22" s="7"/>
-      <c r="W22" s="19"/>
-      <c r="Y22" s="20"/>
-      <c r="Z22" s="7"/>
-      <c r="AA22" s="19"/>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="P23" s="29"/>
-    </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C24" s="6"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="6"/>
-      <c r="P24" s="29"/>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C25" s="6"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="6"/>
-      <c r="P25" s="29"/>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="P26" s="29"/>
-    </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C27" s="7"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="21"/>
-      <c r="R27" s="21"/>
-      <c r="S27" s="21"/>
-      <c r="U27" s="21"/>
-      <c r="V27" s="21"/>
-      <c r="W27" s="21"/>
-      <c r="Y27" s="21"/>
-      <c r="Z27" s="21"/>
-      <c r="AA27" s="21"/>
-    </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C28" s="24"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="21"/>
-      <c r="R28" s="21"/>
-      <c r="S28" s="22"/>
-      <c r="U28" s="21"/>
-      <c r="V28" s="21"/>
-      <c r="W28" s="22"/>
-      <c r="Y28" s="21"/>
-      <c r="Z28" s="21"/>
-      <c r="AA28" s="22"/>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="P29" s="29"/>
-    </row>
-    <row r="30" spans="3:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="P30" s="29"/>
-      <c r="AC30" s="27"/>
-    </row>
-    <row r="31" spans="3:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="14">
-        <v>0.75</v>
-      </c>
-      <c r="D31" s="1" t="s">
+        <v>1.5085000000000001E-2</v>
+      </c>
+      <c r="R55" s="3">
+        <v>350</v>
+      </c>
+      <c r="S55" s="7">
+        <v>1.636E-2</v>
+      </c>
+      <c r="V55" s="3">
+        <v>350</v>
+      </c>
+      <c r="W55" s="7">
+        <v>1.3559999999999999E-2</v>
+      </c>
+      <c r="Z55" s="3">
+        <v>350</v>
+      </c>
+      <c r="AA55" s="7">
+        <v>1.406E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="D56" s="2">
+        <v>375</v>
+      </c>
+      <c r="E56" s="6">
+        <v>1.1755E-2</v>
+      </c>
+      <c r="F56" s="15"/>
+      <c r="P56" s="22">
+        <f t="shared" si="5"/>
+        <v>1.1755E-2</v>
+      </c>
+      <c r="R56" s="2">
+        <v>375</v>
+      </c>
+      <c r="S56" s="6">
+        <v>1.354E-2</v>
+      </c>
+      <c r="V56" s="2">
+        <v>375</v>
+      </c>
+      <c r="W56" s="6">
+        <v>1.0540000000000001E-2</v>
+      </c>
+      <c r="Z56" s="2">
+        <v>375</v>
+      </c>
+      <c r="AA56" s="6">
+        <v>9.4000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="D57" s="3">
+        <v>400</v>
+      </c>
+      <c r="E57" s="7">
+        <v>5.4000000000000003E-3</v>
+      </c>
+      <c r="F57" s="15"/>
+      <c r="P57" s="22">
+        <f t="shared" si="5"/>
+        <v>5.4000000000000003E-3</v>
+      </c>
+      <c r="R57" s="3">
+        <v>400</v>
+      </c>
+      <c r="S57" s="7">
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="V57" s="3">
+        <v>400</v>
+      </c>
+      <c r="W57" s="7">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="Z57" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA57" s="7">
+        <v>4.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D58" s="26">
+        <v>425</v>
+      </c>
+      <c r="E58" s="27">
+        <v>8.7500000000000002E-4</v>
+      </c>
+      <c r="F58" s="15"/>
+      <c r="P58" s="22">
+        <f t="shared" si="5"/>
+        <v>8.7500000000000002E-4</v>
+      </c>
+      <c r="R58" s="26">
+        <v>425</v>
+      </c>
+      <c r="S58" s="27">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="V58" s="26">
+        <v>425</v>
+      </c>
+      <c r="W58" s="27">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="Z58" s="26">
+        <v>425</v>
+      </c>
+      <c r="AA58" s="27">
+        <v>6.9999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="P59" s="30"/>
+      <c r="Q59" s="5"/>
+      <c r="R59" s="5"/>
+      <c r="S59" s="15"/>
+      <c r="T59" s="5"/>
+      <c r="U59" s="5"/>
+      <c r="V59" s="5"/>
+      <c r="W59" s="15"/>
+      <c r="X59" s="5"/>
+      <c r="Y59" s="5"/>
+      <c r="Z59" s="5"/>
+      <c r="AA59" s="15"/>
+      <c r="AB59" s="5"/>
+      <c r="AC59" s="5"/>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
+      <c r="P60" s="30"/>
+      <c r="Q60" s="5"/>
+      <c r="R60" s="5"/>
+      <c r="S60" s="15"/>
+      <c r="T60" s="5"/>
+      <c r="U60" s="5"/>
+      <c r="V60" s="5"/>
+      <c r="W60" s="15"/>
+      <c r="X60" s="5"/>
+      <c r="Y60" s="5"/>
+      <c r="Z60" s="5"/>
+      <c r="AA60" s="15"/>
+      <c r="AB60" s="5"/>
+      <c r="AC60" s="5"/>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+      <c r="P61" s="30"/>
+      <c r="Q61" s="5"/>
+      <c r="R61" s="5"/>
+      <c r="S61" s="15"/>
+      <c r="T61" s="5"/>
+      <c r="U61" s="5"/>
+      <c r="V61" s="5"/>
+      <c r="W61" s="15"/>
+      <c r="X61" s="5"/>
+      <c r="Y61" s="5"/>
+      <c r="Z61" s="5"/>
+      <c r="AA61" s="15"/>
+      <c r="AB61" s="5"/>
+      <c r="AC61" s="5"/>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
+      <c r="P62" s="30"/>
+      <c r="Q62" s="5"/>
+      <c r="R62" s="5"/>
+      <c r="S62" s="15"/>
+      <c r="T62" s="5"/>
+      <c r="U62" s="5"/>
+      <c r="V62" s="5"/>
+      <c r="W62" s="15"/>
+      <c r="X62" s="5"/>
+      <c r="Y62" s="5"/>
+      <c r="Z62" s="5"/>
+      <c r="AA62" s="15"/>
+      <c r="AB62" s="5"/>
+      <c r="AC62" s="5"/>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
+      <c r="P63" s="30"/>
+      <c r="Q63" s="5"/>
+      <c r="R63" s="5"/>
+      <c r="S63" s="15"/>
+      <c r="T63" s="5"/>
+      <c r="U63" s="5"/>
+      <c r="V63" s="5"/>
+      <c r="W63" s="15"/>
+      <c r="X63" s="5"/>
+      <c r="Y63" s="5"/>
+      <c r="Z63" s="5"/>
+      <c r="AA63" s="15"/>
+      <c r="AB63" s="5"/>
+      <c r="AC63" s="5"/>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="15"/>
+      <c r="P64" s="30"/>
+      <c r="Q64" s="5"/>
+      <c r="R64" s="5"/>
+      <c r="S64" s="15"/>
+      <c r="T64" s="5"/>
+      <c r="U64" s="5"/>
+      <c r="V64" s="5"/>
+      <c r="W64" s="15"/>
+      <c r="X64" s="5"/>
+      <c r="Y64" s="5"/>
+      <c r="Z64" s="5"/>
+      <c r="AA64" s="15"/>
+      <c r="AB64" s="5"/>
+      <c r="AC64" s="5"/>
+    </row>
+    <row r="65" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="15"/>
+      <c r="P65" s="30"/>
+      <c r="Q65" s="5"/>
+      <c r="R65" s="5"/>
+      <c r="S65" s="5"/>
+      <c r="T65" s="5"/>
+      <c r="U65" s="5"/>
+      <c r="V65" s="5"/>
+      <c r="W65" s="5"/>
+      <c r="X65" s="5"/>
+      <c r="Y65" s="5"/>
+      <c r="Z65" s="5"/>
+      <c r="AA65" s="5"/>
+      <c r="AB65" s="5"/>
+      <c r="AC65" s="5"/>
+    </row>
+    <row r="66" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="F66" s="9"/>
+      <c r="P66" s="30"/>
+      <c r="Q66" s="5"/>
+      <c r="R66" s="5"/>
+      <c r="S66" s="5"/>
+      <c r="T66" s="5"/>
+      <c r="U66" s="5"/>
+      <c r="V66" s="5"/>
+      <c r="W66" s="5"/>
+      <c r="X66" s="5"/>
+      <c r="Y66" s="5"/>
+      <c r="Z66" s="5"/>
+      <c r="AA66" s="5"/>
+      <c r="AB66" s="5"/>
+      <c r="AC66" s="5"/>
+    </row>
+    <row r="67" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="F67" s="9"/>
+      <c r="P67" s="30"/>
+      <c r="Q67" s="5"/>
+      <c r="R67" s="5"/>
+      <c r="S67" s="5"/>
+      <c r="T67" s="5"/>
+      <c r="U67" s="5"/>
+      <c r="V67" s="5"/>
+      <c r="W67" s="5"/>
+      <c r="X67" s="5"/>
+      <c r="Y67" s="5"/>
+      <c r="Z67" s="5"/>
+      <c r="AA67" s="5"/>
+      <c r="AB67" s="5"/>
+      <c r="AC67" s="5"/>
+    </row>
+    <row r="68" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="F68" s="9"/>
+      <c r="P68" s="22"/>
+    </row>
+    <row r="69" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C69" s="5"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="21"/>
+      <c r="P69" s="22"/>
+      <c r="Q69" s="17"/>
+      <c r="R69" s="17"/>
+      <c r="S69" s="17"/>
+      <c r="U69" s="17"/>
+      <c r="V69" s="17"/>
+      <c r="W69" s="17"/>
+      <c r="Y69" s="17"/>
+      <c r="Z69" s="17"/>
+      <c r="AA69" s="17"/>
+    </row>
+    <row r="70" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C70" s="20"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="15"/>
+      <c r="P70" s="22"/>
+      <c r="Q70" s="17"/>
+      <c r="R70" s="17"/>
+      <c r="S70" s="18"/>
+      <c r="U70" s="17"/>
+      <c r="V70" s="17"/>
+      <c r="W70" s="18"/>
+      <c r="Y70" s="17"/>
+      <c r="Z70" s="17"/>
+      <c r="AA70" s="18"/>
+    </row>
+    <row r="71" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="15"/>
+      <c r="P71" s="22"/>
+    </row>
+    <row r="72" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="15"/>
+      <c r="P72" s="22"/>
+    </row>
+    <row r="73" spans="3:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C73" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="F73" s="15"/>
+      <c r="P73" s="22"/>
+    </row>
+    <row r="74" spans="3:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C74" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="D74" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E31" s="15" t="s">
+      <c r="E74" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F31" s="19"/>
-      <c r="P31" s="29"/>
-      <c r="Q31" s="14" t="s">
+      <c r="F74" s="15"/>
+      <c r="P74" s="22"/>
+      <c r="Q74" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="R31" s="1" t="s">
+      <c r="R74" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="S31" s="15" t="s">
+      <c r="S74" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="T31" s="27"/>
-      <c r="U31" s="14" t="s">
+      <c r="U74" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="V31" s="1" t="s">
+      <c r="V74" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="W31" s="15" t="s">
+      <c r="W74" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="Y31" s="14" t="s">
+      <c r="Y74" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="Z31" s="1" t="s">
+      <c r="Z74" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AA31" s="15" t="s">
+      <c r="AA74" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="AC31" s="27"/>
-    </row>
-    <row r="32" spans="3:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D32" s="2">
-        <v>300</v>
-      </c>
-      <c r="E32" s="8">
-        <v>1.9349999999999999E-2</v>
-      </c>
-      <c r="F32" s="19"/>
-      <c r="P32" s="32">
-        <f>S32*1/2 +W32*1/4 +AA32*1/4</f>
-        <v>1.9349999999999999E-2</v>
-      </c>
-      <c r="Q32" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="R32" s="2">
-        <v>300</v>
-      </c>
-      <c r="S32" s="8">
+    </row>
+    <row r="75" spans="3:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C75" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D75" s="2">
+        <v>325</v>
+      </c>
+      <c r="E75" s="6">
+        <v>1.8325000000000001E-2</v>
+      </c>
+      <c r="F75" s="15"/>
+      <c r="P75" s="22">
+        <f t="shared" si="5"/>
+        <v>1.8325000000000001E-2</v>
+      </c>
+      <c r="Q75" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="R75" s="28">
+        <v>325</v>
+      </c>
+      <c r="S75" s="29">
         <v>1.9800000000000002E-2</v>
       </c>
-      <c r="T32" s="26">
-        <v>-3.6000000000000268E-4</v>
-      </c>
-      <c r="U32" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="V32" s="2">
-        <v>300</v>
-      </c>
-      <c r="W32" s="8">
-        <v>1.84E-2</v>
-      </c>
-      <c r="X32" s="26">
-        <v>1.0399999999999993E-3</v>
-      </c>
-      <c r="Y32" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="2">
-        <v>300</v>
-      </c>
-      <c r="AA32" s="8">
-        <v>1.9400000000000001E-2</v>
-      </c>
-      <c r="AC32" s="26">
-        <f>E32-AA32</f>
-        <v>-5.0000000000001432E-5</v>
-      </c>
-    </row>
-    <row r="33" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="D33" s="3">
-        <f t="shared" ref="D33:D40" si="9">D32+25</f>
+      <c r="U75" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="V75" s="28">
         <v>325</v>
       </c>
-      <c r="E33" s="9">
-        <v>1.8949999999999998E-2</v>
-      </c>
-      <c r="F33" s="19"/>
-      <c r="P33" s="32">
-        <f t="shared" ref="P33:P82" si="10">S33*1/2 +W33*1/4 +AA33*1/4</f>
-        <v>1.8949999999999998E-2</v>
-      </c>
-      <c r="R33" s="3">
+      <c r="W75" s="29">
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="Y75" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z75" s="28">
         <v>325</v>
       </c>
-      <c r="S33" s="9">
-        <v>1.9699999999999999E-2</v>
-      </c>
-      <c r="T33" s="26">
-        <v>-2.5999999999999981E-4</v>
-      </c>
-      <c r="V33" s="3">
-        <v>325</v>
-      </c>
-      <c r="W33" s="9">
-        <v>1.7399999999999999E-2</v>
-      </c>
-      <c r="X33" s="26">
-        <v>2.0400000000000001E-3</v>
-      </c>
-      <c r="Z33" s="3">
-        <v>325</v>
-      </c>
-      <c r="AA33" s="9">
-        <v>1.9E-2</v>
-      </c>
-      <c r="AC33" s="26">
-        <f t="shared" ref="AC33:AC40" si="11">E33-AA33</f>
-        <v>-5.0000000000001432E-5</v>
-      </c>
-    </row>
-    <row r="34" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="D34" s="4">
-        <f t="shared" si="9"/>
+      <c r="AA75" s="29">
+        <v>1.72E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="D76" s="3">
         <v>350</v>
       </c>
-      <c r="E34" s="10">
-        <v>1.8324999999999998E-2</v>
-      </c>
-      <c r="F34" s="19"/>
-      <c r="P34" s="32">
-        <f t="shared" si="10"/>
-        <v>1.8324999999999998E-2</v>
-      </c>
-      <c r="R34" s="4">
+      <c r="E76" s="7">
+        <v>1.0224999999999998E-2</v>
+      </c>
+      <c r="F76" s="15"/>
+      <c r="P76" s="22">
+        <f t="shared" si="5"/>
+        <v>1.0224999999999998E-2</v>
+      </c>
+      <c r="R76" s="3">
         <v>350</v>
       </c>
-      <c r="S34" s="10">
-        <v>1.9599999999999999E-2</v>
-      </c>
-      <c r="T34" s="26">
-        <v>-1.7799999999999969E-3</v>
-      </c>
-      <c r="V34" s="4">
+      <c r="S76" s="7">
+        <v>1.1499999999999996E-2</v>
+      </c>
+      <c r="V76" s="3">
         <v>350</v>
       </c>
-      <c r="W34" s="10">
-        <v>1.6799999999999999E-2</v>
-      </c>
-      <c r="X34" s="26">
-        <v>1.0200000000000035E-3</v>
-      </c>
-      <c r="Z34" s="4">
+      <c r="W76" s="7">
+        <v>8.6999999999999959E-3</v>
+      </c>
+      <c r="Z76" s="3">
         <v>350</v>
       </c>
-      <c r="AA34" s="10">
-        <v>1.7299999999999999E-2</v>
-      </c>
-      <c r="AC34" s="26">
-        <f t="shared" si="11"/>
-        <v>1.0249999999999981E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="D35" s="3">
-        <f t="shared" si="9"/>
+      <c r="AA76" s="7">
+        <v>9.1999999999999964E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="D77" s="2">
         <v>375</v>
       </c>
-      <c r="E35" s="9">
-        <v>1.7049999999999999E-2</v>
-      </c>
-      <c r="F35" s="19"/>
-      <c r="P35" s="32">
-        <f t="shared" si="10"/>
-        <v>1.7049999999999999E-2</v>
-      </c>
-      <c r="R35" s="3">
+      <c r="E77" s="6">
+        <v>8.9499999999999962E-3</v>
+      </c>
+      <c r="F77" s="15"/>
+      <c r="P77" s="22">
+        <f t="shared" si="5"/>
+        <v>8.9499999999999962E-3</v>
+      </c>
+      <c r="R77" s="2">
         <v>375</v>
       </c>
-      <c r="S35" s="9">
-        <v>1.84E-2</v>
-      </c>
-      <c r="T35" s="26">
-        <v>-5.7999999999999718E-4</v>
-      </c>
-      <c r="V35" s="3">
+      <c r="S77" s="6">
+        <v>1.0299999999999997E-2</v>
+      </c>
+      <c r="V77" s="2">
         <v>375</v>
       </c>
-      <c r="W35" s="9">
-        <v>1.54E-2</v>
-      </c>
-      <c r="X35" s="26">
-        <v>2.420000000000002E-3</v>
-      </c>
-      <c r="Z35" s="3">
+      <c r="W77" s="6">
+        <v>7.2999999999999975E-3</v>
+      </c>
+      <c r="Z77" s="2">
         <v>375</v>
       </c>
-      <c r="AA35" s="9">
-        <v>1.6E-2</v>
-      </c>
-      <c r="AC35" s="26">
-        <f t="shared" si="11"/>
-        <v>1.0499999999999989E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="D36" s="4">
-        <f t="shared" si="9"/>
+      <c r="AA77" s="6">
+        <v>7.8999999999999973E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="D78" s="3">
         <v>400</v>
       </c>
-      <c r="E36" s="10">
-        <v>1.6250000000000001E-2</v>
-      </c>
-      <c r="F36" s="19"/>
-      <c r="P36" s="32">
-        <f t="shared" si="10"/>
-        <v>1.6250000000000001E-2</v>
-      </c>
-      <c r="R36" s="4">
+      <c r="E78" s="7">
+        <v>5.3E-3</v>
+      </c>
+      <c r="F78" s="15"/>
+      <c r="P78" s="22">
+        <f t="shared" si="5"/>
+        <v>5.3E-3</v>
+      </c>
+      <c r="R78" s="3">
         <v>400</v>
       </c>
-      <c r="S36" s="10">
-        <v>1.7600000000000001E-2</v>
-      </c>
-      <c r="T36" s="26">
-        <v>-1.3999999999999985E-3</v>
-      </c>
-      <c r="V36" s="4">
+      <c r="S78" s="7">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="V78" s="3">
         <v>400</v>
       </c>
-      <c r="W36" s="10">
-        <v>1.43E-2</v>
-      </c>
-      <c r="X36" s="26">
-        <v>1.9000000000000024E-3</v>
-      </c>
-      <c r="Z36" s="4">
+      <c r="W78" s="7">
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="Z78" s="3">
         <v>400</v>
       </c>
-      <c r="AA36" s="10">
-        <v>1.55E-2</v>
-      </c>
-      <c r="AC36" s="26">
-        <f t="shared" si="11"/>
-        <v>7.5000000000000067E-4</v>
-      </c>
-    </row>
-    <row r="37" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="D37" s="3">
-        <f t="shared" si="9"/>
+      <c r="AA78" s="7">
+        <v>5.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="3:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D79" s="26">
         <v>425</v>
       </c>
-      <c r="E37" s="9">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="F37" s="19"/>
-      <c r="P37" s="32">
-        <f t="shared" si="10"/>
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="R37" s="3">
+      <c r="E79" s="27">
+        <v>3.7500000000000001E-4</v>
+      </c>
+      <c r="F79" s="15"/>
+      <c r="P79" s="22">
+        <f t="shared" si="5"/>
+        <v>3.7500000000000001E-4</v>
+      </c>
+      <c r="R79" s="26">
         <v>425</v>
       </c>
-      <c r="S37" s="9">
-        <v>1.6199999999999999E-2</v>
-      </c>
-      <c r="T37" s="26">
-        <v>-1.6199999999999964E-3</v>
-      </c>
-      <c r="V37" s="3">
+      <c r="S79" s="27">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="V79" s="26">
         <v>425</v>
       </c>
-      <c r="W37" s="9">
-        <v>1.32E-2</v>
-      </c>
-      <c r="X37" s="26">
-        <v>1.3800000000000028E-3</v>
-      </c>
-      <c r="Z37" s="3">
+      <c r="W79" s="27">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="Z79" s="26">
         <v>425</v>
       </c>
-      <c r="AA37" s="9">
-        <v>1.44E-2</v>
-      </c>
-      <c r="AC37" s="26">
-        <f t="shared" si="11"/>
-        <v>5.9999999999999984E-4</v>
-      </c>
-    </row>
-    <row r="38" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="D38" s="4">
-        <f t="shared" si="9"/>
-        <v>450</v>
-      </c>
-      <c r="E38" s="10">
-        <v>1.4200000000000001E-2</v>
-      </c>
-      <c r="F38" s="19"/>
-      <c r="P38" s="32">
-        <f t="shared" si="10"/>
-        <v>1.4200000000000001E-2</v>
-      </c>
-      <c r="R38" s="4">
-        <v>450</v>
-      </c>
-      <c r="S38" s="10">
-        <v>1.54E-2</v>
-      </c>
-      <c r="T38" s="26">
-        <v>-8.1999999999999781E-4</v>
-      </c>
-      <c r="V38" s="4">
-        <v>450</v>
-      </c>
-      <c r="W38" s="10">
-        <v>1.2200000000000001E-2</v>
-      </c>
-      <c r="X38" s="26">
-        <v>2.3800000000000019E-3</v>
-      </c>
-      <c r="Z38" s="4">
-        <v>450</v>
-      </c>
-      <c r="AA38" s="10">
-        <v>1.38E-2</v>
-      </c>
-      <c r="AC38" s="26">
-        <f t="shared" si="11"/>
-        <v>4.0000000000000105E-4</v>
-      </c>
-    </row>
-    <row r="39" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="D39" s="3">
-        <f t="shared" si="9"/>
-        <v>475</v>
-      </c>
-      <c r="E39" s="9">
-        <v>1.2749999999999999E-2</v>
-      </c>
-      <c r="F39" s="19"/>
-      <c r="P39" s="32">
-        <f t="shared" si="10"/>
-        <v>1.2749999999999999E-2</v>
-      </c>
-      <c r="R39" s="3">
-        <v>475</v>
-      </c>
-      <c r="S39" s="9">
-        <v>1.34E-2</v>
-      </c>
-      <c r="T39" s="26">
-        <v>-4.3999999999999768E-4</v>
-      </c>
-      <c r="V39" s="3">
-        <v>475</v>
-      </c>
-      <c r="W39" s="9">
-        <v>1.12E-2</v>
-      </c>
-      <c r="X39" s="26">
-        <v>1.7600000000000029E-3</v>
-      </c>
-      <c r="Z39" s="3">
-        <v>475</v>
-      </c>
-      <c r="AA39" s="9">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="AC39" s="26">
-        <f t="shared" si="11"/>
-        <v>-2.5000000000000022E-4</v>
-      </c>
-    </row>
-    <row r="40" spans="3:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D40" s="5">
-        <f t="shared" si="9"/>
-        <v>500</v>
-      </c>
-      <c r="E40" s="11">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="F40" s="19"/>
-      <c r="P40" s="32">
-        <f t="shared" si="10"/>
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="R40" s="5">
-        <v>500</v>
-      </c>
-      <c r="S40" s="11">
-        <v>1.15E-2</v>
-      </c>
-      <c r="T40" s="26">
-        <v>-1.6000000000000042E-4</v>
-      </c>
-      <c r="V40" s="5">
-        <v>500</v>
-      </c>
-      <c r="W40" s="11">
-        <v>9.7000000000000003E-3</v>
-      </c>
-      <c r="X40" s="26">
-        <v>1.6399999999999991E-3</v>
-      </c>
-      <c r="Z40" s="5">
-        <v>500</v>
-      </c>
-      <c r="AA40" s="11">
-        <v>1.1299999999999999E-2</v>
-      </c>
-      <c r="AC40" s="26">
-        <f t="shared" si="11"/>
-        <v>-2.9999999999999992E-4</v>
-      </c>
-    </row>
-    <row r="41" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="P41" s="32"/>
-      <c r="Q41" s="20"/>
-      <c r="R41" s="7"/>
-      <c r="S41" s="19"/>
-      <c r="T41" s="27"/>
-      <c r="U41" s="20"/>
-      <c r="V41" s="7"/>
-      <c r="W41" s="19"/>
-      <c r="Y41" s="20"/>
-      <c r="Z41" s="7"/>
-      <c r="AA41" s="19"/>
-      <c r="AC41" s="27"/>
-    </row>
-    <row r="42" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="P42" s="32"/>
-      <c r="Q42" s="20"/>
-      <c r="R42" s="7"/>
-      <c r="S42" s="19"/>
-      <c r="T42" s="27"/>
-      <c r="U42" s="20"/>
-      <c r="V42" s="7"/>
-      <c r="W42" s="19"/>
-      <c r="Y42" s="20"/>
-      <c r="Z42" s="7"/>
-      <c r="AA42" s="19"/>
-    </row>
-    <row r="43" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-      <c r="P43" s="32"/>
-      <c r="Q43" s="20"/>
-      <c r="R43" s="7"/>
-      <c r="S43" s="19"/>
-      <c r="U43" s="20"/>
-      <c r="V43" s="7"/>
-      <c r="W43" s="19"/>
-      <c r="Y43" s="20"/>
-      <c r="Z43" s="7"/>
-      <c r="AA43" s="19"/>
-    </row>
-    <row r="44" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
-      <c r="P44" s="32"/>
-    </row>
-    <row r="45" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="P45" s="32"/>
-    </row>
-    <row r="46" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="P46" s="32"/>
-    </row>
-    <row r="47" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="P47" s="32"/>
-    </row>
-    <row r="48" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C48" s="7"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25"/>
-      <c r="P48" s="32"/>
-      <c r="Q48" s="21"/>
-      <c r="R48" s="21"/>
-      <c r="S48" s="21"/>
-      <c r="U48" s="21"/>
-      <c r="V48" s="21"/>
-      <c r="W48" s="21"/>
-      <c r="Y48" s="21"/>
-      <c r="Z48" s="21"/>
-      <c r="AA48" s="21"/>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C49" s="24"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
-      <c r="P49" s="32"/>
-      <c r="Q49" s="21"/>
-      <c r="R49" s="21"/>
-      <c r="S49" s="22"/>
-      <c r="U49" s="21"/>
-      <c r="V49" s="21"/>
-      <c r="W49" s="22"/>
-      <c r="Y49" s="21"/>
-      <c r="Z49" s="21"/>
-      <c r="AA49" s="22"/>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19"/>
-      <c r="P50" s="32"/>
-    </row>
-    <row r="51" spans="3:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="19"/>
-      <c r="P51" s="32"/>
-    </row>
-    <row r="52" spans="3:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C52" s="14">
-        <v>0.2</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E52" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F52" s="19"/>
-      <c r="P52" s="32"/>
-      <c r="Q52" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="R52" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="S52" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="U52" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="V52" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="W52" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y52" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z52" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA52" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="3:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C53" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D53" s="2">
-        <v>300</v>
-      </c>
-      <c r="E53" s="8">
-        <v>1.6110000000000006E-2</v>
-      </c>
-      <c r="F53" s="19"/>
-      <c r="P53" s="32">
-        <f t="shared" si="10"/>
-        <v>1.6110000000000006E-2</v>
-      </c>
-      <c r="Q53" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="R53" s="2">
-        <v>300</v>
-      </c>
-      <c r="S53" s="8">
-        <v>1.6560000000000005E-2</v>
-      </c>
-      <c r="U53" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="V53" s="2">
-        <v>300</v>
-      </c>
-      <c r="W53" s="8">
-        <v>1.5160000000000003E-2</v>
-      </c>
-      <c r="Y53" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z53" s="2">
-        <v>300</v>
-      </c>
-      <c r="AA53" s="8">
-        <v>1.6160000000000004E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="D54" s="3">
-        <v>325</v>
-      </c>
-      <c r="E54" s="9">
-        <v>1.5710000000000002E-2</v>
-      </c>
-      <c r="F54" s="19"/>
-      <c r="P54" s="32">
-        <f t="shared" si="10"/>
-        <v>1.5710000000000002E-2</v>
-      </c>
-      <c r="R54" s="3">
-        <v>325</v>
-      </c>
-      <c r="S54" s="9">
-        <v>1.6460000000000002E-2</v>
-      </c>
-      <c r="V54" s="3">
-        <v>325</v>
-      </c>
-      <c r="W54" s="9">
-        <v>1.4160000000000002E-2</v>
-      </c>
-      <c r="Z54" s="3">
-        <v>325</v>
-      </c>
-      <c r="AA54" s="9">
-        <v>1.5760000000000003E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="D55" s="4">
-        <v>350</v>
-      </c>
-      <c r="E55" s="10">
-        <v>1.5085000000000001E-2</v>
-      </c>
-      <c r="F55" s="19"/>
-      <c r="P55" s="32">
-        <f t="shared" si="10"/>
-        <v>1.5085000000000001E-2</v>
-      </c>
-      <c r="R55" s="4">
-        <v>350</v>
-      </c>
-      <c r="S55" s="10">
-        <v>1.636E-2</v>
-      </c>
-      <c r="V55" s="4">
-        <v>350</v>
-      </c>
-      <c r="W55" s="10">
-        <v>1.3559999999999999E-2</v>
-      </c>
-      <c r="Z55" s="4">
-        <v>350</v>
-      </c>
-      <c r="AA55" s="10">
-        <v>1.406E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="D56" s="3">
-        <v>375</v>
-      </c>
-      <c r="E56" s="9">
-        <v>1.2189999999999999E-2</v>
-      </c>
-      <c r="F56" s="19"/>
-      <c r="P56" s="32">
-        <f t="shared" si="10"/>
-        <v>1.2189999999999999E-2</v>
-      </c>
-      <c r="R56" s="3">
-        <v>375</v>
-      </c>
-      <c r="S56" s="9">
-        <v>1.354E-2</v>
-      </c>
-      <c r="V56" s="3">
-        <v>375</v>
-      </c>
-      <c r="W56" s="9">
-        <v>1.0540000000000001E-2</v>
-      </c>
-      <c r="Z56" s="3">
-        <v>375</v>
-      </c>
-      <c r="AA56" s="9">
-        <v>1.1140000000000001E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="D57" s="4">
-        <v>400</v>
-      </c>
-      <c r="E57" s="10">
-        <v>1.1389999999999997E-2</v>
-      </c>
-      <c r="F57" s="19"/>
-      <c r="P57" s="32">
-        <f t="shared" si="10"/>
-        <v>1.1389999999999997E-2</v>
-      </c>
-      <c r="R57" s="4">
-        <v>400</v>
-      </c>
-      <c r="S57" s="10">
-        <v>1.2739999999999998E-2</v>
-      </c>
-      <c r="V57" s="4">
-        <v>400</v>
-      </c>
-      <c r="W57" s="10">
-        <v>9.439999999999997E-3</v>
-      </c>
-      <c r="Z57" s="4">
-        <v>400</v>
-      </c>
-      <c r="AA57" s="10">
-        <v>1.0639999999999997E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="D58" s="3">
-        <v>425</v>
-      </c>
-      <c r="E58" s="9">
-        <v>8.5199999999999981E-3</v>
-      </c>
-      <c r="F58" s="19"/>
-      <c r="P58" s="32">
-        <f t="shared" si="10"/>
-        <v>8.5199999999999981E-3</v>
-      </c>
-      <c r="R58" s="3">
-        <v>425</v>
-      </c>
-      <c r="S58" s="9">
-        <v>9.7199999999999977E-3</v>
-      </c>
-      <c r="V58" s="3">
-        <v>425</v>
-      </c>
-      <c r="W58" s="9">
-        <v>6.7199999999999985E-3</v>
-      </c>
-      <c r="Z58" s="3">
-        <v>425</v>
-      </c>
-      <c r="AA58" s="9">
-        <v>7.9199999999999982E-3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="D59" s="4">
-        <v>450</v>
-      </c>
-      <c r="E59" s="10">
-        <v>6.0999999999999995E-3</v>
-      </c>
-      <c r="F59" s="19"/>
-      <c r="P59" s="32">
-        <f t="shared" si="10"/>
-        <v>6.0999999999999995E-3</v>
-      </c>
-      <c r="R59" s="4">
-        <v>450</v>
-      </c>
-      <c r="S59" s="10">
-        <v>7.2999999999999992E-3</v>
-      </c>
-      <c r="V59" s="4">
-        <v>450</v>
-      </c>
-      <c r="W59" s="10">
-        <v>4.0999999999999995E-3</v>
-      </c>
-      <c r="Z59" s="4">
-        <v>450</v>
-      </c>
-      <c r="AA59" s="10">
-        <v>5.6999999999999985E-3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="D60" s="3">
-        <v>475</v>
-      </c>
-      <c r="E60" s="9">
-        <v>4.649999999999997E-3</v>
-      </c>
-      <c r="F60" s="19"/>
-      <c r="P60" s="32">
-        <f t="shared" si="10"/>
-        <v>4.649999999999997E-3</v>
-      </c>
-      <c r="R60" s="3">
-        <v>475</v>
-      </c>
-      <c r="S60" s="9">
-        <v>5.2999999999999974E-3</v>
-      </c>
-      <c r="V60" s="3">
-        <v>475</v>
-      </c>
-      <c r="W60" s="9">
-        <v>3.0999999999999969E-3</v>
-      </c>
-      <c r="Z60" s="3">
-        <v>475</v>
-      </c>
-      <c r="AA60" s="9">
-        <v>4.8999999999999964E-3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D61" s="5">
-        <v>500</v>
-      </c>
-      <c r="E61" s="11">
-        <v>2.9000000000000015E-3</v>
-      </c>
-      <c r="F61" s="19"/>
-      <c r="P61" s="32">
-        <f t="shared" si="10"/>
-        <v>2.9000000000000015E-3</v>
-      </c>
-      <c r="R61" s="5">
-        <v>500</v>
-      </c>
-      <c r="S61" s="11">
-        <v>3.4000000000000011E-3</v>
-      </c>
-      <c r="V61" s="5">
-        <v>500</v>
-      </c>
-      <c r="W61" s="11">
-        <v>1.6000000000000016E-3</v>
-      </c>
-      <c r="Z61" s="5">
-        <v>500</v>
-      </c>
-      <c r="AA61" s="11">
-        <v>3.2000000000000006E-3</v>
-      </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="19"/>
-      <c r="F62" s="19"/>
-      <c r="P62" s="32"/>
-      <c r="Q62" s="20"/>
-      <c r="R62" s="7"/>
-      <c r="S62" s="19"/>
-      <c r="U62" s="20"/>
-      <c r="V62" s="7"/>
-      <c r="W62" s="19"/>
-      <c r="Y62" s="20"/>
-      <c r="Z62" s="7"/>
-      <c r="AA62" s="19"/>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="19"/>
-      <c r="F63" s="19"/>
-      <c r="P63" s="32"/>
-      <c r="Q63" s="20"/>
-      <c r="R63" s="7"/>
-      <c r="S63" s="19"/>
-      <c r="U63" s="20"/>
-      <c r="V63" s="7"/>
-      <c r="W63" s="19"/>
-      <c r="Y63" s="20"/>
-      <c r="Z63" s="7"/>
-      <c r="AA63" s="19"/>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="19"/>
-      <c r="F64" s="19"/>
-      <c r="P64" s="32"/>
-      <c r="Q64" s="20"/>
-      <c r="R64" s="7"/>
-      <c r="S64" s="19"/>
-      <c r="U64" s="20"/>
-      <c r="V64" s="7"/>
-      <c r="W64" s="19"/>
-      <c r="Y64" s="20"/>
-      <c r="Z64" s="7"/>
-      <c r="AA64" s="19"/>
-    </row>
-    <row r="65" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="19"/>
-      <c r="F65" s="19"/>
-      <c r="P65" s="32"/>
-    </row>
-    <row r="66" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="F66" s="13"/>
-      <c r="P66" s="32"/>
-    </row>
-    <row r="67" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="F67" s="13"/>
-      <c r="P67" s="32"/>
-    </row>
-    <row r="68" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="F68" s="13"/>
-      <c r="P68" s="32"/>
-    </row>
-    <row r="69" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C69" s="7"/>
-      <c r="D69" s="17"/>
-      <c r="E69" s="25"/>
-      <c r="F69" s="25"/>
-      <c r="P69" s="32"/>
-      <c r="Q69" s="21"/>
-      <c r="R69" s="21"/>
-      <c r="S69" s="21"/>
-      <c r="U69" s="21"/>
-      <c r="V69" s="21"/>
-      <c r="W69" s="21"/>
-      <c r="Y69" s="21"/>
-      <c r="Z69" s="21"/>
-      <c r="AA69" s="21"/>
-    </row>
-    <row r="70" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C70" s="24"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="19"/>
-      <c r="F70" s="19"/>
-      <c r="P70" s="32"/>
-      <c r="Q70" s="21"/>
-      <c r="R70" s="21"/>
-      <c r="S70" s="22"/>
-      <c r="U70" s="21"/>
-      <c r="V70" s="21"/>
-      <c r="W70" s="22"/>
-      <c r="Y70" s="21"/>
-      <c r="Z70" s="21"/>
-      <c r="AA70" s="22"/>
-    </row>
-    <row r="71" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="19"/>
-      <c r="F71" s="19"/>
-      <c r="P71" s="32"/>
-    </row>
-    <row r="72" spans="3:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="19"/>
-      <c r="F72" s="19"/>
-      <c r="P72" s="32"/>
-    </row>
-    <row r="73" spans="3:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C73" s="14">
-        <v>0.05</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E73" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F73" s="19"/>
-      <c r="P73" s="32"/>
-      <c r="Q73" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="R73" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="S73" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="U73" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="V73" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="W73" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y73" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z73" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA73" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="74" spans="3:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C74" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D74" s="2">
-        <v>300</v>
-      </c>
-      <c r="E74" s="8">
-        <v>1.1250000000000003E-2</v>
-      </c>
-      <c r="F74" s="19"/>
-      <c r="P74" s="32">
-        <f t="shared" si="10"/>
-        <v>1.1250000000000003E-2</v>
-      </c>
-      <c r="Q74" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="R74" s="2">
-        <v>300</v>
-      </c>
-      <c r="S74" s="8">
-        <v>1.1700000000000002E-2</v>
-      </c>
-      <c r="U74" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="V74" s="2">
-        <v>300</v>
-      </c>
-      <c r="W74" s="8">
-        <v>1.03E-2</v>
-      </c>
-      <c r="Y74" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z74" s="2">
-        <v>300</v>
-      </c>
-      <c r="AA74" s="8">
-        <v>1.1300000000000001E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="D75" s="3">
-        <v>325</v>
-      </c>
-      <c r="E75" s="9">
-        <v>1.0444999999999999E-2</v>
-      </c>
-      <c r="F75" s="19"/>
-      <c r="P75" s="32">
-        <f t="shared" si="10"/>
-        <v>1.0444999999999999E-2</v>
-      </c>
-      <c r="R75" s="3">
-        <v>325</v>
-      </c>
-      <c r="S75" s="9">
-        <v>1.1599999999999999E-2</v>
-      </c>
-      <c r="V75" s="3">
-        <v>325</v>
-      </c>
-      <c r="W75" s="9">
-        <v>9.2999999999999992E-3</v>
-      </c>
-      <c r="Z75" s="3">
-        <v>325</v>
-      </c>
-      <c r="AA75" s="9">
-        <v>9.2800000000000001E-3</v>
-      </c>
-    </row>
-    <row r="76" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="D76" s="4">
-        <v>350</v>
-      </c>
-      <c r="E76" s="10">
-        <v>1.0224999999999998E-2</v>
-      </c>
-      <c r="F76" s="19"/>
-      <c r="P76" s="32">
-        <f t="shared" si="10"/>
-        <v>1.0224999999999998E-2</v>
-      </c>
-      <c r="R76" s="4">
-        <v>350</v>
-      </c>
-      <c r="S76" s="10">
-        <v>1.1499999999999996E-2</v>
-      </c>
-      <c r="V76" s="4">
-        <v>350</v>
-      </c>
-      <c r="W76" s="10">
-        <v>8.6999999999999959E-3</v>
-      </c>
-      <c r="Z76" s="4">
-        <v>350</v>
-      </c>
-      <c r="AA76" s="10">
-        <v>9.1999999999999964E-3</v>
-      </c>
-    </row>
-    <row r="77" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="D77" s="3">
-        <v>375</v>
-      </c>
-      <c r="E77" s="9">
-        <v>8.9499999999999962E-3</v>
-      </c>
-      <c r="F77" s="19"/>
-      <c r="P77" s="32">
-        <f t="shared" si="10"/>
-        <v>8.9499999999999962E-3</v>
-      </c>
-      <c r="R77" s="3">
-        <v>375</v>
-      </c>
-      <c r="S77" s="9">
-        <v>1.0299999999999997E-2</v>
-      </c>
-      <c r="V77" s="3">
-        <v>375</v>
-      </c>
-      <c r="W77" s="9">
-        <v>7.2999999999999975E-3</v>
-      </c>
-      <c r="Z77" s="3">
-        <v>375</v>
-      </c>
-      <c r="AA77" s="9">
-        <v>7.8999999999999973E-3</v>
-      </c>
-    </row>
-    <row r="78" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="D78" s="4">
-        <v>400</v>
-      </c>
-      <c r="E78" s="10">
-        <v>8.1499999999999993E-3</v>
-      </c>
-      <c r="F78" s="19"/>
-      <c r="P78" s="32">
-        <f t="shared" si="10"/>
-        <v>8.1499999999999993E-3</v>
-      </c>
-      <c r="R78" s="4">
-        <v>400</v>
-      </c>
-      <c r="S78" s="10">
-        <v>9.4999999999999998E-3</v>
-      </c>
-      <c r="V78" s="4">
-        <v>400</v>
-      </c>
-      <c r="W78" s="10">
-        <v>6.1999999999999989E-3</v>
-      </c>
-      <c r="Z78" s="4">
-        <v>400</v>
-      </c>
-      <c r="AA78" s="10">
-        <v>7.3999999999999986E-3</v>
-      </c>
-    </row>
-    <row r="79" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="D79" s="3">
-        <v>425</v>
-      </c>
-      <c r="E79" s="9">
-        <v>7.5499999999999994E-3</v>
-      </c>
-      <c r="F79" s="19"/>
-      <c r="P79" s="32">
-        <f t="shared" si="10"/>
-        <v>7.5499999999999994E-3</v>
-      </c>
-      <c r="R79" s="3">
-        <v>425</v>
-      </c>
-      <c r="S79" s="9">
-        <v>8.5000000000000006E-3</v>
-      </c>
-      <c r="V79" s="3">
-        <v>425</v>
-      </c>
-      <c r="W79" s="9">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="Z79" s="3">
-        <v>425</v>
-      </c>
-      <c r="AA79" s="9">
-        <v>7.1999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="80" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="D80" s="4">
-        <v>450</v>
-      </c>
-      <c r="E80" s="10">
-        <v>7.2300000000000003E-3</v>
-      </c>
-      <c r="F80" s="19"/>
-      <c r="P80" s="32">
-        <f t="shared" si="10"/>
-        <v>7.2300000000000003E-3</v>
-      </c>
-      <c r="R80" s="4">
-        <v>450</v>
-      </c>
-      <c r="S80" s="10">
-        <v>8.2000000000000007E-3</v>
-      </c>
-      <c r="V80" s="4">
-        <v>450</v>
-      </c>
-      <c r="W80" s="10">
-        <v>5.7199999999999994E-3</v>
-      </c>
-      <c r="Z80" s="4">
-        <v>450</v>
-      </c>
-      <c r="AA80" s="10">
-        <v>6.7999999999999996E-3</v>
-      </c>
+      <c r="AA79" s="27">
+        <v>2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="80" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="15"/>
+      <c r="F80" s="15"/>
+      <c r="P80" s="30"/>
+      <c r="Q80" s="5"/>
+      <c r="R80" s="5"/>
+      <c r="S80" s="15"/>
+      <c r="T80" s="5"/>
+      <c r="U80" s="5"/>
+      <c r="V80" s="5"/>
+      <c r="W80" s="15"/>
+      <c r="X80" s="5"/>
+      <c r="Y80" s="5"/>
+      <c r="Z80" s="5"/>
+      <c r="AA80" s="15"/>
+      <c r="AB80" s="5"/>
+      <c r="AC80" s="5"/>
     </row>
     <row r="81" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="D81" s="3">
-        <v>475</v>
-      </c>
-      <c r="E81" s="9">
-        <v>6.2699999999999987E-3</v>
-      </c>
-      <c r="F81" s="19"/>
-      <c r="P81" s="32">
-        <f t="shared" si="10"/>
-        <v>6.2699999999999987E-3</v>
-      </c>
-      <c r="R81" s="3">
-        <v>475</v>
-      </c>
-      <c r="S81" s="9">
-        <v>6.9199999999999991E-3</v>
-      </c>
-      <c r="V81" s="3">
-        <v>475</v>
-      </c>
-      <c r="W81" s="9">
-        <v>4.7199999999999985E-3</v>
-      </c>
-      <c r="Z81" s="3">
-        <v>475</v>
-      </c>
-      <c r="AA81" s="9">
-        <v>6.519999999999998E-3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D82" s="5">
-        <v>500</v>
-      </c>
-      <c r="E82" s="11">
-        <v>6.1400000000000014E-3</v>
-      </c>
-      <c r="F82" s="19"/>
-      <c r="P82" s="32">
-        <f t="shared" si="10"/>
-        <v>6.1400000000000014E-3</v>
-      </c>
-      <c r="R82" s="5">
-        <v>500</v>
-      </c>
-      <c r="S82" s="11">
-        <v>6.6400000000000018E-3</v>
-      </c>
-      <c r="V82" s="5">
-        <v>500</v>
-      </c>
-      <c r="W82" s="11">
-        <v>4.8400000000000023E-3</v>
-      </c>
-      <c r="Z82" s="5">
-        <v>500</v>
-      </c>
-      <c r="AA82" s="11">
-        <v>6.4400000000000013E-3</v>
-      </c>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="15"/>
+      <c r="F81" s="15"/>
+      <c r="P81" s="30"/>
+      <c r="Q81" s="5"/>
+      <c r="R81" s="5"/>
+      <c r="S81" s="15"/>
+      <c r="T81" s="5"/>
+      <c r="U81" s="5"/>
+      <c r="V81" s="5"/>
+      <c r="W81" s="15"/>
+      <c r="X81" s="5"/>
+      <c r="Y81" s="5"/>
+      <c r="Z81" s="5"/>
+      <c r="AA81" s="15"/>
+      <c r="AB81" s="5"/>
+      <c r="AC81" s="5"/>
+    </row>
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="15"/>
+      <c r="F82" s="15"/>
+      <c r="P82" s="30"/>
+      <c r="Q82" s="5"/>
+      <c r="R82" s="5"/>
+      <c r="S82" s="15"/>
+      <c r="T82" s="5"/>
+      <c r="U82" s="5"/>
+      <c r="V82" s="5"/>
+      <c r="W82" s="15"/>
+      <c r="X82" s="5"/>
+      <c r="Y82" s="5"/>
+      <c r="Z82" s="5"/>
+      <c r="AA82" s="15"/>
+      <c r="AB82" s="5"/>
+      <c r="AC82" s="5"/>
     </row>
     <row r="83" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C83" s="7"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="19"/>
-      <c r="F83" s="19"/>
-      <c r="P83" s="29"/>
-      <c r="Q83" s="20"/>
-      <c r="R83" s="7"/>
-      <c r="S83" s="19"/>
-      <c r="U83" s="20"/>
-      <c r="V83" s="7"/>
-      <c r="W83" s="19"/>
-      <c r="Y83" s="20"/>
-      <c r="Z83" s="7"/>
-      <c r="AA83" s="19"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="15"/>
+      <c r="F83" s="15"/>
+      <c r="P83" s="31"/>
+      <c r="Q83" s="5"/>
+      <c r="R83" s="5"/>
+      <c r="S83" s="15"/>
+      <c r="T83" s="5"/>
+      <c r="U83" s="5"/>
+      <c r="V83" s="5"/>
+      <c r="W83" s="15"/>
+      <c r="X83" s="5"/>
+      <c r="Y83" s="5"/>
+      <c r="Z83" s="5"/>
+      <c r="AA83" s="15"/>
+      <c r="AB83" s="5"/>
+      <c r="AC83" s="5"/>
     </row>
     <row r="84" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="19"/>
-      <c r="F84" s="19"/>
-      <c r="P84" s="29"/>
-      <c r="Q84" s="20"/>
-      <c r="R84" s="7"/>
-      <c r="S84" s="19"/>
-      <c r="U84" s="20"/>
-      <c r="V84" s="7"/>
-      <c r="W84" s="19"/>
-      <c r="Y84" s="20"/>
-      <c r="Z84" s="7"/>
-      <c r="AA84" s="19"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="15"/>
+      <c r="F84" s="15"/>
+      <c r="P84" s="31"/>
+      <c r="Q84" s="5"/>
+      <c r="R84" s="5"/>
+      <c r="S84" s="15"/>
+      <c r="T84" s="5"/>
+      <c r="U84" s="5"/>
+      <c r="V84" s="5"/>
+      <c r="W84" s="15"/>
+      <c r="X84" s="5"/>
+      <c r="Y84" s="5"/>
+      <c r="Z84" s="5"/>
+      <c r="AA84" s="15"/>
+      <c r="AB84" s="5"/>
+      <c r="AC84" s="5"/>
     </row>
     <row r="85" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C85" s="7"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="19"/>
-      <c r="F85" s="19"/>
-      <c r="P85" s="29"/>
-      <c r="Q85" s="20"/>
-      <c r="R85" s="7"/>
-      <c r="S85" s="19"/>
-      <c r="U85" s="20"/>
-      <c r="V85" s="7"/>
-      <c r="W85" s="19"/>
-      <c r="Y85" s="20"/>
-      <c r="Z85" s="7"/>
-      <c r="AA85" s="19"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="15"/>
+      <c r="F85" s="15"/>
+      <c r="P85" s="31"/>
+      <c r="Q85" s="5"/>
+      <c r="R85" s="5"/>
+      <c r="S85" s="15"/>
+      <c r="T85" s="5"/>
+      <c r="U85" s="5"/>
+      <c r="V85" s="5"/>
+      <c r="W85" s="15"/>
+      <c r="X85" s="5"/>
+      <c r="Y85" s="5"/>
+      <c r="Z85" s="5"/>
+      <c r="AA85" s="15"/>
+      <c r="AB85" s="5"/>
+      <c r="AC85" s="5"/>
     </row>
     <row r="86" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C86" s="7"/>
-      <c r="D86" s="7"/>
-      <c r="E86" s="19"/>
-      <c r="F86" s="19"/>
-      <c r="P86" s="29"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="15"/>
+      <c r="F86" s="15"/>
+      <c r="P86" s="31"/>
+      <c r="Q86" s="5"/>
+      <c r="R86" s="5"/>
+      <c r="S86" s="5"/>
+      <c r="T86" s="5"/>
+      <c r="U86" s="5"/>
+      <c r="V86" s="5"/>
+      <c r="W86" s="5"/>
+      <c r="X86" s="5"/>
+      <c r="Y86" s="5"/>
+      <c r="Z86" s="5"/>
+      <c r="AA86" s="5"/>
+      <c r="AB86" s="5"/>
+      <c r="AC86" s="5"/>
     </row>
     <row r="87" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="P87" s="29"/>
+      <c r="P87" s="31"/>
+      <c r="Q87" s="5"/>
+      <c r="R87" s="5"/>
+      <c r="S87" s="5"/>
+      <c r="T87" s="5"/>
+      <c r="U87" s="5"/>
+      <c r="V87" s="5"/>
+      <c r="W87" s="5"/>
+      <c r="X87" s="5"/>
+      <c r="Y87" s="5"/>
+      <c r="Z87" s="5"/>
+      <c r="AA87" s="5"/>
+      <c r="AB87" s="5"/>
+      <c r="AC87" s="5"/>
     </row>
     <row r="88" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="P88" s="29"/>
+      <c r="P88" s="31"/>
+      <c r="Q88" s="5"/>
+      <c r="R88" s="5"/>
+      <c r="S88" s="5"/>
+      <c r="T88" s="5"/>
+      <c r="U88" s="5"/>
+      <c r="V88" s="5"/>
+      <c r="W88" s="5"/>
+      <c r="X88" s="5"/>
+      <c r="Y88" s="5"/>
+      <c r="Z88" s="5"/>
+      <c r="AA88" s="5"/>
+      <c r="AB88" s="5"/>
+      <c r="AC88" s="5"/>
     </row>
     <row r="89" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="P89" s="29"/>
+      <c r="P89" s="23"/>
     </row>
     <row r="90" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="P90" s="29"/>
+      <c r="P90" s="23"/>
     </row>
     <row r="91" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="P91" s="29"/>
+      <c r="P91" s="23"/>
     </row>
     <row r="92" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C92" s="7"/>
-      <c r="D92" s="7"/>
-      <c r="E92" s="7"/>
-      <c r="F92" s="7"/>
-      <c r="G92" s="7"/>
-      <c r="H92" s="7"/>
-      <c r="I92" s="7"/>
-      <c r="J92" s="7"/>
-      <c r="K92" s="7"/>
-      <c r="L92" s="7"/>
-      <c r="M92" s="7"/>
-      <c r="N92" s="7"/>
-      <c r="O92" s="7"/>
-      <c r="P92" s="33"/>
-      <c r="Q92" s="7"/>
-      <c r="R92" s="7"/>
-      <c r="S92" s="7"/>
-      <c r="T92" s="7"/>
-      <c r="U92" s="7"/>
-      <c r="V92" s="7"/>
-      <c r="W92" s="7"/>
-      <c r="X92" s="7"/>
-      <c r="Y92" s="7"/>
-      <c r="Z92" s="7"/>
-      <c r="AA92" s="7"/>
-      <c r="AB92" s="7"/>
-      <c r="AC92" s="7"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="5"/>
+      <c r="I92" s="5"/>
+      <c r="J92" s="5"/>
+      <c r="K92" s="5"/>
+      <c r="L92" s="5"/>
+      <c r="M92" s="5"/>
+      <c r="N92" s="5"/>
+      <c r="O92" s="5"/>
+      <c r="P92" s="31"/>
+      <c r="Q92" s="5"/>
+      <c r="R92" s="5"/>
+      <c r="S92" s="5"/>
+      <c r="T92" s="5"/>
+      <c r="U92" s="5"/>
+      <c r="V92" s="5"/>
+      <c r="W92" s="5"/>
+      <c r="X92" s="5"/>
+      <c r="Y92" s="5"/>
+      <c r="Z92" s="5"/>
+      <c r="AA92" s="5"/>
+      <c r="AB92" s="5"/>
+      <c r="AC92" s="5"/>
     </row>
     <row r="93" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C93" s="7"/>
-      <c r="D93" s="19"/>
-      <c r="E93" s="7"/>
-      <c r="F93" s="7"/>
-      <c r="G93" s="7"/>
-      <c r="H93" s="7"/>
-      <c r="I93" s="7"/>
-      <c r="J93" s="7"/>
-      <c r="K93" s="7"/>
-      <c r="L93" s="7"/>
-      <c r="M93" s="7"/>
-      <c r="N93" s="7"/>
-      <c r="O93" s="7"/>
-      <c r="P93" s="33"/>
-      <c r="Q93" s="7"/>
-      <c r="R93" s="7"/>
-      <c r="S93" s="7"/>
-      <c r="T93" s="7"/>
-      <c r="U93" s="7"/>
-      <c r="V93" s="7"/>
-      <c r="W93" s="7"/>
-      <c r="X93" s="7"/>
-      <c r="Y93" s="7"/>
-      <c r="Z93" s="7"/>
-      <c r="AA93" s="7"/>
-      <c r="AB93" s="7"/>
-      <c r="AC93" s="7"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="15"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="5"/>
+      <c r="I93" s="5"/>
+      <c r="J93" s="5"/>
+      <c r="K93" s="5"/>
+      <c r="L93" s="5"/>
+      <c r="M93" s="5"/>
+      <c r="N93" s="5"/>
+      <c r="O93" s="5"/>
+      <c r="P93" s="31"/>
+      <c r="Q93" s="5"/>
+      <c r="R93" s="5"/>
+      <c r="S93" s="5"/>
+      <c r="T93" s="5"/>
+      <c r="U93" s="5"/>
+      <c r="V93" s="5"/>
+      <c r="W93" s="5"/>
+      <c r="X93" s="5"/>
+      <c r="Y93" s="5"/>
+      <c r="Z93" s="5"/>
+      <c r="AA93" s="5"/>
+      <c r="AB93" s="5"/>
+      <c r="AC93" s="5"/>
     </row>
     <row r="94" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C94" s="7"/>
-      <c r="D94" s="19"/>
-      <c r="E94" s="7"/>
-      <c r="F94" s="7"/>
-      <c r="G94" s="7"/>
-      <c r="H94" s="7"/>
-      <c r="I94" s="7"/>
-      <c r="J94" s="7"/>
-      <c r="K94" s="7"/>
-      <c r="L94" s="7"/>
-      <c r="M94" s="7"/>
-      <c r="N94" s="7"/>
-      <c r="O94" s="7"/>
-      <c r="P94" s="33"/>
-      <c r="Q94" s="7"/>
-      <c r="R94" s="7"/>
-      <c r="S94" s="7"/>
-      <c r="T94" s="7"/>
-      <c r="U94" s="7"/>
-      <c r="V94" s="7"/>
-      <c r="W94" s="7"/>
-      <c r="X94" s="7"/>
-      <c r="Y94" s="7"/>
-      <c r="Z94" s="7"/>
-      <c r="AA94" s="7"/>
-      <c r="AB94" s="7"/>
-      <c r="AC94" s="7"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="15"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5"/>
+      <c r="I94" s="5"/>
+      <c r="J94" s="5"/>
+      <c r="K94" s="5"/>
+      <c r="L94" s="5"/>
+      <c r="M94" s="5"/>
+      <c r="N94" s="5"/>
+      <c r="O94" s="5"/>
+      <c r="P94" s="31"/>
+      <c r="Q94" s="5"/>
+      <c r="R94" s="5"/>
+      <c r="S94" s="5"/>
+      <c r="T94" s="5"/>
+      <c r="U94" s="5"/>
+      <c r="V94" s="5"/>
+      <c r="W94" s="5"/>
+      <c r="X94" s="5"/>
+      <c r="Y94" s="5"/>
+      <c r="Z94" s="5"/>
+      <c r="AA94" s="5"/>
+      <c r="AB94" s="5"/>
+      <c r="AC94" s="5"/>
     </row>
     <row r="95" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C95" s="7"/>
-      <c r="D95" s="19"/>
-      <c r="E95" s="7"/>
-      <c r="F95" s="7"/>
-      <c r="G95" s="7"/>
-      <c r="H95" s="7"/>
-      <c r="I95" s="7"/>
-      <c r="J95" s="7"/>
-      <c r="K95" s="7"/>
-      <c r="L95" s="7"/>
-      <c r="M95" s="7"/>
-      <c r="N95" s="7"/>
-      <c r="O95" s="7"/>
-      <c r="P95" s="33"/>
-      <c r="Q95" s="7"/>
-      <c r="R95" s="7"/>
-      <c r="S95" s="7"/>
-      <c r="T95" s="7"/>
-      <c r="U95" s="7"/>
-      <c r="V95" s="7"/>
-      <c r="W95" s="7"/>
-      <c r="X95" s="7"/>
-      <c r="Y95" s="7"/>
-      <c r="Z95" s="7"/>
-      <c r="AA95" s="7"/>
-      <c r="AB95" s="7"/>
-      <c r="AC95" s="7"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="15"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5"/>
+      <c r="I95" s="5"/>
+      <c r="J95" s="5"/>
+      <c r="K95" s="5"/>
+      <c r="L95" s="5"/>
+      <c r="M95" s="5"/>
+      <c r="N95" s="5"/>
+      <c r="O95" s="5"/>
+      <c r="P95" s="31"/>
+      <c r="Q95" s="5"/>
+      <c r="R95" s="5"/>
+      <c r="S95" s="5"/>
+      <c r="T95" s="5"/>
+      <c r="U95" s="5"/>
+      <c r="V95" s="5"/>
+      <c r="W95" s="5"/>
+      <c r="X95" s="5"/>
+      <c r="Y95" s="5"/>
+      <c r="Z95" s="5"/>
+      <c r="AA95" s="5"/>
+      <c r="AB95" s="5"/>
+      <c r="AC95" s="5"/>
     </row>
     <row r="96" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C96" s="7"/>
-      <c r="D96" s="7"/>
-      <c r="E96" s="7"/>
-      <c r="F96" s="7"/>
-      <c r="G96" s="7"/>
-      <c r="H96" s="7"/>
-      <c r="I96" s="7"/>
-      <c r="J96" s="7"/>
-      <c r="K96" s="7"/>
-      <c r="L96" s="7"/>
-      <c r="M96" s="7"/>
-      <c r="N96" s="7"/>
-      <c r="O96" s="7"/>
-      <c r="P96" s="33"/>
-      <c r="Q96" s="7"/>
-      <c r="R96" s="7"/>
-      <c r="S96" s="7"/>
-      <c r="T96" s="7"/>
-      <c r="U96" s="7"/>
-      <c r="V96" s="7"/>
-      <c r="W96" s="7"/>
-      <c r="X96" s="7"/>
-      <c r="Y96" s="7"/>
-      <c r="Z96" s="7"/>
-      <c r="AA96" s="7"/>
-      <c r="AB96" s="7"/>
-      <c r="AC96" s="7"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="5"/>
+      <c r="I96" s="5"/>
+      <c r="J96" s="5"/>
+      <c r="K96" s="5"/>
+      <c r="L96" s="5"/>
+      <c r="M96" s="5"/>
+      <c r="N96" s="5"/>
+      <c r="O96" s="5"/>
+      <c r="P96" s="31"/>
+      <c r="Q96" s="5"/>
+      <c r="R96" s="5"/>
+      <c r="S96" s="5"/>
+      <c r="T96" s="5"/>
+      <c r="U96" s="5"/>
+      <c r="V96" s="5"/>
+      <c r="W96" s="5"/>
+      <c r="X96" s="5"/>
+      <c r="Y96" s="5"/>
+      <c r="Z96" s="5"/>
+      <c r="AA96" s="5"/>
+      <c r="AB96" s="5"/>
+      <c r="AC96" s="5"/>
     </row>
     <row r="97" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C97" s="7"/>
-      <c r="D97" s="7"/>
-      <c r="E97" s="7"/>
-      <c r="F97" s="7"/>
-      <c r="G97" s="7"/>
-      <c r="H97" s="7"/>
-      <c r="I97" s="7"/>
-      <c r="J97" s="7"/>
-      <c r="K97" s="7"/>
-      <c r="L97" s="7"/>
-      <c r="M97" s="7"/>
-      <c r="N97" s="7"/>
-      <c r="O97" s="7"/>
-      <c r="P97" s="33"/>
-      <c r="Q97" s="7"/>
-      <c r="R97" s="7"/>
-      <c r="S97" s="7"/>
-      <c r="T97" s="7"/>
-      <c r="U97" s="7"/>
-      <c r="V97" s="7"/>
-      <c r="W97" s="7"/>
-      <c r="X97" s="7"/>
-      <c r="Y97" s="7"/>
-      <c r="Z97" s="7"/>
-      <c r="AA97" s="7"/>
-      <c r="AB97" s="7"/>
-      <c r="AC97" s="7"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5"/>
+      <c r="I97" s="5"/>
+      <c r="J97" s="5"/>
+      <c r="K97" s="5"/>
+      <c r="L97" s="5"/>
+      <c r="M97" s="5"/>
+      <c r="N97" s="5"/>
+      <c r="O97" s="5"/>
+      <c r="P97" s="31"/>
+      <c r="Q97" s="5"/>
+      <c r="R97" s="5"/>
+      <c r="S97" s="5"/>
+      <c r="T97" s="5"/>
+      <c r="U97" s="5"/>
+      <c r="V97" s="5"/>
+      <c r="W97" s="5"/>
+      <c r="X97" s="5"/>
+      <c r="Y97" s="5"/>
+      <c r="Z97" s="5"/>
+      <c r="AA97" s="5"/>
+      <c r="AB97" s="5"/>
+      <c r="AC97" s="5"/>
     </row>
     <row r="98" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C98" s="7"/>
-      <c r="D98" s="7"/>
-      <c r="E98" s="7"/>
-      <c r="F98" s="7"/>
-      <c r="G98" s="7"/>
-      <c r="H98" s="7"/>
-      <c r="I98" s="7"/>
-      <c r="J98" s="7"/>
-      <c r="K98" s="7"/>
-      <c r="L98" s="7"/>
-      <c r="M98" s="7"/>
-      <c r="N98" s="7"/>
-      <c r="O98" s="7"/>
-      <c r="P98" s="33"/>
-      <c r="Q98" s="7"/>
-      <c r="R98" s="7"/>
-      <c r="S98" s="7"/>
-      <c r="T98" s="7"/>
-      <c r="U98" s="7"/>
-      <c r="V98" s="7"/>
-      <c r="W98" s="7"/>
-      <c r="X98" s="7"/>
-      <c r="Y98" s="7"/>
-      <c r="Z98" s="7"/>
-      <c r="AA98" s="7"/>
-      <c r="AB98" s="7"/>
-      <c r="AC98" s="7"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="5"/>
+      <c r="H98" s="5"/>
+      <c r="I98" s="5"/>
+      <c r="J98" s="5"/>
+      <c r="K98" s="5"/>
+      <c r="L98" s="5"/>
+      <c r="M98" s="5"/>
+      <c r="N98" s="5"/>
+      <c r="O98" s="5"/>
+      <c r="P98" s="31"/>
+      <c r="Q98" s="5"/>
+      <c r="R98" s="5"/>
+      <c r="S98" s="5"/>
+      <c r="T98" s="5"/>
+      <c r="U98" s="5"/>
+      <c r="V98" s="5"/>
+      <c r="W98" s="5"/>
+      <c r="X98" s="5"/>
+      <c r="Y98" s="5"/>
+      <c r="Z98" s="5"/>
+      <c r="AA98" s="5"/>
+      <c r="AB98" s="5"/>
+      <c r="AC98" s="5"/>
     </row>
     <row r="99" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C99" s="7"/>
-      <c r="D99" s="7"/>
-      <c r="E99" s="7"/>
-      <c r="F99" s="7"/>
-      <c r="G99" s="7"/>
-      <c r="H99" s="7"/>
-      <c r="I99" s="7"/>
-      <c r="J99" s="7"/>
-      <c r="K99" s="7"/>
-      <c r="L99" s="7"/>
-      <c r="M99" s="7"/>
-      <c r="N99" s="7"/>
-      <c r="O99" s="7"/>
-      <c r="P99" s="33"/>
-      <c r="Q99" s="7"/>
-      <c r="R99" s="7"/>
-      <c r="S99" s="7"/>
-      <c r="T99" s="7"/>
-      <c r="U99" s="7"/>
-      <c r="V99" s="7"/>
-      <c r="W99" s="7"/>
-      <c r="X99" s="7"/>
-      <c r="Y99" s="7"/>
-      <c r="Z99" s="7"/>
-      <c r="AA99" s="7"/>
-      <c r="AB99" s="7"/>
-      <c r="AC99" s="7"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="5"/>
+      <c r="H99" s="5"/>
+      <c r="I99" s="5"/>
+      <c r="J99" s="5"/>
+      <c r="K99" s="5"/>
+      <c r="L99" s="5"/>
+      <c r="M99" s="5"/>
+      <c r="N99" s="5"/>
+      <c r="O99" s="5"/>
+      <c r="P99" s="31"/>
+      <c r="Q99" s="5"/>
+      <c r="R99" s="5"/>
+      <c r="S99" s="5"/>
+      <c r="T99" s="5"/>
+      <c r="U99" s="5"/>
+      <c r="V99" s="5"/>
+      <c r="W99" s="5"/>
+      <c r="X99" s="5"/>
+      <c r="Y99" s="5"/>
+      <c r="Z99" s="5"/>
+      <c r="AA99" s="5"/>
+      <c r="AB99" s="5"/>
+      <c r="AC99" s="5"/>
     </row>
     <row r="100" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C100" s="7"/>
-      <c r="D100" s="7"/>
-      <c r="E100" s="7"/>
-      <c r="F100" s="7"/>
-      <c r="G100" s="7"/>
-      <c r="H100" s="7"/>
-      <c r="I100" s="7"/>
-      <c r="J100" s="7"/>
-      <c r="K100" s="7"/>
-      <c r="L100" s="7"/>
-      <c r="M100" s="7"/>
-      <c r="N100" s="7"/>
-      <c r="O100" s="7"/>
-      <c r="P100" s="33"/>
-      <c r="Q100" s="7"/>
-      <c r="R100" s="7"/>
-      <c r="S100" s="7"/>
-      <c r="T100" s="7"/>
-      <c r="U100" s="7"/>
-      <c r="V100" s="7"/>
-      <c r="W100" s="7"/>
-      <c r="X100" s="7"/>
-      <c r="Y100" s="7"/>
-      <c r="Z100" s="7"/>
-      <c r="AA100" s="7"/>
-      <c r="AB100" s="7"/>
-      <c r="AC100" s="7"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="5"/>
+      <c r="H100" s="5"/>
+      <c r="I100" s="5"/>
+      <c r="J100" s="5"/>
+      <c r="K100" s="5"/>
+      <c r="L100" s="5"/>
+      <c r="M100" s="5"/>
+      <c r="N100" s="5"/>
+      <c r="O100" s="5"/>
+      <c r="P100" s="31"/>
+      <c r="Q100" s="5"/>
+      <c r="R100" s="5"/>
+      <c r="S100" s="5"/>
+      <c r="T100" s="5"/>
+      <c r="U100" s="5"/>
+      <c r="V100" s="5"/>
+      <c r="W100" s="5"/>
+      <c r="X100" s="5"/>
+      <c r="Y100" s="5"/>
+      <c r="Z100" s="5"/>
+      <c r="AA100" s="5"/>
+      <c r="AB100" s="5"/>
+      <c r="AC100" s="5"/>
     </row>
     <row r="101" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C101" s="7"/>
-      <c r="D101" s="7"/>
-      <c r="E101" s="7"/>
-      <c r="F101" s="7"/>
-      <c r="G101" s="7"/>
-      <c r="H101" s="7"/>
-      <c r="I101" s="7"/>
-      <c r="J101" s="7"/>
-      <c r="K101" s="7"/>
-      <c r="L101" s="7"/>
-      <c r="M101" s="7"/>
-      <c r="N101" s="7"/>
-      <c r="O101" s="7"/>
-      <c r="P101" s="33"/>
-      <c r="Q101" s="7"/>
-      <c r="R101" s="7"/>
-      <c r="S101" s="7"/>
-      <c r="T101" s="7"/>
-      <c r="U101" s="7"/>
-      <c r="V101" s="7"/>
-      <c r="W101" s="7"/>
-      <c r="X101" s="7"/>
-      <c r="Y101" s="7"/>
-      <c r="Z101" s="7"/>
-      <c r="AA101" s="7"/>
-      <c r="AB101" s="7"/>
-      <c r="AC101" s="7"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="5"/>
+      <c r="H101" s="5"/>
+      <c r="I101" s="5"/>
+      <c r="J101" s="5"/>
+      <c r="K101" s="5"/>
+      <c r="L101" s="5"/>
+      <c r="M101" s="5"/>
+      <c r="N101" s="5"/>
+      <c r="O101" s="5"/>
+      <c r="P101" s="31"/>
+      <c r="Q101" s="5"/>
+      <c r="R101" s="5"/>
+      <c r="S101" s="5"/>
+      <c r="T101" s="5"/>
+      <c r="U101" s="5"/>
+      <c r="V101" s="5"/>
+      <c r="W101" s="5"/>
+      <c r="X101" s="5"/>
+      <c r="Y101" s="5"/>
+      <c r="Z101" s="5"/>
+      <c r="AA101" s="5"/>
+      <c r="AB101" s="5"/>
+      <c r="AC101" s="5"/>
     </row>
     <row r="102" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C102" s="7"/>
-      <c r="D102" s="7"/>
-      <c r="E102" s="7"/>
-      <c r="F102" s="7"/>
-      <c r="G102" s="7"/>
-      <c r="H102" s="7"/>
-      <c r="I102" s="7"/>
-      <c r="J102" s="7"/>
-      <c r="K102" s="7"/>
-      <c r="L102" s="7"/>
-      <c r="M102" s="7"/>
-      <c r="N102" s="7"/>
-      <c r="O102" s="7"/>
-      <c r="P102" s="33"/>
-      <c r="Q102" s="7"/>
-      <c r="R102" s="7"/>
-      <c r="S102" s="7"/>
-      <c r="T102" s="7"/>
-      <c r="U102" s="7"/>
-      <c r="V102" s="7"/>
-      <c r="W102" s="7"/>
-      <c r="X102" s="7"/>
-      <c r="Y102" s="7"/>
-      <c r="Z102" s="7"/>
-      <c r="AA102" s="7"/>
-      <c r="AB102" s="7"/>
-      <c r="AC102" s="7"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="5"/>
+      <c r="I102" s="5"/>
+      <c r="J102" s="5"/>
+      <c r="K102" s="5"/>
+      <c r="L102" s="5"/>
+      <c r="M102" s="5"/>
+      <c r="N102" s="5"/>
+      <c r="O102" s="5"/>
+      <c r="P102" s="31"/>
+      <c r="Q102" s="5"/>
+      <c r="R102" s="5"/>
+      <c r="S102" s="5"/>
+      <c r="T102" s="5"/>
+      <c r="U102" s="5"/>
+      <c r="V102" s="5"/>
+      <c r="W102" s="5"/>
+      <c r="X102" s="5"/>
+      <c r="Y102" s="5"/>
+      <c r="Z102" s="5"/>
+      <c r="AA102" s="5"/>
+      <c r="AB102" s="5"/>
+      <c r="AC102" s="5"/>
     </row>
     <row r="103" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C103" s="7"/>
-      <c r="D103" s="7"/>
-      <c r="E103" s="7"/>
-      <c r="F103" s="7"/>
-      <c r="G103" s="7"/>
-      <c r="H103" s="7"/>
-      <c r="I103" s="7"/>
-      <c r="J103" s="7"/>
-      <c r="K103" s="7"/>
-      <c r="L103" s="7"/>
-      <c r="M103" s="7"/>
-      <c r="N103" s="7"/>
-      <c r="O103" s="7"/>
-      <c r="P103" s="33"/>
-      <c r="Q103" s="7"/>
-      <c r="R103" s="7"/>
-      <c r="S103" s="7"/>
-      <c r="T103" s="7"/>
-      <c r="U103" s="7"/>
-      <c r="V103" s="7"/>
-      <c r="W103" s="7"/>
-      <c r="X103" s="7"/>
-      <c r="Y103" s="7"/>
-      <c r="Z103" s="7"/>
-      <c r="AA103" s="7"/>
-      <c r="AB103" s="7"/>
-      <c r="AC103" s="7"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="5"/>
+      <c r="I103" s="5"/>
+      <c r="J103" s="5"/>
+      <c r="K103" s="5"/>
+      <c r="L103" s="5"/>
+      <c r="M103" s="5"/>
+      <c r="N103" s="5"/>
+      <c r="O103" s="5"/>
+      <c r="P103" s="31"/>
+      <c r="Q103" s="5"/>
+      <c r="R103" s="5"/>
+      <c r="S103" s="5"/>
+      <c r="T103" s="5"/>
+      <c r="U103" s="5"/>
+      <c r="V103" s="5"/>
+      <c r="W103" s="5"/>
+      <c r="X103" s="5"/>
+      <c r="Y103" s="5"/>
+      <c r="Z103" s="5"/>
+      <c r="AA103" s="5"/>
+      <c r="AB103" s="5"/>
+      <c r="AC103" s="5"/>
     </row>
     <row r="104" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C104" s="16"/>
-      <c r="D104" s="17"/>
-      <c r="E104" s="17"/>
-      <c r="F104" s="16"/>
-      <c r="G104" s="17"/>
-      <c r="H104" s="7"/>
-      <c r="I104" s="7"/>
-      <c r="J104" s="7"/>
-      <c r="K104" s="7"/>
-      <c r="L104" s="7"/>
-      <c r="M104" s="7"/>
-      <c r="N104" s="7"/>
-      <c r="O104" s="7"/>
-      <c r="P104" s="34"/>
-      <c r="Q104" s="17"/>
-      <c r="R104" s="17"/>
-      <c r="S104" s="7"/>
-      <c r="T104" s="7"/>
-      <c r="U104" s="16"/>
-      <c r="V104" s="17"/>
-      <c r="W104" s="17"/>
-      <c r="X104" s="7"/>
-      <c r="Y104" s="7"/>
-      <c r="Z104" s="16"/>
-      <c r="AA104" s="17"/>
-      <c r="AB104" s="17"/>
-      <c r="AC104" s="7"/>
+      <c r="C104" s="12"/>
+      <c r="D104" s="13"/>
+      <c r="E104" s="13"/>
+      <c r="F104" s="12"/>
+      <c r="G104" s="13"/>
+      <c r="H104" s="5"/>
+      <c r="I104" s="5"/>
+      <c r="J104" s="5"/>
+      <c r="K104" s="5"/>
+      <c r="L104" s="5"/>
+      <c r="M104" s="5"/>
+      <c r="N104" s="5"/>
+      <c r="O104" s="5"/>
+      <c r="P104" s="32"/>
+      <c r="Q104" s="13"/>
+      <c r="R104" s="13"/>
+      <c r="S104" s="5"/>
+      <c r="T104" s="5"/>
+      <c r="U104" s="12"/>
+      <c r="V104" s="13"/>
+      <c r="W104" s="13"/>
+      <c r="X104" s="5"/>
+      <c r="Y104" s="5"/>
+      <c r="Z104" s="12"/>
+      <c r="AA104" s="13"/>
+      <c r="AB104" s="13"/>
+      <c r="AC104" s="5"/>
     </row>
     <row r="105" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C105" s="18"/>
-      <c r="D105" s="7"/>
-      <c r="E105" s="19"/>
-      <c r="F105" s="18"/>
-      <c r="G105" s="7"/>
-      <c r="H105" s="7"/>
-      <c r="I105" s="7"/>
-      <c r="J105" s="7"/>
-      <c r="K105" s="7"/>
-      <c r="L105" s="7"/>
-      <c r="M105" s="7"/>
-      <c r="N105" s="7"/>
-      <c r="O105" s="7"/>
-      <c r="P105" s="35"/>
-      <c r="Q105" s="7"/>
-      <c r="R105" s="19"/>
-      <c r="S105" s="7"/>
-      <c r="T105" s="7"/>
-      <c r="U105" s="18"/>
-      <c r="V105" s="7"/>
-      <c r="W105" s="19"/>
-      <c r="X105" s="7"/>
-      <c r="Y105" s="7"/>
-      <c r="Z105" s="18"/>
-      <c r="AA105" s="7"/>
-      <c r="AB105" s="19"/>
-      <c r="AC105" s="7"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="15"/>
+      <c r="F105" s="14"/>
+      <c r="G105" s="5"/>
+      <c r="H105" s="5"/>
+      <c r="I105" s="5"/>
+      <c r="J105" s="5"/>
+      <c r="K105" s="5"/>
+      <c r="L105" s="5"/>
+      <c r="M105" s="5"/>
+      <c r="N105" s="5"/>
+      <c r="O105" s="5"/>
+      <c r="P105" s="33"/>
+      <c r="Q105" s="5"/>
+      <c r="R105" s="15"/>
+      <c r="S105" s="5"/>
+      <c r="T105" s="5"/>
+      <c r="U105" s="14"/>
+      <c r="V105" s="5"/>
+      <c r="W105" s="15"/>
+      <c r="X105" s="5"/>
+      <c r="Y105" s="5"/>
+      <c r="Z105" s="14"/>
+      <c r="AA105" s="5"/>
+      <c r="AB105" s="15"/>
+      <c r="AC105" s="5"/>
     </row>
     <row r="106" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C106" s="7"/>
-      <c r="D106" s="7"/>
-      <c r="E106" s="19"/>
-      <c r="F106" s="7"/>
-      <c r="G106" s="7"/>
-      <c r="H106" s="7"/>
-      <c r="I106" s="7"/>
-      <c r="J106" s="7"/>
-      <c r="K106" s="7"/>
-      <c r="L106" s="7"/>
-      <c r="M106" s="7"/>
-      <c r="N106" s="7"/>
-      <c r="O106" s="7"/>
-      <c r="P106" s="33"/>
-      <c r="Q106" s="7"/>
-      <c r="R106" s="19"/>
-      <c r="S106" s="7"/>
-      <c r="T106" s="7"/>
-      <c r="U106" s="7"/>
-      <c r="V106" s="7"/>
-      <c r="W106" s="19"/>
-      <c r="X106" s="7"/>
-      <c r="Y106" s="7"/>
-      <c r="Z106" s="7"/>
-      <c r="AA106" s="7"/>
-      <c r="AB106" s="19"/>
-      <c r="AC106" s="7"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="15"/>
+      <c r="F106" s="5"/>
+      <c r="G106" s="5"/>
+      <c r="H106" s="5"/>
+      <c r="I106" s="5"/>
+      <c r="J106" s="5"/>
+      <c r="K106" s="5"/>
+      <c r="L106" s="5"/>
+      <c r="M106" s="5"/>
+      <c r="N106" s="5"/>
+      <c r="O106" s="5"/>
+      <c r="P106" s="31"/>
+      <c r="Q106" s="5"/>
+      <c r="R106" s="15"/>
+      <c r="S106" s="5"/>
+      <c r="T106" s="5"/>
+      <c r="U106" s="5"/>
+      <c r="V106" s="5"/>
+      <c r="W106" s="15"/>
+      <c r="X106" s="5"/>
+      <c r="Y106" s="5"/>
+      <c r="Z106" s="5"/>
+      <c r="AA106" s="5"/>
+      <c r="AB106" s="15"/>
+      <c r="AC106" s="5"/>
     </row>
     <row r="107" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C107" s="7"/>
-      <c r="D107" s="7"/>
-      <c r="E107" s="19"/>
-      <c r="F107" s="7"/>
-      <c r="G107" s="7"/>
-      <c r="H107" s="7"/>
-      <c r="I107" s="7"/>
-      <c r="J107" s="7"/>
-      <c r="K107" s="7"/>
-      <c r="L107" s="7"/>
-      <c r="M107" s="7"/>
-      <c r="N107" s="7"/>
-      <c r="O107" s="7"/>
-      <c r="P107" s="33"/>
-      <c r="Q107" s="7"/>
-      <c r="R107" s="19"/>
-      <c r="S107" s="7"/>
-      <c r="T107" s="7"/>
-      <c r="U107" s="7"/>
-      <c r="V107" s="7"/>
-      <c r="W107" s="19"/>
-      <c r="X107" s="7"/>
-      <c r="Y107" s="7"/>
-      <c r="Z107" s="7"/>
-      <c r="AA107" s="7"/>
-      <c r="AB107" s="19"/>
-      <c r="AC107" s="7"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="15"/>
+      <c r="F107" s="5"/>
+      <c r="G107" s="5"/>
+      <c r="H107" s="5"/>
+      <c r="I107" s="5"/>
+      <c r="J107" s="5"/>
+      <c r="K107" s="5"/>
+      <c r="L107" s="5"/>
+      <c r="M107" s="5"/>
+      <c r="N107" s="5"/>
+      <c r="O107" s="5"/>
+      <c r="P107" s="31"/>
+      <c r="Q107" s="5"/>
+      <c r="R107" s="15"/>
+      <c r="S107" s="5"/>
+      <c r="T107" s="5"/>
+      <c r="U107" s="5"/>
+      <c r="V107" s="5"/>
+      <c r="W107" s="15"/>
+      <c r="X107" s="5"/>
+      <c r="Y107" s="5"/>
+      <c r="Z107" s="5"/>
+      <c r="AA107" s="5"/>
+      <c r="AB107" s="15"/>
+      <c r="AC107" s="5"/>
     </row>
     <row r="108" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C108" s="7"/>
-      <c r="D108" s="7"/>
-      <c r="E108" s="19"/>
-      <c r="F108" s="7"/>
-      <c r="G108" s="7"/>
-      <c r="H108" s="7"/>
-      <c r="I108" s="7"/>
-      <c r="J108" s="7"/>
-      <c r="K108" s="7"/>
-      <c r="L108" s="7"/>
-      <c r="M108" s="7"/>
-      <c r="N108" s="7"/>
-      <c r="O108" s="7"/>
-      <c r="P108" s="33"/>
-      <c r="Q108" s="7"/>
-      <c r="R108" s="19"/>
-      <c r="S108" s="7"/>
-      <c r="T108" s="7"/>
-      <c r="U108" s="7"/>
-      <c r="V108" s="7"/>
-      <c r="W108" s="19"/>
-      <c r="X108" s="7"/>
-      <c r="Y108" s="7"/>
-      <c r="Z108" s="7"/>
-      <c r="AA108" s="7"/>
-      <c r="AB108" s="19"/>
-      <c r="AC108" s="7"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="15"/>
+      <c r="F108" s="5"/>
+      <c r="G108" s="5"/>
+      <c r="H108" s="5"/>
+      <c r="I108" s="5"/>
+      <c r="J108" s="5"/>
+      <c r="K108" s="5"/>
+      <c r="L108" s="5"/>
+      <c r="M108" s="5"/>
+      <c r="N108" s="5"/>
+      <c r="O108" s="5"/>
+      <c r="P108" s="31"/>
+      <c r="Q108" s="5"/>
+      <c r="R108" s="15"/>
+      <c r="S108" s="5"/>
+      <c r="T108" s="5"/>
+      <c r="U108" s="5"/>
+      <c r="V108" s="5"/>
+      <c r="W108" s="15"/>
+      <c r="X108" s="5"/>
+      <c r="Y108" s="5"/>
+      <c r="Z108" s="5"/>
+      <c r="AA108" s="5"/>
+      <c r="AB108" s="15"/>
+      <c r="AC108" s="5"/>
     </row>
     <row r="109" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C109" s="7"/>
-      <c r="D109" s="7"/>
-      <c r="E109" s="19"/>
-      <c r="F109" s="7"/>
-      <c r="G109" s="7"/>
-      <c r="H109" s="7"/>
-      <c r="I109" s="7"/>
-      <c r="J109" s="7"/>
-      <c r="K109" s="7"/>
-      <c r="L109" s="7"/>
-      <c r="M109" s="7"/>
-      <c r="N109" s="7"/>
-      <c r="O109" s="7"/>
-      <c r="P109" s="7"/>
-      <c r="Q109" s="7"/>
-      <c r="R109" s="19"/>
-      <c r="S109" s="7"/>
-      <c r="T109" s="7"/>
-      <c r="U109" s="7"/>
-      <c r="V109" s="7"/>
-      <c r="W109" s="19"/>
-      <c r="X109" s="7"/>
-      <c r="Y109" s="7"/>
-      <c r="Z109" s="7"/>
-      <c r="AA109" s="7"/>
-      <c r="AB109" s="19"/>
-      <c r="AC109" s="7"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="15"/>
+      <c r="F109" s="5"/>
+      <c r="G109" s="5"/>
+      <c r="H109" s="5"/>
+      <c r="I109" s="5"/>
+      <c r="J109" s="5"/>
+      <c r="K109" s="5"/>
+      <c r="L109" s="5"/>
+      <c r="M109" s="5"/>
+      <c r="N109" s="5"/>
+      <c r="O109" s="5"/>
+      <c r="P109" s="31"/>
+      <c r="Q109" s="5"/>
+      <c r="R109" s="15"/>
+      <c r="S109" s="5"/>
+      <c r="T109" s="5"/>
+      <c r="U109" s="5"/>
+      <c r="V109" s="5"/>
+      <c r="W109" s="15"/>
+      <c r="X109" s="5"/>
+      <c r="Y109" s="5"/>
+      <c r="Z109" s="5"/>
+      <c r="AA109" s="5"/>
+      <c r="AB109" s="15"/>
+      <c r="AC109" s="5"/>
     </row>
     <row r="110" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C110" s="7"/>
-      <c r="D110" s="7"/>
-      <c r="E110" s="19"/>
-      <c r="F110" s="7"/>
-      <c r="G110" s="7"/>
-      <c r="H110" s="7"/>
-      <c r="I110" s="7"/>
-      <c r="J110" s="7"/>
-      <c r="K110" s="7"/>
-      <c r="L110" s="7"/>
-      <c r="M110" s="7"/>
-      <c r="N110" s="7"/>
-      <c r="O110" s="7"/>
-      <c r="P110" s="7"/>
-      <c r="Q110" s="7"/>
-      <c r="R110" s="19"/>
-      <c r="S110" s="7"/>
-      <c r="T110" s="7"/>
-      <c r="U110" s="7"/>
-      <c r="V110" s="7"/>
-      <c r="W110" s="19"/>
-      <c r="X110" s="7"/>
-      <c r="Y110" s="7"/>
-      <c r="Z110" s="7"/>
-      <c r="AA110" s="7"/>
-      <c r="AB110" s="19"/>
-      <c r="AC110" s="7"/>
+      <c r="C110" s="5"/>
+      <c r="D110" s="5"/>
+      <c r="E110" s="15"/>
+      <c r="F110" s="5"/>
+      <c r="G110" s="5"/>
+      <c r="H110" s="5"/>
+      <c r="I110" s="5"/>
+      <c r="J110" s="5"/>
+      <c r="K110" s="5"/>
+      <c r="L110" s="5"/>
+      <c r="M110" s="5"/>
+      <c r="N110" s="5"/>
+      <c r="O110" s="5"/>
+      <c r="P110" s="31"/>
+      <c r="Q110" s="5"/>
+      <c r="R110" s="15"/>
+      <c r="S110" s="5"/>
+      <c r="T110" s="5"/>
+      <c r="U110" s="5"/>
+      <c r="V110" s="5"/>
+      <c r="W110" s="15"/>
+      <c r="X110" s="5"/>
+      <c r="Y110" s="5"/>
+      <c r="Z110" s="5"/>
+      <c r="AA110" s="5"/>
+      <c r="AB110" s="15"/>
+      <c r="AC110" s="5"/>
     </row>
     <row r="111" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C111" s="7"/>
-      <c r="D111" s="7"/>
-      <c r="E111" s="19"/>
-      <c r="F111" s="7"/>
-      <c r="G111" s="7"/>
-      <c r="H111" s="7"/>
-      <c r="I111" s="7"/>
-      <c r="J111" s="7"/>
-      <c r="K111" s="7"/>
-      <c r="L111" s="7"/>
-      <c r="M111" s="7"/>
-      <c r="N111" s="7"/>
-      <c r="O111" s="7"/>
-      <c r="P111" s="7"/>
-      <c r="Q111" s="7"/>
-      <c r="R111" s="19"/>
-      <c r="S111" s="7"/>
-      <c r="T111" s="7"/>
-      <c r="U111" s="7"/>
-      <c r="V111" s="7"/>
-      <c r="W111" s="19"/>
-      <c r="X111" s="7"/>
-      <c r="Y111" s="7"/>
-      <c r="Z111" s="7"/>
-      <c r="AA111" s="7"/>
-      <c r="AB111" s="19"/>
-      <c r="AC111" s="7"/>
+      <c r="C111" s="5"/>
+      <c r="D111" s="5"/>
+      <c r="E111" s="15"/>
+      <c r="F111" s="5"/>
+      <c r="G111" s="5"/>
+      <c r="H111" s="5"/>
+      <c r="I111" s="5"/>
+      <c r="J111" s="5"/>
+      <c r="K111" s="5"/>
+      <c r="L111" s="5"/>
+      <c r="M111" s="5"/>
+      <c r="N111" s="5"/>
+      <c r="O111" s="5"/>
+      <c r="P111" s="31"/>
+      <c r="Q111" s="5"/>
+      <c r="R111" s="15"/>
+      <c r="S111" s="5"/>
+      <c r="T111" s="5"/>
+      <c r="U111" s="5"/>
+      <c r="V111" s="5"/>
+      <c r="W111" s="15"/>
+      <c r="X111" s="5"/>
+      <c r="Y111" s="5"/>
+      <c r="Z111" s="5"/>
+      <c r="AA111" s="5"/>
+      <c r="AB111" s="15"/>
+      <c r="AC111" s="5"/>
     </row>
     <row r="112" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C112" s="7"/>
-      <c r="D112" s="7"/>
-      <c r="E112" s="19"/>
-      <c r="F112" s="7"/>
-      <c r="G112" s="7"/>
-      <c r="H112" s="7"/>
-      <c r="I112" s="7"/>
-      <c r="J112" s="7"/>
-      <c r="K112" s="7"/>
-      <c r="L112" s="7"/>
-      <c r="M112" s="7"/>
-      <c r="N112" s="7"/>
-      <c r="O112" s="7"/>
-      <c r="P112" s="7"/>
-      <c r="Q112" s="7"/>
-      <c r="R112" s="19"/>
-      <c r="S112" s="7"/>
-      <c r="T112" s="7"/>
-      <c r="U112" s="7"/>
-      <c r="V112" s="7"/>
-      <c r="W112" s="19"/>
-      <c r="X112" s="7"/>
-      <c r="Y112" s="7"/>
-      <c r="Z112" s="7"/>
-      <c r="AA112" s="7"/>
-      <c r="AB112" s="19"/>
-      <c r="AC112" s="7"/>
+      <c r="C112" s="5"/>
+      <c r="D112" s="5"/>
+      <c r="E112" s="15"/>
+      <c r="F112" s="5"/>
+      <c r="G112" s="5"/>
+      <c r="H112" s="5"/>
+      <c r="I112" s="5"/>
+      <c r="J112" s="5"/>
+      <c r="K112" s="5"/>
+      <c r="L112" s="5"/>
+      <c r="M112" s="5"/>
+      <c r="N112" s="5"/>
+      <c r="O112" s="5"/>
+      <c r="P112" s="5"/>
+      <c r="Q112" s="5"/>
+      <c r="R112" s="15"/>
+      <c r="S112" s="5"/>
+      <c r="T112" s="5"/>
+      <c r="U112" s="5"/>
+      <c r="V112" s="5"/>
+      <c r="W112" s="15"/>
+      <c r="X112" s="5"/>
+      <c r="Y112" s="5"/>
+      <c r="Z112" s="5"/>
+      <c r="AA112" s="5"/>
+      <c r="AB112" s="15"/>
+      <c r="AC112" s="5"/>
     </row>
     <row r="113" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="C113" s="7"/>
-      <c r="D113" s="7"/>
-      <c r="E113" s="19"/>
-      <c r="F113" s="7"/>
-      <c r="G113" s="7"/>
-      <c r="H113" s="7"/>
-      <c r="I113" s="7"/>
-      <c r="J113" s="7"/>
-      <c r="K113" s="7"/>
-      <c r="L113" s="7"/>
-      <c r="M113" s="7"/>
-      <c r="N113" s="7"/>
-      <c r="O113" s="7"/>
-      <c r="P113" s="7"/>
-      <c r="Q113" s="7"/>
-      <c r="R113" s="7"/>
-      <c r="S113" s="7"/>
-      <c r="T113" s="7"/>
-      <c r="U113" s="7"/>
-      <c r="V113" s="7"/>
-      <c r="W113" s="7"/>
-      <c r="X113" s="7"/>
-      <c r="Y113" s="7"/>
-      <c r="Z113" s="7"/>
-      <c r="AA113" s="7"/>
-      <c r="AB113" s="7"/>
-      <c r="AC113" s="7"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="15"/>
+      <c r="F113" s="5"/>
+      <c r="G113" s="5"/>
+      <c r="H113" s="5"/>
+      <c r="I113" s="5"/>
+      <c r="J113" s="5"/>
+      <c r="K113" s="5"/>
+      <c r="L113" s="5"/>
+      <c r="M113" s="5"/>
+      <c r="N113" s="5"/>
+      <c r="O113" s="5"/>
+      <c r="P113" s="5"/>
+      <c r="Q113" s="5"/>
+      <c r="R113" s="5"/>
+      <c r="S113" s="5"/>
+      <c r="T113" s="5"/>
+      <c r="U113" s="5"/>
+      <c r="V113" s="5"/>
+      <c r="W113" s="5"/>
+      <c r="X113" s="5"/>
+      <c r="Y113" s="5"/>
+      <c r="Z113" s="5"/>
+      <c r="AA113" s="5"/>
+      <c r="AB113" s="5"/>
+      <c r="AC113" s="5"/>
     </row>
     <row r="114" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B114" s="7"/>
-      <c r="C114" s="16"/>
-      <c r="D114" s="17"/>
-      <c r="E114" s="17"/>
-      <c r="F114" s="16"/>
-      <c r="G114" s="17"/>
-      <c r="H114" s="7"/>
-      <c r="I114" s="7"/>
-      <c r="J114" s="7"/>
-      <c r="K114" s="7"/>
-      <c r="L114" s="7"/>
-      <c r="M114" s="7"/>
-      <c r="N114" s="7"/>
-      <c r="O114" s="7"/>
-      <c r="P114" s="7"/>
-      <c r="Q114" s="7"/>
-      <c r="R114" s="7"/>
-      <c r="S114" s="7"/>
-      <c r="T114" s="7"/>
-      <c r="U114" s="7"/>
-      <c r="V114" s="7"/>
-      <c r="W114" s="7"/>
-      <c r="X114" s="7"/>
-      <c r="Y114" s="7"/>
-      <c r="Z114" s="7"/>
-      <c r="AA114" s="7"/>
-      <c r="AB114" s="7"/>
-      <c r="AC114" s="7"/>
+      <c r="B114" s="5"/>
+      <c r="C114" s="12"/>
+      <c r="D114" s="13"/>
+      <c r="E114" s="13"/>
+      <c r="F114" s="12"/>
+      <c r="G114" s="13"/>
+      <c r="H114" s="5"/>
+      <c r="I114" s="5"/>
+      <c r="J114" s="5"/>
+      <c r="K114" s="5"/>
+      <c r="L114" s="5"/>
+      <c r="M114" s="5"/>
+      <c r="N114" s="5"/>
+      <c r="O114" s="5"/>
+      <c r="P114" s="5"/>
+      <c r="Q114" s="5"/>
+      <c r="R114" s="5"/>
+      <c r="S114" s="5"/>
+      <c r="T114" s="5"/>
+      <c r="U114" s="5"/>
+      <c r="V114" s="5"/>
+      <c r="W114" s="5"/>
+      <c r="X114" s="5"/>
+      <c r="Y114" s="5"/>
+      <c r="Z114" s="5"/>
+      <c r="AA114" s="5"/>
+      <c r="AB114" s="5"/>
+      <c r="AC114" s="5"/>
     </row>
     <row r="115" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B115" s="7"/>
-      <c r="C115" s="18"/>
-      <c r="D115" s="7"/>
-      <c r="E115" s="19"/>
-      <c r="F115" s="18"/>
-      <c r="G115" s="7"/>
-      <c r="H115" s="7"/>
-      <c r="I115" s="7"/>
-      <c r="J115" s="7"/>
-      <c r="K115" s="7"/>
-      <c r="L115" s="7"/>
-      <c r="M115" s="7"/>
-      <c r="N115" s="7"/>
-      <c r="O115" s="7"/>
-      <c r="P115" s="7"/>
-      <c r="Q115" s="7"/>
-      <c r="R115" s="7"/>
-      <c r="S115" s="7"/>
-      <c r="T115" s="7"/>
-      <c r="U115" s="7"/>
-      <c r="V115" s="7"/>
-      <c r="W115" s="7"/>
-      <c r="X115" s="7"/>
-      <c r="Y115" s="7"/>
-      <c r="Z115" s="7"/>
-      <c r="AA115" s="7"/>
-      <c r="AB115" s="7"/>
-      <c r="AC115" s="7"/>
+      <c r="B115" s="5"/>
+      <c r="C115" s="14"/>
+      <c r="D115" s="5"/>
+      <c r="E115" s="15"/>
+      <c r="F115" s="14"/>
+      <c r="G115" s="5"/>
+      <c r="H115" s="5"/>
+      <c r="I115" s="5"/>
+      <c r="J115" s="5"/>
+      <c r="K115" s="5"/>
+      <c r="L115" s="5"/>
+      <c r="M115" s="5"/>
+      <c r="N115" s="5"/>
+      <c r="O115" s="5"/>
+      <c r="P115" s="5"/>
+      <c r="Q115" s="5"/>
+      <c r="R115" s="5"/>
+      <c r="S115" s="5"/>
+      <c r="T115" s="5"/>
+      <c r="U115" s="5"/>
+      <c r="V115" s="5"/>
+      <c r="W115" s="5"/>
+      <c r="X115" s="5"/>
+      <c r="Y115" s="5"/>
+      <c r="Z115" s="5"/>
+      <c r="AA115" s="5"/>
+      <c r="AB115" s="5"/>
+      <c r="AC115" s="5"/>
     </row>
     <row r="116" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B116" s="7"/>
-      <c r="C116" s="7"/>
-      <c r="D116" s="7"/>
-      <c r="E116" s="19"/>
-      <c r="F116" s="7"/>
-      <c r="G116" s="7"/>
-      <c r="H116" s="7"/>
-      <c r="I116" s="7"/>
-      <c r="J116" s="7"/>
-      <c r="K116" s="7"/>
-      <c r="L116" s="7"/>
-      <c r="M116" s="7"/>
-      <c r="N116" s="7"/>
-      <c r="O116" s="7"/>
-      <c r="P116" s="7"/>
-      <c r="Q116" s="7"/>
-      <c r="R116" s="7"/>
-      <c r="S116" s="7"/>
-      <c r="T116" s="7"/>
-      <c r="U116" s="7"/>
-      <c r="V116" s="7"/>
-      <c r="W116" s="7"/>
-      <c r="X116" s="7"/>
-      <c r="Y116" s="7"/>
-      <c r="Z116" s="7"/>
-      <c r="AA116" s="7"/>
-      <c r="AB116" s="7"/>
-      <c r="AC116" s="7"/>
+      <c r="B116" s="5"/>
+      <c r="C116" s="5"/>
+      <c r="D116" s="5"/>
+      <c r="E116" s="15"/>
+      <c r="F116" s="5"/>
+      <c r="G116" s="5"/>
+      <c r="H116" s="5"/>
+      <c r="I116" s="5"/>
+      <c r="J116" s="5"/>
+      <c r="K116" s="5"/>
+      <c r="L116" s="5"/>
+      <c r="M116" s="5"/>
+      <c r="N116" s="5"/>
+      <c r="O116" s="5"/>
+      <c r="P116" s="5"/>
+      <c r="Q116" s="5"/>
+      <c r="R116" s="5"/>
+      <c r="S116" s="5"/>
+      <c r="T116" s="5"/>
+      <c r="U116" s="5"/>
+      <c r="V116" s="5"/>
+      <c r="W116" s="5"/>
+      <c r="X116" s="5"/>
+      <c r="Y116" s="5"/>
+      <c r="Z116" s="5"/>
+      <c r="AA116" s="5"/>
+      <c r="AB116" s="5"/>
+      <c r="AC116" s="5"/>
     </row>
     <row r="117" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B117" s="7"/>
-      <c r="C117" s="7"/>
-      <c r="D117" s="7"/>
-      <c r="E117" s="19"/>
-      <c r="F117" s="7"/>
-      <c r="G117" s="7"/>
-      <c r="H117" s="7"/>
-      <c r="I117" s="7"/>
-      <c r="J117" s="7"/>
-      <c r="K117" s="7"/>
-      <c r="L117" s="7"/>
-      <c r="M117" s="7"/>
-      <c r="N117" s="7"/>
-      <c r="O117" s="7"/>
-      <c r="P117" s="7"/>
-      <c r="Q117" s="7"/>
-      <c r="R117" s="7"/>
-      <c r="S117" s="7"/>
-      <c r="T117" s="7"/>
-      <c r="U117" s="7"/>
-      <c r="V117" s="7"/>
-      <c r="W117" s="7"/>
-      <c r="X117" s="7"/>
-      <c r="Y117" s="7"/>
-      <c r="Z117" s="7"/>
-      <c r="AA117" s="7"/>
-      <c r="AB117" s="7"/>
-      <c r="AC117" s="7"/>
+      <c r="B117" s="5"/>
+      <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="15"/>
+      <c r="F117" s="5"/>
+      <c r="G117" s="5"/>
+      <c r="H117" s="5"/>
+      <c r="I117" s="5"/>
+      <c r="J117" s="5"/>
+      <c r="K117" s="5"/>
+      <c r="L117" s="5"/>
+      <c r="M117" s="5"/>
+      <c r="N117" s="5"/>
+      <c r="O117" s="5"/>
+      <c r="P117" s="5"/>
+      <c r="Q117" s="5"/>
+      <c r="R117" s="5"/>
+      <c r="S117" s="5"/>
+      <c r="T117" s="5"/>
+      <c r="U117" s="5"/>
+      <c r="V117" s="5"/>
+      <c r="W117" s="5"/>
+      <c r="X117" s="5"/>
+      <c r="Y117" s="5"/>
+      <c r="Z117" s="5"/>
+      <c r="AA117" s="5"/>
+      <c r="AB117" s="5"/>
+      <c r="AC117" s="5"/>
     </row>
     <row r="118" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B118" s="7"/>
-      <c r="C118" s="7"/>
-      <c r="D118" s="7"/>
-      <c r="E118" s="19"/>
-      <c r="F118" s="7"/>
-      <c r="G118" s="7"/>
-      <c r="H118" s="7"/>
-      <c r="I118" s="7"/>
-      <c r="J118" s="7"/>
-      <c r="K118" s="7"/>
-      <c r="L118" s="7"/>
-      <c r="M118" s="7"/>
-      <c r="N118" s="7"/>
-      <c r="O118" s="7"/>
-      <c r="P118" s="7"/>
-      <c r="Q118" s="7"/>
-      <c r="R118" s="7"/>
-      <c r="S118" s="7"/>
-      <c r="T118" s="7"/>
-      <c r="U118" s="7"/>
-      <c r="V118" s="7"/>
-      <c r="W118" s="7"/>
-      <c r="X118" s="7"/>
-      <c r="Y118" s="7"/>
-      <c r="Z118" s="7"/>
-      <c r="AA118" s="7"/>
-      <c r="AB118" s="7"/>
-      <c r="AC118" s="7"/>
+      <c r="B118" s="5"/>
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="15"/>
+      <c r="F118" s="5"/>
+      <c r="G118" s="5"/>
+      <c r="H118" s="5"/>
+      <c r="I118" s="5"/>
+      <c r="J118" s="5"/>
+      <c r="K118" s="5"/>
+      <c r="L118" s="5"/>
+      <c r="M118" s="5"/>
+      <c r="N118" s="5"/>
+      <c r="O118" s="5"/>
+      <c r="P118" s="5"/>
+      <c r="Q118" s="5"/>
+      <c r="R118" s="5"/>
+      <c r="S118" s="5"/>
+      <c r="T118" s="5"/>
+      <c r="U118" s="5"/>
+      <c r="V118" s="5"/>
+      <c r="W118" s="5"/>
+      <c r="X118" s="5"/>
+      <c r="Y118" s="5"/>
+      <c r="Z118" s="5"/>
+      <c r="AA118" s="5"/>
+      <c r="AB118" s="5"/>
+      <c r="AC118" s="5"/>
     </row>
     <row r="119" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B119" s="7"/>
-      <c r="C119" s="7"/>
-      <c r="D119" s="7"/>
-      <c r="E119" s="19"/>
-      <c r="F119" s="7"/>
-      <c r="G119" s="7"/>
-      <c r="H119" s="7"/>
-      <c r="I119" s="7"/>
-      <c r="J119" s="7"/>
-      <c r="K119" s="7"/>
-      <c r="L119" s="7"/>
-      <c r="M119" s="7"/>
-      <c r="N119" s="7"/>
-      <c r="O119" s="7"/>
-      <c r="P119" s="7"/>
-      <c r="Q119" s="7"/>
-      <c r="R119" s="7"/>
-      <c r="S119" s="7"/>
-      <c r="T119" s="7"/>
-      <c r="U119" s="7"/>
-      <c r="V119" s="7"/>
-      <c r="W119" s="7"/>
-      <c r="X119" s="7"/>
-      <c r="Y119" s="7"/>
-      <c r="Z119" s="7"/>
-      <c r="AA119" s="7"/>
-      <c r="AB119" s="7"/>
-      <c r="AC119" s="7"/>
+      <c r="B119" s="5"/>
+      <c r="C119" s="5"/>
+      <c r="D119" s="5"/>
+      <c r="E119" s="15"/>
+      <c r="F119" s="5"/>
+      <c r="G119" s="5"/>
+      <c r="H119" s="5"/>
+      <c r="I119" s="5"/>
+      <c r="J119" s="5"/>
+      <c r="K119" s="5"/>
+      <c r="L119" s="5"/>
+      <c r="M119" s="5"/>
+      <c r="N119" s="5"/>
+      <c r="O119" s="5"/>
+      <c r="P119" s="5"/>
+      <c r="Q119" s="5"/>
+      <c r="R119" s="5"/>
+      <c r="S119" s="5"/>
+      <c r="T119" s="5"/>
+      <c r="U119" s="5"/>
+      <c r="V119" s="5"/>
+      <c r="W119" s="5"/>
+      <c r="X119" s="5"/>
+      <c r="Y119" s="5"/>
+      <c r="Z119" s="5"/>
+      <c r="AA119" s="5"/>
+      <c r="AB119" s="5"/>
+      <c r="AC119" s="5"/>
     </row>
     <row r="120" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B120" s="7"/>
-      <c r="C120" s="7"/>
-      <c r="D120" s="7"/>
-      <c r="E120" s="19"/>
-      <c r="F120" s="7"/>
-      <c r="G120" s="7"/>
-      <c r="H120" s="7"/>
-      <c r="I120" s="7"/>
-      <c r="J120" s="7"/>
-      <c r="K120" s="7"/>
-      <c r="L120" s="7"/>
-      <c r="M120" s="7"/>
-      <c r="N120" s="7"/>
-      <c r="O120" s="7"/>
-      <c r="P120" s="7"/>
-      <c r="Q120" s="7"/>
-      <c r="R120" s="7"/>
-      <c r="S120" s="7"/>
-      <c r="T120" s="7"/>
-      <c r="U120" s="7"/>
-      <c r="V120" s="7"/>
-      <c r="W120" s="7"/>
-      <c r="X120" s="7"/>
-      <c r="Y120" s="7"/>
-      <c r="Z120" s="7"/>
-      <c r="AA120" s="7"/>
-      <c r="AB120" s="7"/>
-      <c r="AC120" s="7"/>
+      <c r="B120" s="5"/>
+      <c r="C120" s="5"/>
+      <c r="D120" s="5"/>
+      <c r="E120" s="15"/>
+      <c r="F120" s="5"/>
+      <c r="G120" s="5"/>
+      <c r="H120" s="5"/>
+      <c r="I120" s="5"/>
+      <c r="J120" s="5"/>
+      <c r="K120" s="5"/>
+      <c r="L120" s="5"/>
+      <c r="M120" s="5"/>
+      <c r="N120" s="5"/>
+      <c r="O120" s="5"/>
+      <c r="P120" s="5"/>
+      <c r="Q120" s="5"/>
+      <c r="R120" s="5"/>
+      <c r="S120" s="5"/>
+      <c r="T120" s="5"/>
+      <c r="U120" s="5"/>
+      <c r="V120" s="5"/>
+      <c r="W120" s="5"/>
+      <c r="X120" s="5"/>
+      <c r="Y120" s="5"/>
+      <c r="Z120" s="5"/>
+      <c r="AA120" s="5"/>
+      <c r="AB120" s="5"/>
+      <c r="AC120" s="5"/>
     </row>
     <row r="121" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B121" s="7"/>
-      <c r="C121" s="7"/>
-      <c r="D121" s="7"/>
-      <c r="E121" s="7"/>
-      <c r="F121" s="7"/>
-      <c r="G121" s="7"/>
-      <c r="H121" s="7"/>
-      <c r="I121" s="7"/>
-      <c r="J121" s="7"/>
-      <c r="K121" s="7"/>
-      <c r="L121" s="7"/>
-      <c r="M121" s="7"/>
-      <c r="N121" s="7"/>
-      <c r="O121" s="7"/>
-      <c r="P121" s="7"/>
-      <c r="Q121" s="7"/>
-      <c r="R121" s="7"/>
-      <c r="S121" s="7"/>
-      <c r="T121" s="7"/>
-      <c r="U121" s="7"/>
-      <c r="V121" s="7"/>
-      <c r="W121" s="7"/>
-      <c r="X121" s="7"/>
-      <c r="Y121" s="7"/>
-      <c r="Z121" s="7"/>
-      <c r="AA121" s="7"/>
-      <c r="AB121" s="7"/>
-      <c r="AC121" s="7"/>
+      <c r="B121" s="5"/>
+      <c r="C121" s="5"/>
+      <c r="D121" s="5"/>
+      <c r="E121" s="5"/>
+      <c r="F121" s="5"/>
+      <c r="G121" s="5"/>
+      <c r="H121" s="5"/>
+      <c r="I121" s="5"/>
+      <c r="J121" s="5"/>
+      <c r="K121" s="5"/>
+      <c r="L121" s="5"/>
+      <c r="M121" s="5"/>
+      <c r="N121" s="5"/>
+      <c r="O121" s="5"/>
+      <c r="P121" s="5"/>
+      <c r="Q121" s="5"/>
+      <c r="R121" s="5"/>
+      <c r="S121" s="5"/>
+      <c r="T121" s="5"/>
+      <c r="U121" s="5"/>
+      <c r="V121" s="5"/>
+      <c r="W121" s="5"/>
+      <c r="X121" s="5"/>
+      <c r="Y121" s="5"/>
+      <c r="Z121" s="5"/>
+      <c r="AA121" s="5"/>
+      <c r="AB121" s="5"/>
+      <c r="AC121" s="5"/>
     </row>
     <row r="122" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B122" s="7"/>
-      <c r="C122" s="7"/>
-      <c r="D122" s="7"/>
-      <c r="E122" s="7"/>
-      <c r="F122" s="7"/>
-      <c r="G122" s="7"/>
-      <c r="H122" s="7"/>
-      <c r="I122" s="7"/>
-      <c r="J122" s="7"/>
-      <c r="K122" s="7"/>
-      <c r="L122" s="7"/>
-      <c r="M122" s="7"/>
-      <c r="N122" s="7"/>
-      <c r="O122" s="7"/>
-      <c r="P122" s="7"/>
-      <c r="Q122" s="7"/>
-      <c r="R122" s="7"/>
-      <c r="S122" s="7"/>
-      <c r="T122" s="7"/>
-      <c r="U122" s="7"/>
-      <c r="V122" s="7"/>
-      <c r="W122" s="7"/>
-      <c r="X122" s="7"/>
-      <c r="Y122" s="7"/>
-      <c r="Z122" s="7"/>
-      <c r="AA122" s="7"/>
-      <c r="AB122" s="7"/>
-      <c r="AC122" s="7"/>
+      <c r="B122" s="5"/>
+      <c r="C122" s="5"/>
+      <c r="D122" s="5"/>
+      <c r="E122" s="5"/>
+      <c r="F122" s="5"/>
+      <c r="G122" s="5"/>
+      <c r="H122" s="5"/>
+      <c r="I122" s="5"/>
+      <c r="J122" s="5"/>
+      <c r="K122" s="5"/>
+      <c r="L122" s="5"/>
+      <c r="M122" s="5"/>
+      <c r="N122" s="5"/>
+      <c r="O122" s="5"/>
+      <c r="P122" s="5"/>
+      <c r="Q122" s="5"/>
+      <c r="R122" s="5"/>
+      <c r="S122" s="5"/>
+      <c r="T122" s="5"/>
+      <c r="U122" s="5"/>
+      <c r="V122" s="5"/>
+      <c r="W122" s="5"/>
+      <c r="X122" s="5"/>
+      <c r="Y122" s="5"/>
+      <c r="Z122" s="5"/>
+      <c r="AA122" s="5"/>
+      <c r="AB122" s="5"/>
+      <c r="AC122" s="5"/>
     </row>
     <row r="123" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="C123" s="7"/>
-      <c r="D123" s="7"/>
-      <c r="E123" s="7"/>
-      <c r="F123" s="7"/>
-      <c r="G123" s="7"/>
-      <c r="H123" s="7"/>
-      <c r="I123" s="28"/>
-      <c r="J123" s="7"/>
-      <c r="K123" s="7"/>
-      <c r="L123" s="7"/>
-      <c r="M123" s="7"/>
-      <c r="N123" s="7"/>
-      <c r="O123" s="7"/>
-      <c r="P123" s="7"/>
-      <c r="Q123" s="7"/>
-      <c r="R123" s="7"/>
-      <c r="S123" s="7"/>
-      <c r="T123" s="7"/>
-      <c r="U123" s="7"/>
-      <c r="V123" s="7"/>
-      <c r="W123" s="7"/>
-      <c r="X123" s="7"/>
-      <c r="Y123" s="7"/>
-      <c r="Z123" s="7"/>
-      <c r="AA123" s="7"/>
-      <c r="AB123" s="7"/>
-      <c r="AC123" s="7"/>
+      <c r="C123" s="5"/>
+      <c r="D123" s="5"/>
+      <c r="E123" s="5"/>
+      <c r="F123" s="5"/>
+      <c r="G123" s="5"/>
+      <c r="H123" s="5"/>
+      <c r="I123" s="24"/>
+      <c r="J123" s="5"/>
+      <c r="K123" s="5"/>
+      <c r="L123" s="5"/>
+      <c r="M123" s="5"/>
+      <c r="N123" s="5"/>
+      <c r="O123" s="5"/>
+      <c r="P123" s="5"/>
+      <c r="Q123" s="5"/>
+      <c r="R123" s="5"/>
+      <c r="S123" s="5"/>
+      <c r="T123" s="5"/>
+      <c r="U123" s="5"/>
+      <c r="V123" s="5"/>
+      <c r="W123" s="5"/>
+      <c r="X123" s="5"/>
+      <c r="Y123" s="5"/>
+      <c r="Z123" s="5"/>
+      <c r="AA123" s="5"/>
+      <c r="AB123" s="5"/>
+      <c r="AC123" s="5"/>
     </row>
     <row r="124" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="C124" s="7"/>
-      <c r="D124" s="7"/>
-      <c r="E124" s="7"/>
-      <c r="F124" s="7"/>
-      <c r="G124" s="7"/>
-      <c r="H124" s="7"/>
-      <c r="I124" s="7"/>
-      <c r="J124" s="7"/>
-      <c r="K124" s="7"/>
-      <c r="L124" s="7"/>
-      <c r="M124" s="7"/>
-      <c r="N124" s="7"/>
-      <c r="O124" s="7"/>
-      <c r="P124" s="7"/>
-      <c r="Q124" s="7"/>
-      <c r="R124" s="7"/>
-      <c r="S124" s="7"/>
-      <c r="T124" s="7"/>
-      <c r="U124" s="7"/>
-      <c r="V124" s="7"/>
-      <c r="W124" s="7"/>
-      <c r="X124" s="7"/>
-      <c r="Y124" s="7"/>
-      <c r="Z124" s="7"/>
-      <c r="AA124" s="7"/>
-      <c r="AB124" s="7"/>
-      <c r="AC124" s="7"/>
+      <c r="C124" s="5"/>
+      <c r="D124" s="5"/>
+      <c r="E124" s="5"/>
+      <c r="F124" s="5"/>
+      <c r="G124" s="5"/>
+      <c r="H124" s="5"/>
+      <c r="I124" s="5"/>
+      <c r="J124" s="5"/>
+      <c r="K124" s="5"/>
+      <c r="L124" s="5"/>
+      <c r="M124" s="5"/>
+      <c r="N124" s="5"/>
+      <c r="O124" s="5"/>
+      <c r="P124" s="5"/>
+      <c r="Q124" s="5"/>
+      <c r="R124" s="5"/>
+      <c r="S124" s="5"/>
+      <c r="T124" s="5"/>
+      <c r="U124" s="5"/>
+      <c r="V124" s="5"/>
+      <c r="W124" s="5"/>
+      <c r="X124" s="5"/>
+      <c r="Y124" s="5"/>
+      <c r="Z124" s="5"/>
+      <c r="AA124" s="5"/>
+      <c r="AB124" s="5"/>
+      <c r="AC124" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documenti/Part 1/Probabilities.xlsx
+++ b/Documenti/Part 1/Probabilities.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alessandrocarughi/Documents/GitHub/DIA_Project/Documenti/Part 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33345828-2830-7640-8174-AD3346FF3843}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD53A87B-DFA8-0949-9E50-19557768DA02}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{292AB044-84C9-AC49-9279-4A2A3B09F51E}"/>
   </bookViews>
@@ -5278,7 +5278,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9352B1A5-A1D3-6A47-B7F2-E5F2E1DD6A53}">
   <dimension ref="B3:AC124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I27" zoomScale="82" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
       <selection activeCell="Z26" sqref="Z26"/>
     </sheetView>
   </sheetViews>
@@ -5460,7 +5460,7 @@
         <v>1.927825E-2</v>
       </c>
       <c r="R13" s="3">
-        <f t="shared" ref="R12:R19" si="2">R12+25</f>
+        <f t="shared" ref="R13:R16" si="2">R12+25</f>
         <v>350</v>
       </c>
       <c r="S13" s="7">
@@ -5469,7 +5469,7 @@
       </c>
       <c r="T13" s="9"/>
       <c r="V13" s="3">
-        <f t="shared" ref="V12:V19" si="3">V12+25</f>
+        <f t="shared" ref="V13:V16" si="3">V12+25</f>
         <v>350</v>
       </c>
       <c r="W13" s="7">
@@ -5477,7 +5477,7 @@
         <v>1.5747000000000001E-2</v>
       </c>
       <c r="Z13" s="3">
-        <f t="shared" ref="Z12:Z19" si="4">Z12+25</f>
+        <f t="shared" ref="Z13:Z16" si="4">Z12+25</f>
         <v>350</v>
       </c>
       <c r="AA13" s="7">
@@ -5883,7 +5883,7 @@
       </c>
       <c r="F33" s="15"/>
       <c r="P33" s="22">
-        <f t="shared" ref="P33:P82" si="5">S33*1/2 +W33*1/4 +AA33*1/4</f>
+        <f t="shared" ref="P33:P79" si="5">S33*1/2 +W33*1/4 +AA33*1/4</f>
         <v>2.9749999999999999E-2</v>
       </c>
       <c r="Q33" s="8" t="s">
@@ -5920,7 +5920,7 @@
         <v>2.81E-2</v>
       </c>
       <c r="AC33" s="22">
-        <f t="shared" ref="AC33:AC40" si="6">E33-AA33</f>
+        <f t="shared" ref="AC33:AC37" si="6">E33-AA33</f>
         <v>1.6499999999999987E-3</v>
       </c>
     </row>

--- a/Documenti/Part 1/Probabilities.xlsx
+++ b/Documenti/Part 1/Probabilities.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alessandrocarughi/Documents/GitHub/DIA_Project/Documenti/Part 1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alessandrocarughi/Documents/Documenti - Ale3eMac/GitHub/DIA_Project/Documenti/Part 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD53A87B-DFA8-0949-9E50-19557768DA02}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC7D7DA-AEF1-AE4D-BF01-88560B2AA3EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{292AB044-84C9-AC49-9279-4A2A3B09F51E}"/>
   </bookViews>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -444,19 +446,19 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.8253750000000001E-2</c:v>
+                  <c:v>0.2825375</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.927825E-2</c:v>
+                  <c:v>0.1927825</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2904750000000001E-2</c:v>
+                  <c:v>0.12904750000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.0512500000000002E-3</c:v>
+                  <c:v>6.0512499999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2437500000000001E-3</c:v>
+                  <c:v>1.2437500000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -758,19 +760,19 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.9749999999999999E-2</c:v>
+                  <c:v>0.29749999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0999999999999998E-2</c:v>
+                  <c:v>0.21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3475000000000001E-2</c:v>
+                  <c:v>0.13475000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.2750000000000002E-3</c:v>
+                  <c:v>6.275E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4E-3</c:v>
+                  <c:v>1.4E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1073,19 +1075,19 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.5125000000000001E-2</c:v>
+                  <c:v>0.25124999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5085000000000001E-2</c:v>
+                  <c:v>0.15085000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1755E-2</c:v>
+                  <c:v>0.11755</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.4000000000000003E-3</c:v>
+                  <c:v>5.3999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.7500000000000002E-4</c:v>
+                  <c:v>8.7500000000000008E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1388,19 +1390,19 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.8325000000000001E-2</c:v>
+                  <c:v>0.18325</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0224999999999998E-2</c:v>
+                  <c:v>0.10224999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.9499999999999962E-3</c:v>
+                  <c:v>8.9499999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.3E-3</c:v>
+                  <c:v>5.2999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.7500000000000001E-4</c:v>
+                  <c:v>3.7499999999999999E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1710,19 +1712,19 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3.117E-2</c:v>
+                  <c:v>0.31170000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2372E-2</c:v>
+                  <c:v>0.22372</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4023000000000001E-2</c:v>
+                  <c:v>0.14022999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.8400000000000006E-3</c:v>
+                  <c:v>6.8399999999999989E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6150000000000001E-3</c:v>
+                  <c:v>1.6149999999999998E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1782,19 +1784,19 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.452E-2</c:v>
+                  <c:v>0.2452</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5747000000000001E-2</c:v>
+                  <c:v>0.15747</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1248000000000001E-2</c:v>
+                  <c:v>0.11248000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.9950000000000003E-3</c:v>
+                  <c:v>4.9950000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.9000000000000008E-4</c:v>
+                  <c:v>6.9000000000000008E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1855,19 +1857,19 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.6155000000000001E-2</c:v>
+                  <c:v>0.26155</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6622000000000001E-2</c:v>
+                  <c:v>0.16622000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2324999999999999E-2</c:v>
+                  <c:v>0.12325</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.5299999999999993E-3</c:v>
+                  <c:v>5.5300000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0549999999999999E-3</c:v>
+                  <c:v>1.0550000000000002E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4942,16 +4944,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>820853</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>1858</xdr:rowOff>
+      <xdr:rowOff>1859</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>774390</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>123901</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>30975</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>61952</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5278,8 +5280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9352B1A5-A1D3-6A47-B7F2-E5F2E1DD6A53}">
   <dimension ref="B3:AC124"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="Z26" sqref="Z26"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="82" workbookViewId="0">
+      <selection activeCell="AA22" sqref="AA22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5405,12 +5407,12 @@
       </c>
       <c r="E12" s="6">
         <f>E33*$C$31 + E54*$C$52 + E75*$C$73</f>
-        <v>2.8253750000000001E-2</v>
+        <v>0.2825375</v>
       </c>
       <c r="G12" s="19"/>
       <c r="P12" s="22">
         <f>S12*1/2 +W12*1/4 +AA12*1/4</f>
-        <v>2.8253749999999998E-2</v>
+        <v>0.2825375</v>
       </c>
       <c r="Q12" s="8" t="s">
         <v>2</v>
@@ -5420,7 +5422,7 @@
       </c>
       <c r="S12" s="29">
         <f>S33*$C$31+S54*$C$52+S75*$C$73</f>
-        <v>3.117E-2</v>
+        <v>0.31170000000000003</v>
       </c>
       <c r="T12" s="9"/>
       <c r="U12" s="8" t="s">
@@ -5431,7 +5433,7 @@
       </c>
       <c r="W12" s="29">
         <f>W33*$C$31+W54*$C$52+W75*$C$73</f>
-        <v>2.452E-2</v>
+        <v>0.2452</v>
       </c>
       <c r="Y12" s="8" t="s">
         <v>2</v>
@@ -5441,7 +5443,7 @@
       </c>
       <c r="AA12" s="29">
         <f>AA33*$C$31+AA54*$C$52+AA75*$C$73</f>
-        <v>2.6155000000000001E-2</v>
+        <v>0.26155</v>
       </c>
     </row>
     <row r="13" spans="2:27" x14ac:dyDescent="0.2">
@@ -5451,13 +5453,13 @@
       </c>
       <c r="E13" s="7">
         <f>E34*$C$31 + E55*$C$52 + E76*$C$73</f>
-        <v>1.927825E-2</v>
+        <v>0.1927825</v>
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="19"/>
       <c r="P13" s="22">
         <f t="shared" ref="P13:P16" si="1">S13*1/2 +W13*1/4 +AA13*1/4</f>
-        <v>1.927825E-2</v>
+        <v>0.19278250000000002</v>
       </c>
       <c r="R13" s="3">
         <f t="shared" ref="R13:R16" si="2">R12+25</f>
@@ -5465,7 +5467,7 @@
       </c>
       <c r="S13" s="7">
         <f>S34*$C$31+S55*$C$52+S76*$C$73</f>
-        <v>2.2372E-2</v>
+        <v>0.22372</v>
       </c>
       <c r="T13" s="9"/>
       <c r="V13" s="3">
@@ -5474,7 +5476,7 @@
       </c>
       <c r="W13" s="7">
         <f>W34*$C$31+W55*$C$52+W76*$C$73</f>
-        <v>1.5747000000000001E-2</v>
+        <v>0.15747</v>
       </c>
       <c r="Z13" s="3">
         <f t="shared" ref="Z13:Z16" si="4">Z12+25</f>
@@ -5482,7 +5484,7 @@
       </c>
       <c r="AA13" s="7">
         <f>AA34*$C$31+AA55*$C$52+AA76*$C$73</f>
-        <v>1.6622000000000001E-2</v>
+        <v>0.16622000000000001</v>
       </c>
     </row>
     <row r="14" spans="2:27" x14ac:dyDescent="0.2">
@@ -5492,13 +5494,13 @@
       </c>
       <c r="E14" s="6">
         <f>E35*$C$31 + E56*$C$52 + E77*$C$73</f>
-        <v>1.2904750000000001E-2</v>
+        <v>0.12904750000000001</v>
       </c>
       <c r="F14" s="15"/>
       <c r="G14" s="19"/>
       <c r="P14" s="22">
         <f t="shared" si="1"/>
-        <v>1.290475E-2</v>
+        <v>0.12904749999999998</v>
       </c>
       <c r="R14" s="2">
         <f t="shared" si="2"/>
@@ -5506,7 +5508,7 @@
       </c>
       <c r="S14" s="6">
         <f>S35*$C$31+S56*$C$52+S77*$C$73</f>
-        <v>1.4023000000000001E-2</v>
+        <v>0.14022999999999997</v>
       </c>
       <c r="T14" s="9"/>
       <c r="V14" s="2">
@@ -5515,7 +5517,7 @@
       </c>
       <c r="W14" s="6">
         <f>W35*$C$31+W56*$C$52+W77*$C$73</f>
-        <v>1.1248000000000001E-2</v>
+        <v>0.11248000000000001</v>
       </c>
       <c r="Z14" s="2">
         <f t="shared" si="4"/>
@@ -5523,7 +5525,7 @@
       </c>
       <c r="AA14" s="6">
         <f>AA35*$C$31+AA56*$C$52+AA77*$C$73</f>
-        <v>1.2324999999999999E-2</v>
+        <v>0.12325</v>
       </c>
     </row>
     <row r="15" spans="2:27" x14ac:dyDescent="0.2">
@@ -5533,13 +5535,13 @@
       </c>
       <c r="E15" s="7">
         <f>E36*$C$31 + E57*$C$52 + E78*$C$73</f>
-        <v>6.0512500000000002E-3</v>
+        <v>6.0512499999999997E-2</v>
       </c>
       <c r="F15" s="15"/>
       <c r="G15" s="19"/>
       <c r="P15" s="22">
         <f t="shared" si="1"/>
-        <v>6.0512500000000002E-3</v>
+        <v>6.0512499999999997E-2</v>
       </c>
       <c r="R15" s="3">
         <f t="shared" si="2"/>
@@ -5547,7 +5549,7 @@
       </c>
       <c r="S15" s="7">
         <f>S36*$C$31+S57*$C$52+S78*$C$73</f>
-        <v>6.8400000000000006E-3</v>
+        <v>6.8399999999999989E-2</v>
       </c>
       <c r="T15" s="9"/>
       <c r="V15" s="3">
@@ -5556,7 +5558,7 @@
       </c>
       <c r="W15" s="7">
         <f>W36*$C$31+W57*$C$52+W78*$C$73</f>
-        <v>4.9950000000000003E-3</v>
+        <v>4.9950000000000001E-2</v>
       </c>
       <c r="Z15" s="3">
         <f t="shared" si="4"/>
@@ -5564,7 +5566,7 @@
       </c>
       <c r="AA15" s="7">
         <f>AA36*$C$31+AA57*$C$52+AA78*$C$73</f>
-        <v>5.5299999999999993E-3</v>
+        <v>5.5300000000000002E-2</v>
       </c>
     </row>
     <row r="16" spans="2:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -5574,13 +5576,13 @@
       </c>
       <c r="E16" s="27">
         <f>E37*$C$31 + E58*$C$52 + E79*$C$73</f>
-        <v>1.2437500000000001E-3</v>
+        <v>1.2437500000000001E-2</v>
       </c>
       <c r="F16" s="15"/>
       <c r="G16" s="19"/>
       <c r="P16" s="22">
         <f t="shared" si="1"/>
-        <v>1.2437500000000001E-3</v>
+        <v>1.2437500000000001E-2</v>
       </c>
       <c r="R16" s="26">
         <f t="shared" si="2"/>
@@ -5588,7 +5590,7 @@
       </c>
       <c r="S16" s="27">
         <f>S37*$C$31+S58*$C$52+S79*$C$73</f>
-        <v>1.6150000000000001E-3</v>
+        <v>1.6149999999999998E-2</v>
       </c>
       <c r="T16" s="9"/>
       <c r="V16" s="26">
@@ -5597,7 +5599,7 @@
       </c>
       <c r="W16" s="27">
         <f>W37*$C$31+W58*$C$52+W79*$C$73</f>
-        <v>6.9000000000000008E-4</v>
+        <v>6.9000000000000008E-3</v>
       </c>
       <c r="Z16" s="26">
         <f t="shared" si="4"/>
@@ -5605,7 +5607,7 @@
       </c>
       <c r="AA16" s="27">
         <f>AA37*$C$31+AA58*$C$52+AA79*$C$73</f>
-        <v>1.0549999999999999E-3</v>
+        <v>1.0550000000000002E-2</v>
       </c>
     </row>
     <row r="17" spans="3:29" x14ac:dyDescent="0.2">
@@ -5879,12 +5881,12 @@
         <v>325</v>
       </c>
       <c r="E33" s="6">
-        <v>2.9749999999999999E-2</v>
+        <v>0.29749999999999999</v>
       </c>
       <c r="F33" s="15"/>
       <c r="P33" s="22">
         <f t="shared" ref="P33:P79" si="5">S33*1/2 +W33*1/4 +AA33*1/4</f>
-        <v>2.9749999999999999E-2</v>
+        <v>0.29749999999999999</v>
       </c>
       <c r="Q33" s="8" t="s">
         <v>0</v>
@@ -5893,7 +5895,7 @@
         <v>325</v>
       </c>
       <c r="S33" s="29">
-        <v>3.2399999999999998E-2</v>
+        <v>0.32400000000000001</v>
       </c>
       <c r="T33" s="22">
         <v>-2.5999999999999981E-4</v>
@@ -5905,7 +5907,7 @@
         <v>325</v>
       </c>
       <c r="W33" s="29">
-        <v>2.6100000000000002E-2</v>
+        <v>0.26100000000000001</v>
       </c>
       <c r="X33" s="22">
         <v>2.0400000000000001E-3</v>
@@ -5917,11 +5919,11 @@
         <v>325</v>
       </c>
       <c r="AA33" s="29">
-        <v>2.81E-2</v>
+        <v>0.28100000000000003</v>
       </c>
       <c r="AC33" s="22">
         <f t="shared" ref="AC33:AC37" si="6">E33-AA33</f>
-        <v>1.6499999999999987E-3</v>
+        <v>1.6499999999999959E-2</v>
       </c>
     </row>
     <row r="34" spans="3:29" x14ac:dyDescent="0.2">
@@ -5930,18 +5932,18 @@
         <v>350</v>
       </c>
       <c r="E34" s="7">
-        <v>2.0999999999999998E-2</v>
+        <v>0.21</v>
       </c>
       <c r="F34" s="15"/>
       <c r="P34" s="22">
         <f t="shared" si="5"/>
-        <v>2.0999999999999998E-2</v>
+        <v>0.21000000000000002</v>
       </c>
       <c r="R34" s="3">
         <v>350</v>
       </c>
       <c r="S34" s="7">
-        <v>2.47E-2</v>
+        <v>0.247</v>
       </c>
       <c r="T34" s="22">
         <v>-1.7799999999999969E-3</v>
@@ -5950,7 +5952,7 @@
         <v>350</v>
       </c>
       <c r="W34" s="7">
-        <v>1.6799999999999999E-2</v>
+        <v>0.16800000000000001</v>
       </c>
       <c r="X34" s="22">
         <v>1.0200000000000035E-3</v>
@@ -5959,11 +5961,11 @@
         <v>350</v>
       </c>
       <c r="AA34" s="7">
-        <v>1.78E-2</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="AC34" s="22">
         <f t="shared" si="6"/>
-        <v>3.199999999999998E-3</v>
+        <v>3.2000000000000001E-2</v>
       </c>
     </row>
     <row r="35" spans="3:29" x14ac:dyDescent="0.2">
@@ -5972,18 +5974,18 @@
         <v>375</v>
       </c>
       <c r="E35" s="6">
-        <v>1.3475000000000001E-2</v>
+        <v>0.13475000000000001</v>
       </c>
       <c r="F35" s="15"/>
       <c r="P35" s="22">
         <f t="shared" si="5"/>
-        <v>1.3475000000000001E-2</v>
+        <v>0.13474999999999998</v>
       </c>
       <c r="R35" s="2">
         <v>375</v>
       </c>
       <c r="S35" s="6">
-        <v>1.44E-2</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="T35" s="22">
         <v>-5.7999999999999718E-4</v>
@@ -5992,7 +5994,7 @@
         <v>375</v>
       </c>
       <c r="W35" s="6">
-        <v>1.17E-2</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="X35" s="22">
         <v>2.420000000000002E-3</v>
@@ -6001,11 +6003,11 @@
         <v>375</v>
       </c>
       <c r="AA35" s="6">
-        <v>1.34E-2</v>
+        <v>0.13400000000000001</v>
       </c>
       <c r="AC35" s="22">
         <f t="shared" si="6"/>
-        <v>7.5000000000000414E-5</v>
+        <v>7.5000000000000067E-4</v>
       </c>
     </row>
     <row r="36" spans="3:29" x14ac:dyDescent="0.2">
@@ -6014,18 +6016,18 @@
         <v>400</v>
       </c>
       <c r="E36" s="7">
-        <v>6.2750000000000002E-3</v>
+        <v>6.275E-2</v>
       </c>
       <c r="F36" s="15"/>
       <c r="P36" s="22">
         <f t="shared" si="5"/>
-        <v>6.2750000000000002E-3</v>
+        <v>6.275E-2</v>
       </c>
       <c r="R36" s="3">
         <v>400</v>
       </c>
       <c r="S36" s="7">
-        <v>7.1000000000000004E-3</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="T36" s="22">
         <v>-1.3999999999999985E-3</v>
@@ -6034,7 +6036,7 @@
         <v>400</v>
       </c>
       <c r="W36" s="7">
-        <v>5.1000000000000004E-3</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="X36" s="22">
         <v>1.9000000000000024E-3</v>
@@ -6043,11 +6045,11 @@
         <v>400</v>
       </c>
       <c r="AA36" s="7">
-        <v>5.7999999999999996E-3</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="AC36" s="22">
         <f t="shared" si="6"/>
-        <v>4.750000000000006E-4</v>
+        <v>4.7499999999999973E-3</v>
       </c>
     </row>
     <row r="37" spans="3:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -6056,18 +6058,18 @@
         <v>425</v>
       </c>
       <c r="E37" s="27">
-        <v>1.4E-3</v>
+        <v>1.4E-2</v>
       </c>
       <c r="F37" s="15"/>
       <c r="P37" s="22">
         <f t="shared" si="5"/>
-        <v>1.4E-3</v>
+        <v>1.3999999999999999E-2</v>
       </c>
       <c r="R37" s="26">
         <v>425</v>
       </c>
       <c r="S37" s="27">
-        <v>1.8E-3</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="T37" s="22">
         <v>-1.6199999999999964E-3</v>
@@ -6076,7 +6078,7 @@
         <v>425</v>
       </c>
       <c r="W37" s="27">
-        <v>8.0000000000000004E-4</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="X37" s="22">
         <v>1.3800000000000028E-3</v>
@@ -6085,11 +6087,11 @@
         <v>425</v>
       </c>
       <c r="AA37" s="27">
-        <v>1.1999999999999999E-3</v>
+        <v>1.2E-2</v>
       </c>
       <c r="AC37" s="22">
         <f t="shared" si="6"/>
-        <v>2.0000000000000009E-4</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="38" spans="3:29" x14ac:dyDescent="0.2">
@@ -6358,12 +6360,12 @@
         <v>325</v>
       </c>
       <c r="E54" s="6">
-        <v>2.5125000000000001E-2</v>
+        <v>0.25124999999999997</v>
       </c>
       <c r="F54" s="15"/>
       <c r="P54" s="22">
         <f t="shared" si="5"/>
-        <v>2.5125000000000001E-2</v>
+        <v>0.25124999999999997</v>
       </c>
       <c r="Q54" s="8" t="s">
         <v>3</v>
@@ -6372,7 +6374,7 @@
         <v>325</v>
       </c>
       <c r="S54" s="6">
-        <v>2.9399999999999999E-2</v>
+        <v>0.29399999999999998</v>
       </c>
       <c r="U54" s="8" t="s">
         <v>3</v>
@@ -6381,7 +6383,7 @@
         <v>325</v>
       </c>
       <c r="W54" s="6">
-        <v>2.06E-2</v>
+        <v>0.20599999999999999</v>
       </c>
       <c r="Y54" s="8" t="s">
         <v>3</v>
@@ -6390,7 +6392,7 @@
         <v>325</v>
       </c>
       <c r="AA54" s="6">
-        <v>2.1100000000000001E-2</v>
+        <v>0.21099999999999999</v>
       </c>
     </row>
     <row r="55" spans="3:29" x14ac:dyDescent="0.2">
@@ -6398,30 +6400,30 @@
         <v>350</v>
       </c>
       <c r="E55" s="7">
-        <v>1.5085000000000001E-2</v>
+        <v>0.15085000000000001</v>
       </c>
       <c r="F55" s="15"/>
       <c r="P55" s="22">
         <f t="shared" si="5"/>
-        <v>1.5085000000000001E-2</v>
+        <v>0.15084999999999998</v>
       </c>
       <c r="R55" s="3">
         <v>350</v>
       </c>
       <c r="S55" s="7">
-        <v>1.636E-2</v>
+        <v>0.1636</v>
       </c>
       <c r="V55" s="3">
         <v>350</v>
       </c>
       <c r="W55" s="7">
-        <v>1.3559999999999999E-2</v>
+        <v>0.1356</v>
       </c>
       <c r="Z55" s="3">
         <v>350</v>
       </c>
       <c r="AA55" s="7">
-        <v>1.406E-2</v>
+        <v>0.1406</v>
       </c>
     </row>
     <row r="56" spans="3:29" x14ac:dyDescent="0.2">
@@ -6429,30 +6431,30 @@
         <v>375</v>
       </c>
       <c r="E56" s="6">
-        <v>1.1755E-2</v>
+        <v>0.11755</v>
       </c>
       <c r="F56" s="15"/>
       <c r="P56" s="22">
         <f t="shared" si="5"/>
-        <v>1.1755E-2</v>
+        <v>0.11754999999999999</v>
       </c>
       <c r="R56" s="2">
         <v>375</v>
       </c>
       <c r="S56" s="6">
-        <v>1.354E-2</v>
+        <v>0.13539999999999999</v>
       </c>
       <c r="V56" s="2">
         <v>375</v>
       </c>
       <c r="W56" s="6">
-        <v>1.0540000000000001E-2</v>
+        <v>0.10539999999999999</v>
       </c>
       <c r="Z56" s="2">
         <v>375</v>
       </c>
       <c r="AA56" s="6">
-        <v>9.4000000000000004E-3</v>
+        <v>9.4E-2</v>
       </c>
     </row>
     <row r="57" spans="3:29" x14ac:dyDescent="0.2">
@@ -6460,30 +6462,30 @@
         <v>400</v>
       </c>
       <c r="E57" s="7">
-        <v>5.4000000000000003E-3</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="F57" s="15"/>
       <c r="P57" s="22">
         <f t="shared" si="5"/>
-        <v>5.4000000000000003E-3</v>
+        <v>5.3999999999999992E-2</v>
       </c>
       <c r="R57" s="3">
         <v>400</v>
       </c>
       <c r="S57" s="7">
-        <v>6.1000000000000004E-3</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="V57" s="3">
         <v>400</v>
       </c>
       <c r="W57" s="7">
-        <v>4.7999999999999996E-3</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="Z57" s="3">
         <v>400</v>
       </c>
       <c r="AA57" s="7">
-        <v>4.5999999999999999E-3</v>
+        <v>4.5999999999999999E-2</v>
       </c>
     </row>
     <row r="58" spans="3:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -6491,30 +6493,30 @@
         <v>425</v>
       </c>
       <c r="E58" s="27">
-        <v>8.7500000000000002E-4</v>
+        <v>8.7500000000000008E-3</v>
       </c>
       <c r="F58" s="15"/>
       <c r="P58" s="22">
         <f t="shared" si="5"/>
-        <v>8.7500000000000002E-4</v>
+        <v>8.7500000000000008E-3</v>
       </c>
       <c r="R58" s="26">
         <v>425</v>
       </c>
       <c r="S58" s="27">
-        <v>1.1999999999999999E-3</v>
+        <v>1.2E-2</v>
       </c>
       <c r="V58" s="26">
         <v>425</v>
       </c>
       <c r="W58" s="27">
-        <v>4.0000000000000002E-4</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="Z58" s="26">
         <v>425</v>
       </c>
       <c r="AA58" s="27">
-        <v>6.9999999999999999E-4</v>
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="59" spans="3:29" x14ac:dyDescent="0.2">
@@ -6796,12 +6798,12 @@
         <v>325</v>
       </c>
       <c r="E75" s="6">
-        <v>1.8325000000000001E-2</v>
+        <v>0.18325</v>
       </c>
       <c r="F75" s="15"/>
       <c r="P75" s="22">
         <f t="shared" si="5"/>
-        <v>1.8325000000000001E-2</v>
+        <v>0.18325000000000002</v>
       </c>
       <c r="Q75" s="8" t="s">
         <v>4</v>
@@ -6810,7 +6812,7 @@
         <v>325</v>
       </c>
       <c r="S75" s="29">
-        <v>1.9800000000000002E-2</v>
+        <v>0.19800000000000001</v>
       </c>
       <c r="U75" s="8" t="s">
         <v>4</v>
@@ -6819,7 +6821,7 @@
         <v>325</v>
       </c>
       <c r="W75" s="29">
-        <v>1.6500000000000001E-2</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="Y75" s="8" t="s">
         <v>4</v>
@@ -6828,7 +6830,7 @@
         <v>325</v>
       </c>
       <c r="AA75" s="29">
-        <v>1.72E-2</v>
+        <v>0.17199999999999999</v>
       </c>
     </row>
     <row r="76" spans="3:29" x14ac:dyDescent="0.2">
@@ -6836,30 +6838,30 @@
         <v>350</v>
       </c>
       <c r="E76" s="7">
-        <v>1.0224999999999998E-2</v>
+        <v>0.10224999999999999</v>
       </c>
       <c r="F76" s="15"/>
       <c r="P76" s="22">
         <f t="shared" si="5"/>
-        <v>1.0224999999999998E-2</v>
+        <v>0.10225000000000001</v>
       </c>
       <c r="R76" s="3">
         <v>350</v>
       </c>
       <c r="S76" s="7">
-        <v>1.1499999999999996E-2</v>
+        <v>0.115</v>
       </c>
       <c r="V76" s="3">
         <v>350</v>
       </c>
       <c r="W76" s="7">
-        <v>8.6999999999999959E-3</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="Z76" s="3">
         <v>350</v>
       </c>
       <c r="AA76" s="7">
-        <v>9.1999999999999964E-3</v>
+        <v>9.1999999999999998E-2</v>
       </c>
     </row>
     <row r="77" spans="3:29" x14ac:dyDescent="0.2">
@@ -6867,30 +6869,30 @@
         <v>375</v>
       </c>
       <c r="E77" s="6">
-        <v>8.9499999999999962E-3</v>
+        <v>8.9499999999999996E-2</v>
       </c>
       <c r="F77" s="15"/>
       <c r="P77" s="22">
         <f t="shared" si="5"/>
-        <v>8.9499999999999962E-3</v>
+        <v>8.9499999999999996E-2</v>
       </c>
       <c r="R77" s="2">
         <v>375</v>
       </c>
       <c r="S77" s="6">
-        <v>1.0299999999999997E-2</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="V77" s="2">
         <v>375</v>
       </c>
       <c r="W77" s="6">
-        <v>7.2999999999999975E-3</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="Z77" s="2">
         <v>375</v>
       </c>
       <c r="AA77" s="6">
-        <v>7.8999999999999973E-3</v>
+        <v>7.9000000000000001E-2</v>
       </c>
     </row>
     <row r="78" spans="3:29" x14ac:dyDescent="0.2">
@@ -6898,30 +6900,30 @@
         <v>400</v>
       </c>
       <c r="E78" s="7">
-        <v>5.3E-3</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="F78" s="15"/>
       <c r="P78" s="22">
         <f t="shared" si="5"/>
-        <v>5.3E-3</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="R78" s="3">
         <v>400</v>
       </c>
       <c r="S78" s="7">
-        <v>5.8999999999999999E-3</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="V78" s="3">
         <v>400</v>
       </c>
       <c r="W78" s="7">
-        <v>4.1999999999999997E-3</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="Z78" s="3">
         <v>400</v>
       </c>
       <c r="AA78" s="7">
-        <v>5.1999999999999998E-3</v>
+        <v>5.1999999999999998E-2</v>
       </c>
     </row>
     <row r="79" spans="3:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -6929,30 +6931,30 @@
         <v>425</v>
       </c>
       <c r="E79" s="27">
-        <v>3.7500000000000001E-4</v>
+        <v>3.7499999999999999E-3</v>
       </c>
       <c r="F79" s="15"/>
       <c r="P79" s="22">
         <f t="shared" si="5"/>
-        <v>3.7500000000000001E-4</v>
+        <v>3.7499999999999999E-3</v>
       </c>
       <c r="R79" s="26">
         <v>425</v>
       </c>
       <c r="S79" s="27">
-        <v>5.0000000000000001E-4</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="V79" s="26">
         <v>425</v>
       </c>
       <c r="W79" s="27">
-        <v>2.0000000000000001E-4</v>
+        <v>2E-3</v>
       </c>
       <c r="Z79" s="26">
         <v>425</v>
       </c>
       <c r="AA79" s="27">
-        <v>2.9999999999999997E-4</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="80" spans="3:29" x14ac:dyDescent="0.2">
